--- a/tests/Feature/config/property-mortgage-interest-only-vs-fond_zero.xlsx
+++ b/tests/Feature/config/property-mortgage-interest-only-vs-fond_zero.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>private</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Salg</t>
+  </si>
+  <si>
+    <t>Skjermingsfradrag</t>
   </si>
   <si>
     <t>Cashflow</t>
@@ -171,6 +174,9 @@
   </si>
   <si>
     <t>fond</t>
+  </si>
+  <si>
+    <t>equityfund</t>
   </si>
   <si>
     <t>transfered 220800 - 0 (tax) = 220800 from house.2024.cashflow.afterTaxAmount  Asset rule: Using current amount: 1000 * 1</t>
@@ -694,7 +700,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AM80"/>
+  <dimension ref="A1:AO80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A60" sqref="A60:AM60"/>
@@ -732,20 +738,20 @@
     <col min="28" max="28" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="29" max="29" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="36" max="36" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="31" max="31" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="32" max="32" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="33" max="33" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="34" max="34" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="36" max="36" width="17.567" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -773,7 +779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -801,109 +807,112 @@
       <c r="AG4" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>16</v>
       </c>
       <c r="AJ4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:39">
+      <c r="AL4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="R5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="AF5" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="AG5" s="3" t="s">
         <v>15</v>
@@ -912,22 +921,28 @@
         <v>40</v>
       </c>
       <c r="AI5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AK5" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="AL5" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AM5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:39">
+      <c r="AO5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -984,9 +999,13 @@
         <v>0.0</v>
       </c>
       <c r="X6" s="2"/>
-      <c r="Y6" s="1"/>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="1"/>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
       <c r="AB6" s="1">
         <v>0</v>
       </c>
@@ -995,26 +1014,29 @@
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG6" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI6" s="1"/>
       <c r="AJ6" s="1">
         <v>0</v>
       </c>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="2"/>
+      <c r="AK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0</v>
+      </c>
       <c r="AM6"/>
-    </row>
-    <row r="7" spans="1:39">
+      <c r="AO6"/>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -1071,9 +1093,13 @@
         <v>0.0</v>
       </c>
       <c r="X7" s="2"/>
-      <c r="Y7" s="1"/>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="1"/>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
       <c r="AB7" s="1">
         <v>0</v>
       </c>
@@ -1082,26 +1108,29 @@
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG7" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI7" s="1"/>
       <c r="AJ7" s="1">
         <v>0</v>
       </c>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="2"/>
+      <c r="AK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>0</v>
+      </c>
       <c r="AM7"/>
-    </row>
-    <row r="8" spans="1:39">
+      <c r="AO7"/>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -1158,9 +1187,13 @@
         <v>0.0</v>
       </c>
       <c r="X8" s="2"/>
-      <c r="Y8" s="1"/>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="1"/>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
       <c r="AB8" s="1">
         <v>0</v>
       </c>
@@ -1169,26 +1202,29 @@
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG8" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI8" s="1"/>
       <c r="AJ8" s="1">
         <v>0</v>
       </c>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="2"/>
+      <c r="AK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>0</v>
+      </c>
       <c r="AM8"/>
-    </row>
-    <row r="9" spans="1:39">
+      <c r="AO8"/>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9">
         <v>2014</v>
       </c>
@@ -1245,9 +1281,13 @@
         <v>0.0</v>
       </c>
       <c r="X9" s="2"/>
-      <c r="Y9" s="1"/>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="1"/>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
       <c r="AB9" s="1">
         <v>0</v>
       </c>
@@ -1256,26 +1296,29 @@
       </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG9" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI9" s="1"/>
       <c r="AJ9" s="1">
         <v>0</v>
       </c>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="2"/>
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>0</v>
+      </c>
       <c r="AM9"/>
-    </row>
-    <row r="10" spans="1:39">
+      <c r="AO9"/>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -1332,9 +1375,13 @@
         <v>0.0</v>
       </c>
       <c r="X10" s="2"/>
-      <c r="Y10" s="1"/>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="1"/>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
       <c r="AB10" s="1">
         <v>0</v>
       </c>
@@ -1343,26 +1390,29 @@
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG10" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI10" s="1"/>
       <c r="AJ10" s="1">
         <v>0</v>
       </c>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="2"/>
+      <c r="AK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>0</v>
+      </c>
       <c r="AM10"/>
-    </row>
-    <row r="11" spans="1:39">
+      <c r="AO10"/>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -1419,9 +1469,13 @@
         <v>0.0</v>
       </c>
       <c r="X11" s="2"/>
-      <c r="Y11" s="1"/>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="1"/>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
       <c r="AB11" s="1">
         <v>0</v>
       </c>
@@ -1430,26 +1484,29 @@
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG11" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI11" s="1"/>
       <c r="AJ11" s="1">
         <v>0</v>
       </c>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="2"/>
+      <c r="AK11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>0</v>
+      </c>
       <c r="AM11"/>
-    </row>
-    <row r="12" spans="1:39">
+      <c r="AO11"/>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -1506,9 +1563,13 @@
         <v>0.0</v>
       </c>
       <c r="X12" s="2"/>
-      <c r="Y12" s="1"/>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="1"/>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
       <c r="AB12" s="1">
         <v>0</v>
       </c>
@@ -1517,26 +1578,29 @@
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG12" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI12" s="1"/>
       <c r="AJ12" s="1">
         <v>0</v>
       </c>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="2"/>
+      <c r="AK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>0</v>
+      </c>
       <c r="AM12"/>
-    </row>
-    <row r="13" spans="1:39">
+      <c r="AO12"/>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -1593,9 +1657,13 @@
         <v>0.0</v>
       </c>
       <c r="X13" s="2"/>
-      <c r="Y13" s="1"/>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="1"/>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
       <c r="AB13" s="1">
         <v>0</v>
       </c>
@@ -1604,26 +1672,29 @@
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG13" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI13" s="1"/>
       <c r="AJ13" s="1">
         <v>0</v>
       </c>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="2"/>
+      <c r="AK13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>0</v>
+      </c>
       <c r="AM13"/>
-    </row>
-    <row r="14" spans="1:39">
+      <c r="AO13"/>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -1680,9 +1751,13 @@
         <v>0.0</v>
       </c>
       <c r="X14" s="2"/>
-      <c r="Y14" s="1"/>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="1"/>
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
       <c r="AB14" s="1">
         <v>0</v>
       </c>
@@ -1691,26 +1766,29 @@
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG14" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI14" s="1"/>
       <c r="AJ14" s="1">
         <v>0</v>
       </c>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="2"/>
+      <c r="AK14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>0</v>
+      </c>
       <c r="AM14"/>
-    </row>
-    <row r="15" spans="1:39">
+      <c r="AO14"/>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -1767,9 +1845,13 @@
         <v>0.0</v>
       </c>
       <c r="X15" s="2"/>
-      <c r="Y15" s="1"/>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="1"/>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
       <c r="AB15" s="1">
         <v>0</v>
       </c>
@@ -1778,26 +1860,29 @@
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG15" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI15" s="1"/>
       <c r="AJ15" s="1">
         <v>0</v>
       </c>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="2"/>
+      <c r="AK15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>0</v>
+      </c>
       <c r="AM15"/>
-    </row>
-    <row r="16" spans="1:39">
+      <c r="AO15"/>
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -1854,9 +1939,13 @@
         <v>0.0</v>
       </c>
       <c r="X16" s="2"/>
-      <c r="Y16" s="1"/>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="1"/>
+      <c r="AA16" s="1">
+        <v>0</v>
+      </c>
       <c r="AB16" s="1">
         <v>0</v>
       </c>
@@ -1865,26 +1954,29 @@
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG16" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI16" s="1"/>
       <c r="AJ16" s="1">
         <v>0</v>
       </c>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="2"/>
+      <c r="AK16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>0</v>
+      </c>
       <c r="AM16"/>
-    </row>
-    <row r="17" spans="1:39">
+      <c r="AO16"/>
+    </row>
+    <row r="17" spans="1:41">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -1941,9 +2033,13 @@
         <v>0.0</v>
       </c>
       <c r="X17" s="2"/>
-      <c r="Y17" s="1"/>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="1"/>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
       <c r="AB17" s="1">
         <v>0</v>
       </c>
@@ -1952,26 +2048,29 @@
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG17" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI17" s="1"/>
       <c r="AJ17" s="1">
         <v>0</v>
       </c>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="2"/>
+      <c r="AK17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>0</v>
+      </c>
       <c r="AM17"/>
-    </row>
-    <row r="18" spans="1:39">
+      <c r="AO17"/>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18">
         <v>2023</v>
       </c>
@@ -2028,9 +2127,13 @@
         <v>0.0</v>
       </c>
       <c r="X18" s="2"/>
-      <c r="Y18" s="1"/>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="1"/>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
       <c r="AB18" s="1">
         <v>0</v>
       </c>
@@ -2039,26 +2142,29 @@
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG18" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI18" s="1"/>
       <c r="AJ18" s="1">
         <v>0</v>
       </c>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="2"/>
+      <c r="AK18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>0</v>
+      </c>
       <c r="AM18"/>
-    </row>
-    <row r="19" spans="1:39">
+      <c r="AO18"/>
+    </row>
+    <row r="19" spans="1:41">
       <c r="A19" s="7">
         <v>2024</v>
       </c>
@@ -2115,9 +2221,13 @@
         <v>0.0</v>
       </c>
       <c r="X19" s="9"/>
-      <c r="Y19" s="8"/>
+      <c r="Y19" s="8">
+        <v>4200.0</v>
+      </c>
       <c r="Z19" s="9"/>
-      <c r="AA19" s="8"/>
+      <c r="AA19" s="8">
+        <v>3221800.0</v>
+      </c>
       <c r="AB19" s="8">
         <v>0</v>
       </c>
@@ -2128,24 +2238,27 @@
       <c r="AE19" s="8">
         <v>0.0</v>
       </c>
-      <c r="AF19" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AG19" s="9"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="9">
+        <v>0.0</v>
+      </c>
       <c r="AH19" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8">
         <v>225000.0</v>
       </c>
-      <c r="AI19" s="8">
+      <c r="AK19" s="8">
         <v>1125000.0</v>
       </c>
-      <c r="AJ19" s="8">
+      <c r="AL19" s="9">
         <v>3206800.0</v>
       </c>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="9"/>
       <c r="AM19" s="7"/>
-    </row>
-    <row r="20" spans="1:39">
+      <c r="AO19"/>
+    </row>
+    <row r="20" spans="1:41">
       <c r="A20">
         <v>2025</v>
       </c>
@@ -2202,9 +2315,13 @@
         <v>0.0</v>
       </c>
       <c r="X20" s="2"/>
-      <c r="Y20" s="1"/>
+      <c r="Y20" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="1"/>
+      <c r="AA20" s="1">
+        <v>3442600.0</v>
+      </c>
       <c r="AB20" s="1">
         <v>0</v>
       </c>
@@ -2215,24 +2332,27 @@
       <c r="AE20" s="1">
         <v>0.0</v>
       </c>
-      <c r="AF20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG20" s="2"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1">
         <v>225000.0</v>
       </c>
-      <c r="AI20" s="1">
+      <c r="AK20" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AJ20" s="1">
+      <c r="AL20" s="2">
         <v>205800.0</v>
       </c>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="2"/>
       <c r="AM20"/>
-    </row>
-    <row r="21" spans="1:39">
+      <c r="AO20"/>
+    </row>
+    <row r="21" spans="1:41">
       <c r="A21">
         <v>2026</v>
       </c>
@@ -2289,9 +2409,13 @@
         <v>0.0</v>
       </c>
       <c r="X21" s="2"/>
-      <c r="Y21" s="1"/>
+      <c r="Y21" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="1"/>
+      <c r="AA21" s="1">
+        <v>3663400.0</v>
+      </c>
       <c r="AB21" s="1">
         <v>0</v>
       </c>
@@ -2302,24 +2426,27 @@
       <c r="AE21" s="1">
         <v>0.0</v>
       </c>
-      <c r="AF21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG21" s="2"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1">
         <v>225000.0</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AK21" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="AL21" s="2">
         <v>205800.0</v>
       </c>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="2"/>
       <c r="AM21"/>
-    </row>
-    <row r="22" spans="1:39">
+      <c r="AO21"/>
+    </row>
+    <row r="22" spans="1:41">
       <c r="A22">
         <v>2027</v>
       </c>
@@ -2376,9 +2503,13 @@
         <v>0.0</v>
       </c>
       <c r="X22" s="2"/>
-      <c r="Y22" s="1"/>
+      <c r="Y22" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="1"/>
+      <c r="AA22" s="1">
+        <v>3884200.0</v>
+      </c>
       <c r="AB22" s="1">
         <v>0</v>
       </c>
@@ -2389,24 +2520,27 @@
       <c r="AE22" s="1">
         <v>0.0</v>
       </c>
-      <c r="AF22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG22" s="2"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1">
         <v>225000.0</v>
       </c>
-      <c r="AI22" s="1">
+      <c r="AK22" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AL22" s="2">
         <v>205800.0</v>
       </c>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="2"/>
       <c r="AM22"/>
-    </row>
-    <row r="23" spans="1:39">
+      <c r="AO22"/>
+    </row>
+    <row r="23" spans="1:41">
       <c r="A23">
         <v>2028</v>
       </c>
@@ -2463,9 +2597,13 @@
         <v>0.0</v>
       </c>
       <c r="X23" s="2"/>
-      <c r="Y23" s="1"/>
+      <c r="Y23" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="1"/>
+      <c r="AA23" s="1">
+        <v>4105000.0</v>
+      </c>
       <c r="AB23" s="1">
         <v>0</v>
       </c>
@@ -2476,24 +2614,27 @@
       <c r="AE23" s="1">
         <v>0.0</v>
       </c>
-      <c r="AF23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG23" s="2"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1">
         <v>225000.0</v>
       </c>
-      <c r="AI23" s="1">
+      <c r="AK23" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AJ23" s="1">
+      <c r="AL23" s="2">
         <v>205800.0</v>
       </c>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="2"/>
       <c r="AM23"/>
-    </row>
-    <row r="24" spans="1:39">
+      <c r="AO23"/>
+    </row>
+    <row r="24" spans="1:41">
       <c r="A24">
         <v>2029</v>
       </c>
@@ -2550,9 +2691,13 @@
         <v>0.0</v>
       </c>
       <c r="X24" s="2"/>
-      <c r="Y24" s="1"/>
+      <c r="Y24" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="1"/>
+      <c r="AA24" s="1">
+        <v>4325800.0</v>
+      </c>
       <c r="AB24" s="1">
         <v>0</v>
       </c>
@@ -2563,24 +2708,27 @@
       <c r="AE24" s="1">
         <v>0.0</v>
       </c>
-      <c r="AF24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG24" s="2"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1">
         <v>225000.0</v>
       </c>
-      <c r="AI24" s="1">
+      <c r="AK24" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AJ24" s="1">
+      <c r="AL24" s="2">
         <v>205800.0</v>
       </c>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="2"/>
       <c r="AM24"/>
-    </row>
-    <row r="25" spans="1:39">
+      <c r="AO24"/>
+    </row>
+    <row r="25" spans="1:41">
       <c r="A25">
         <v>2030</v>
       </c>
@@ -2637,9 +2785,13 @@
         <v>1106.4</v>
       </c>
       <c r="X25" s="2"/>
-      <c r="Y25" s="1"/>
+      <c r="Y25" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="1"/>
+      <c r="AA25" s="1">
+        <v>4546600.0</v>
+      </c>
       <c r="AB25" s="1">
         <v>0</v>
       </c>
@@ -2650,24 +2802,27 @@
       <c r="AE25" s="1">
         <v>0.0</v>
       </c>
-      <c r="AF25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG25" s="2"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1">
         <v>225000.0</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AK25" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AJ25" s="1">
+      <c r="AL25" s="2">
         <v>205800.0</v>
       </c>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="2"/>
       <c r="AM25"/>
-    </row>
-    <row r="26" spans="1:39">
+      <c r="AO25"/>
+    </row>
+    <row r="26" spans="1:41">
       <c r="A26">
         <v>2031</v>
       </c>
@@ -2724,9 +2879,13 @@
         <v>2872.8</v>
       </c>
       <c r="X26" s="2"/>
-      <c r="Y26" s="1"/>
+      <c r="Y26" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="1"/>
+      <c r="AA26" s="1">
+        <v>4767400.0</v>
+      </c>
       <c r="AB26" s="1">
         <v>0</v>
       </c>
@@ -2737,24 +2896,27 @@
       <c r="AE26" s="1">
         <v>0.0</v>
       </c>
-      <c r="AF26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG26" s="2"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1">
         <v>225000.0</v>
       </c>
-      <c r="AI26" s="1">
+      <c r="AK26" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AJ26" s="1">
+      <c r="AL26" s="2">
         <v>205800.0</v>
       </c>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="2"/>
       <c r="AM26"/>
-    </row>
-    <row r="27" spans="1:39">
+      <c r="AO26"/>
+    </row>
+    <row r="27" spans="1:41">
       <c r="A27">
         <v>2032</v>
       </c>
@@ -2811,9 +2973,13 @@
         <v>4639.2</v>
       </c>
       <c r="X27" s="2"/>
-      <c r="Y27" s="1"/>
+      <c r="Y27" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="1"/>
+      <c r="AA27" s="1">
+        <v>4988200.0</v>
+      </c>
       <c r="AB27" s="1">
         <v>0</v>
       </c>
@@ -2824,24 +2990,27 @@
       <c r="AE27" s="1">
         <v>0.0</v>
       </c>
-      <c r="AF27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG27" s="2"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1">
         <v>225000.0</v>
       </c>
-      <c r="AI27" s="1">
+      <c r="AK27" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AJ27" s="1">
+      <c r="AL27" s="2">
         <v>205800.0</v>
       </c>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="2"/>
       <c r="AM27"/>
-    </row>
-    <row r="28" spans="1:39">
+      <c r="AO27"/>
+    </row>
+    <row r="28" spans="1:41">
       <c r="A28">
         <v>2033</v>
       </c>
@@ -2898,9 +3067,13 @@
         <v>6405.6</v>
       </c>
       <c r="X28" s="2"/>
-      <c r="Y28" s="1"/>
+      <c r="Y28" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="1"/>
+      <c r="AA28" s="1">
+        <v>5209000.0</v>
+      </c>
       <c r="AB28" s="1">
         <v>0</v>
       </c>
@@ -2911,24 +3084,27 @@
       <c r="AE28" s="1">
         <v>0.0</v>
       </c>
-      <c r="AF28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG28" s="2"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1">
         <v>225000.0</v>
       </c>
-      <c r="AI28" s="1">
+      <c r="AK28" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AJ28" s="1">
+      <c r="AL28" s="2">
         <v>205800.0</v>
       </c>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="2"/>
       <c r="AM28"/>
-    </row>
-    <row r="29" spans="1:39">
+      <c r="AO28"/>
+    </row>
+    <row r="29" spans="1:41">
       <c r="A29">
         <v>2034</v>
       </c>
@@ -2985,9 +3161,13 @@
         <v>8172.0</v>
       </c>
       <c r="X29" s="2"/>
-      <c r="Y29" s="1"/>
+      <c r="Y29" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="1"/>
+      <c r="AA29" s="1">
+        <v>5286427.0</v>
+      </c>
       <c r="AB29" s="1">
         <v>0</v>
       </c>
@@ -2996,26 +3176,29 @@
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="2">
         <v>-672.0</v>
       </c>
-      <c r="AF29" s="1">
+      <c r="AH29" s="1">
         <v>-672.0</v>
       </c>
-      <c r="AG29" s="2"/>
-      <c r="AH29" s="1">
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1">
         <v>81627.0</v>
       </c>
-      <c r="AI29" s="1">
+      <c r="AK29" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AJ29" s="1">
+      <c r="AL29" s="2">
         <v>62427.0</v>
       </c>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="2"/>
       <c r="AM29"/>
-    </row>
-    <row r="30" spans="1:39">
+      <c r="AO29"/>
+    </row>
+    <row r="30" spans="1:41">
       <c r="A30">
         <v>2035</v>
       </c>
@@ -3072,9 +3255,13 @@
         <v>8791.416</v>
       </c>
       <c r="X30" s="2"/>
-      <c r="Y30" s="1"/>
+      <c r="Y30" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="1"/>
+      <c r="AA30" s="1">
+        <v>5363854.0</v>
+      </c>
       <c r="AB30" s="1">
         <v>0</v>
       </c>
@@ -3083,26 +3270,29 @@
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="2">
         <v>-1291.416</v>
       </c>
-      <c r="AF30" s="1">
+      <c r="AH30" s="1">
         <v>-1963.416</v>
       </c>
-      <c r="AG30" s="2"/>
-      <c r="AH30" s="1">
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1">
         <v>81627.0</v>
       </c>
-      <c r="AI30" s="1">
+      <c r="AK30" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AJ30" s="1">
+      <c r="AL30" s="2">
         <v>63861.0</v>
       </c>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="2"/>
       <c r="AM30"/>
-    </row>
-    <row r="31" spans="1:39">
+      <c r="AO30"/>
+    </row>
+    <row r="31" spans="1:41">
       <c r="A31">
         <v>2036</v>
       </c>
@@ -3159,9 +3349,13 @@
         <v>9410.832</v>
       </c>
       <c r="X31" s="2"/>
-      <c r="Y31" s="1"/>
+      <c r="Y31" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="1"/>
+      <c r="AA31" s="1">
+        <v>5441281.0</v>
+      </c>
       <c r="AB31" s="1">
         <v>0</v>
       </c>
@@ -3170,26 +3364,29 @@
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="2">
         <v>-1910.832</v>
       </c>
-      <c r="AF31" s="1">
+      <c r="AH31" s="1">
         <v>-3874.248</v>
       </c>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="1">
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1">
         <v>81627.0</v>
       </c>
-      <c r="AI31" s="1">
+      <c r="AK31" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AJ31" s="1">
+      <c r="AL31" s="2">
         <v>65309.0</v>
       </c>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="2"/>
       <c r="AM31"/>
-    </row>
-    <row r="32" spans="1:39">
+      <c r="AO31"/>
+    </row>
+    <row r="32" spans="1:41">
       <c r="A32">
         <v>2037</v>
       </c>
@@ -3246,9 +3443,13 @@
         <v>10030.248</v>
       </c>
       <c r="X32" s="2"/>
-      <c r="Y32" s="1"/>
+      <c r="Y32" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="1"/>
+      <c r="AA32" s="1">
+        <v>5518708.0</v>
+      </c>
       <c r="AB32" s="1">
         <v>0</v>
       </c>
@@ -3257,26 +3458,29 @@
       </c>
       <c r="AD32" s="2"/>
       <c r="AE32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="2">
         <v>-2530.248</v>
       </c>
-      <c r="AF32" s="1">
+      <c r="AH32" s="1">
         <v>-6404.496</v>
       </c>
-      <c r="AG32" s="2"/>
-      <c r="AH32" s="1">
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1">
         <v>81627.0</v>
       </c>
-      <c r="AI32" s="1">
+      <c r="AK32" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AJ32" s="1">
+      <c r="AL32" s="2">
         <v>66771.0</v>
       </c>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="2"/>
       <c r="AM32"/>
-    </row>
-    <row r="33" spans="1:39">
+      <c r="AO32"/>
+    </row>
+    <row r="33" spans="1:41">
       <c r="A33">
         <v>2038</v>
       </c>
@@ -3333,9 +3537,13 @@
         <v>10649.664</v>
       </c>
       <c r="X33" s="2"/>
-      <c r="Y33" s="1"/>
+      <c r="Y33" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="1"/>
+      <c r="AA33" s="1">
+        <v>5596135.0</v>
+      </c>
       <c r="AB33" s="1">
         <v>0</v>
       </c>
@@ -3344,26 +3552,29 @@
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="2">
         <v>-3149.664</v>
       </c>
-      <c r="AF33" s="1">
+      <c r="AH33" s="1">
         <v>-9554.16</v>
       </c>
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="1">
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1">
         <v>81627.0</v>
       </c>
-      <c r="AI33" s="1">
+      <c r="AK33" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AJ33" s="1">
+      <c r="AL33" s="2">
         <v>68249.0</v>
       </c>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="2"/>
       <c r="AM33"/>
-    </row>
-    <row r="34" spans="1:39">
+      <c r="AO33"/>
+    </row>
+    <row r="34" spans="1:41">
       <c r="A34">
         <v>2039</v>
       </c>
@@ -3420,9 +3631,13 @@
         <v>11269.08</v>
       </c>
       <c r="X34" s="2"/>
-      <c r="Y34" s="1"/>
+      <c r="Y34" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="1"/>
+      <c r="AA34" s="1">
+        <v>5673562.0</v>
+      </c>
       <c r="AB34" s="1">
         <v>0</v>
       </c>
@@ -3431,26 +3646,29 @@
       </c>
       <c r="AD34" s="2"/>
       <c r="AE34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="2">
         <v>-3769.08</v>
       </c>
-      <c r="AF34" s="1">
+      <c r="AH34" s="1">
         <v>-13323.24</v>
       </c>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="1">
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1">
         <v>81627.0</v>
       </c>
-      <c r="AI34" s="1">
+      <c r="AK34" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AJ34" s="1">
+      <c r="AL34" s="2">
         <v>69740.0</v>
       </c>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="2"/>
       <c r="AM34"/>
-    </row>
-    <row r="35" spans="1:39">
+      <c r="AO34"/>
+    </row>
+    <row r="35" spans="1:41">
       <c r="A35">
         <v>2040</v>
       </c>
@@ -3507,9 +3725,13 @@
         <v>11888.496</v>
       </c>
       <c r="X35" s="2"/>
-      <c r="Y35" s="1"/>
+      <c r="Y35" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="1"/>
+      <c r="AA35" s="1">
+        <v>5750989.0</v>
+      </c>
       <c r="AB35" s="1">
         <v>0</v>
       </c>
@@ -3518,26 +3740,29 @@
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="2">
         <v>-4388.496</v>
       </c>
-      <c r="AF35" s="1">
+      <c r="AH35" s="1">
         <v>-17711.736</v>
       </c>
-      <c r="AG35" s="2"/>
-      <c r="AH35" s="1">
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1">
         <v>81627.0</v>
       </c>
-      <c r="AI35" s="1">
+      <c r="AK35" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AJ35" s="1">
+      <c r="AL35" s="2">
         <v>71247.0</v>
       </c>
-      <c r="AK35" s="1"/>
-      <c r="AL35" s="2"/>
       <c r="AM35"/>
-    </row>
-    <row r="36" spans="1:39">
+      <c r="AO35"/>
+    </row>
+    <row r="36" spans="1:41">
       <c r="A36">
         <v>2041</v>
       </c>
@@ -3594,9 +3819,13 @@
         <v>12507.912</v>
       </c>
       <c r="X36" s="2"/>
-      <c r="Y36" s="1"/>
+      <c r="Y36" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="1"/>
+      <c r="AA36" s="1">
+        <v>5828416.0</v>
+      </c>
       <c r="AB36" s="1">
         <v>0</v>
       </c>
@@ -3605,26 +3834,29 @@
       </c>
       <c r="AD36" s="2"/>
       <c r="AE36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="2">
         <v>-5007.912</v>
       </c>
-      <c r="AF36" s="1">
+      <c r="AH36" s="1">
         <v>-22719.648</v>
       </c>
-      <c r="AG36" s="2"/>
-      <c r="AH36" s="1">
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1">
         <v>81627.0</v>
       </c>
-      <c r="AI36" s="1">
+      <c r="AK36" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AJ36" s="1">
+      <c r="AL36" s="2">
         <v>72769.0</v>
       </c>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="2"/>
       <c r="AM36"/>
-    </row>
-    <row r="37" spans="1:39">
+      <c r="AO36"/>
+    </row>
+    <row r="37" spans="1:41">
       <c r="A37">
         <v>2042</v>
       </c>
@@ -3681,9 +3913,13 @@
         <v>13127.328</v>
       </c>
       <c r="X37" s="2"/>
-      <c r="Y37" s="1"/>
+      <c r="Y37" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="1"/>
+      <c r="AA37" s="1">
+        <v>5905843.0</v>
+      </c>
       <c r="AB37" s="1">
         <v>0</v>
       </c>
@@ -3692,26 +3928,29 @@
       </c>
       <c r="AD37" s="2"/>
       <c r="AE37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="2">
         <v>-5627.328</v>
       </c>
-      <c r="AF37" s="1">
+      <c r="AH37" s="1">
         <v>-28346.976</v>
       </c>
-      <c r="AG37" s="2"/>
-      <c r="AH37" s="1">
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1">
         <v>81627.0</v>
       </c>
-      <c r="AI37" s="1">
+      <c r="AK37" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AJ37" s="1">
+      <c r="AL37" s="2">
         <v>74306.0</v>
       </c>
-      <c r="AK37" s="1"/>
-      <c r="AL37" s="2"/>
       <c r="AM37"/>
-    </row>
-    <row r="38" spans="1:39">
+      <c r="AO37"/>
+    </row>
+    <row r="38" spans="1:41">
       <c r="A38">
         <v>2043</v>
       </c>
@@ -3768,9 +4007,13 @@
         <v>13746.744</v>
       </c>
       <c r="X38" s="2"/>
-      <c r="Y38" s="1"/>
+      <c r="Y38" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="1"/>
+      <c r="AA38" s="1">
+        <v>5983270.0</v>
+      </c>
       <c r="AB38" s="1">
         <v>0</v>
       </c>
@@ -3779,26 +4022,29 @@
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="2">
         <v>-6246.744</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AH38" s="1">
         <v>-34593.72</v>
       </c>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="1">
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1">
         <v>81627.0</v>
       </c>
-      <c r="AI38" s="1">
+      <c r="AK38" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AJ38" s="1">
+      <c r="AL38" s="2">
         <v>75859.0</v>
       </c>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="2"/>
       <c r="AM38"/>
-    </row>
-    <row r="39" spans="1:39">
+      <c r="AO38"/>
+    </row>
+    <row r="39" spans="1:41">
       <c r="A39">
         <v>2044</v>
       </c>
@@ -3855,9 +4101,13 @@
         <v>14366.16</v>
       </c>
       <c r="X39" s="2"/>
-      <c r="Y39" s="1"/>
+      <c r="Y39" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="1"/>
+      <c r="AA39" s="1">
+        <v>6219070.0</v>
+      </c>
       <c r="AB39" s="1">
         <v>0</v>
       </c>
@@ -3866,26 +4116,29 @@
       </c>
       <c r="AD39" s="2"/>
       <c r="AE39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="2">
         <v>-6866.16</v>
       </c>
-      <c r="AF39" s="1">
+      <c r="AH39" s="1">
         <v>-41459.88</v>
       </c>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="1">
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI39" s="1">
+      <c r="AK39" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ39" s="1">
+      <c r="AL39" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK39" s="1"/>
-      <c r="AL39" s="2"/>
       <c r="AM39"/>
-    </row>
-    <row r="40" spans="1:39">
+      <c r="AO39"/>
+    </row>
+    <row r="40" spans="1:41">
       <c r="A40" s="10">
         <v>2045</v>
       </c>
@@ -3942,9 +4195,13 @@
         <v>16252.56</v>
       </c>
       <c r="X40" s="12"/>
-      <c r="Y40" s="11"/>
+      <c r="Y40" s="11">
+        <v>4200.0</v>
+      </c>
       <c r="Z40" s="12"/>
-      <c r="AA40" s="11"/>
+      <c r="AA40" s="11">
+        <v>6454870.0</v>
+      </c>
       <c r="AB40" s="11">
         <v>0</v>
       </c>
@@ -3953,26 +4210,29 @@
       </c>
       <c r="AD40" s="12"/>
       <c r="AE40" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="12">
         <v>-8752.56</v>
       </c>
-      <c r="AF40" s="11">
+      <c r="AH40" s="11">
         <v>-50212.44</v>
       </c>
-      <c r="AG40" s="12"/>
-      <c r="AH40" s="11">
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11">
         <v>240000.0</v>
       </c>
-      <c r="AI40" s="11">
+      <c r="AK40" s="11">
         <v>1200000.0</v>
       </c>
-      <c r="AJ40" s="11">
+      <c r="AL40" s="12">
         <v>235800.0</v>
       </c>
-      <c r="AK40" s="11"/>
-      <c r="AL40" s="12"/>
       <c r="AM40" s="10"/>
-    </row>
-    <row r="41" spans="1:39">
+      <c r="AO40"/>
+    </row>
+    <row r="41" spans="1:41">
       <c r="A41">
         <v>2046</v>
       </c>
@@ -4029,9 +4289,13 @@
         <v>18138.96</v>
       </c>
       <c r="X41" s="2"/>
-      <c r="Y41" s="1"/>
+      <c r="Y41" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="1"/>
+      <c r="AA41" s="1">
+        <v>6690670.0</v>
+      </c>
       <c r="AB41" s="1">
         <v>0</v>
       </c>
@@ -4040,26 +4304,29 @@
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="2">
         <v>-10638.96</v>
       </c>
-      <c r="AF41" s="1">
+      <c r="AH41" s="1">
         <v>-60851.4</v>
       </c>
-      <c r="AG41" s="2"/>
-      <c r="AH41" s="1">
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI41" s="1">
+      <c r="AK41" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ41" s="1">
+      <c r="AL41" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK41" s="1"/>
-      <c r="AL41" s="2"/>
       <c r="AM41"/>
-    </row>
-    <row r="42" spans="1:39">
+      <c r="AO41"/>
+    </row>
+    <row r="42" spans="1:41">
       <c r="A42">
         <v>2047</v>
       </c>
@@ -4116,9 +4383,13 @@
         <v>20025.36</v>
       </c>
       <c r="X42" s="2"/>
-      <c r="Y42" s="1"/>
+      <c r="Y42" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="1"/>
+      <c r="AA42" s="1">
+        <v>6926470.0</v>
+      </c>
       <c r="AB42" s="1">
         <v>0</v>
       </c>
@@ -4127,26 +4398,29 @@
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="2">
         <v>-12525.36</v>
       </c>
-      <c r="AF42" s="1">
+      <c r="AH42" s="1">
         <v>-73376.76</v>
       </c>
-      <c r="AG42" s="2"/>
-      <c r="AH42" s="1">
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI42" s="1">
+      <c r="AK42" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ42" s="1">
+      <c r="AL42" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK42" s="1"/>
-      <c r="AL42" s="2"/>
       <c r="AM42"/>
-    </row>
-    <row r="43" spans="1:39">
+      <c r="AO42"/>
+    </row>
+    <row r="43" spans="1:41">
       <c r="A43">
         <v>2048</v>
       </c>
@@ -4203,9 +4477,13 @@
         <v>21911.76</v>
       </c>
       <c r="X43" s="2"/>
-      <c r="Y43" s="1"/>
+      <c r="Y43" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="1"/>
+      <c r="AA43" s="1">
+        <v>7162270.0</v>
+      </c>
       <c r="AB43" s="1">
         <v>0</v>
       </c>
@@ -4214,26 +4492,29 @@
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="2">
         <v>-14411.76</v>
       </c>
-      <c r="AF43" s="1">
+      <c r="AH43" s="1">
         <v>-87788.52</v>
       </c>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="1">
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI43" s="1">
+      <c r="AK43" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ43" s="1">
+      <c r="AL43" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK43" s="1"/>
-      <c r="AL43" s="2"/>
       <c r="AM43"/>
-    </row>
-    <row r="44" spans="1:39">
+      <c r="AO43"/>
+    </row>
+    <row r="44" spans="1:41">
       <c r="A44">
         <v>2049</v>
       </c>
@@ -4290,9 +4571,13 @@
         <v>23798.16</v>
       </c>
       <c r="X44" s="2"/>
-      <c r="Y44" s="1"/>
+      <c r="Y44" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="1"/>
+      <c r="AA44" s="1">
+        <v>7398070.0</v>
+      </c>
       <c r="AB44" s="1">
         <v>0</v>
       </c>
@@ -4301,26 +4586,29 @@
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="2">
         <v>-16298.16</v>
       </c>
-      <c r="AF44" s="1">
+      <c r="AH44" s="1">
         <v>-104086.68</v>
       </c>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="1">
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI44" s="1">
+      <c r="AK44" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ44" s="1">
+      <c r="AL44" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK44" s="1"/>
-      <c r="AL44" s="2"/>
       <c r="AM44"/>
-    </row>
-    <row r="45" spans="1:39">
+      <c r="AO44"/>
+    </row>
+    <row r="45" spans="1:41">
       <c r="A45">
         <v>2050</v>
       </c>
@@ -4377,9 +4665,13 @@
         <v>25684.56</v>
       </c>
       <c r="X45" s="2"/>
-      <c r="Y45" s="1"/>
+      <c r="Y45" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z45" s="2"/>
-      <c r="AA45" s="1"/>
+      <c r="AA45" s="1">
+        <v>7633870.0</v>
+      </c>
       <c r="AB45" s="1">
         <v>0</v>
       </c>
@@ -4388,26 +4680,29 @@
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="2">
         <v>-18184.56</v>
       </c>
-      <c r="AF45" s="1">
+      <c r="AH45" s="1">
         <v>-122271.24</v>
       </c>
-      <c r="AG45" s="2"/>
-      <c r="AH45" s="1">
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI45" s="1">
+      <c r="AK45" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ45" s="1">
+      <c r="AL45" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK45" s="1"/>
-      <c r="AL45" s="2"/>
       <c r="AM45"/>
-    </row>
-    <row r="46" spans="1:39">
+      <c r="AO45"/>
+    </row>
+    <row r="46" spans="1:41">
       <c r="A46">
         <v>2051</v>
       </c>
@@ -4464,9 +4759,13 @@
         <v>27570.96</v>
       </c>
       <c r="X46" s="2"/>
-      <c r="Y46" s="1"/>
+      <c r="Y46" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z46" s="2"/>
-      <c r="AA46" s="1"/>
+      <c r="AA46" s="1">
+        <v>7869670.0</v>
+      </c>
       <c r="AB46" s="1">
         <v>0</v>
       </c>
@@ -4475,26 +4774,29 @@
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="2">
         <v>-20070.96</v>
       </c>
-      <c r="AF46" s="1">
+      <c r="AH46" s="1">
         <v>-142342.2</v>
       </c>
-      <c r="AG46" s="2"/>
-      <c r="AH46" s="1">
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI46" s="1">
+      <c r="AK46" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ46" s="1">
+      <c r="AL46" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK46" s="1"/>
-      <c r="AL46" s="2"/>
       <c r="AM46"/>
-    </row>
-    <row r="47" spans="1:39">
+      <c r="AO46"/>
+    </row>
+    <row r="47" spans="1:41">
       <c r="A47">
         <v>2052</v>
       </c>
@@ -4551,9 +4853,13 @@
         <v>29457.36</v>
       </c>
       <c r="X47" s="2"/>
-      <c r="Y47" s="1"/>
+      <c r="Y47" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z47" s="2"/>
-      <c r="AA47" s="1"/>
+      <c r="AA47" s="1">
+        <v>8105470.0</v>
+      </c>
       <c r="AB47" s="1">
         <v>0</v>
       </c>
@@ -4562,26 +4868,29 @@
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="2">
         <v>-21957.36</v>
       </c>
-      <c r="AF47" s="1">
+      <c r="AH47" s="1">
         <v>-164299.56</v>
       </c>
-      <c r="AG47" s="2"/>
-      <c r="AH47" s="1">
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI47" s="1">
+      <c r="AK47" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ47" s="1">
+      <c r="AL47" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK47" s="1"/>
-      <c r="AL47" s="2"/>
       <c r="AM47"/>
-    </row>
-    <row r="48" spans="1:39">
+      <c r="AO47"/>
+    </row>
+    <row r="48" spans="1:41">
       <c r="A48">
         <v>2053</v>
       </c>
@@ -4638,9 +4947,13 @@
         <v>31343.76</v>
       </c>
       <c r="X48" s="2"/>
-      <c r="Y48" s="1"/>
+      <c r="Y48" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z48" s="2"/>
-      <c r="AA48" s="1"/>
+      <c r="AA48" s="1">
+        <v>8341270.0</v>
+      </c>
       <c r="AB48" s="1">
         <v>0</v>
       </c>
@@ -4649,26 +4962,29 @@
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="2">
         <v>-23843.76</v>
       </c>
-      <c r="AF48" s="1">
+      <c r="AH48" s="1">
         <v>-188143.32</v>
       </c>
-      <c r="AG48" s="2"/>
-      <c r="AH48" s="1">
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI48" s="1">
+      <c r="AK48" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ48" s="1">
+      <c r="AL48" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK48" s="1"/>
-      <c r="AL48" s="2"/>
       <c r="AM48"/>
-    </row>
-    <row r="49" spans="1:39">
+      <c r="AO48"/>
+    </row>
+    <row r="49" spans="1:41">
       <c r="A49">
         <v>2054</v>
       </c>
@@ -4725,9 +5041,13 @@
         <v>33230.16</v>
       </c>
       <c r="X49" s="2"/>
-      <c r="Y49" s="1"/>
+      <c r="Y49" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z49" s="2"/>
-      <c r="AA49" s="1"/>
+      <c r="AA49" s="1">
+        <v>8577070.0</v>
+      </c>
       <c r="AB49" s="1">
         <v>0</v>
       </c>
@@ -4736,26 +5056,29 @@
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="2">
         <v>-25730.16</v>
       </c>
-      <c r="AF49" s="1">
+      <c r="AH49" s="1">
         <v>-213873.48</v>
       </c>
-      <c r="AG49" s="2"/>
-      <c r="AH49" s="1">
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI49" s="1">
+      <c r="AK49" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ49" s="1">
+      <c r="AL49" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK49" s="1"/>
-      <c r="AL49" s="2"/>
       <c r="AM49"/>
-    </row>
-    <row r="50" spans="1:39">
+      <c r="AO49"/>
+    </row>
+    <row r="50" spans="1:41">
       <c r="A50">
         <v>2055</v>
       </c>
@@ -4812,9 +5135,13 @@
         <v>35116.56</v>
       </c>
       <c r="X50" s="2"/>
-      <c r="Y50" s="1"/>
+      <c r="Y50" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z50" s="2"/>
-      <c r="AA50" s="1"/>
+      <c r="AA50" s="1">
+        <v>8812870.0</v>
+      </c>
       <c r="AB50" s="1">
         <v>0</v>
       </c>
@@ -4823,26 +5150,29 @@
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="2">
         <v>-27616.56</v>
       </c>
-      <c r="AF50" s="1">
+      <c r="AH50" s="1">
         <v>-241490.04</v>
       </c>
-      <c r="AG50" s="2"/>
-      <c r="AH50" s="1">
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI50" s="1">
+      <c r="AK50" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ50" s="1">
+      <c r="AL50" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK50" s="1"/>
-      <c r="AL50" s="2"/>
       <c r="AM50"/>
-    </row>
-    <row r="51" spans="1:39">
+      <c r="AO50"/>
+    </row>
+    <row r="51" spans="1:41">
       <c r="A51">
         <v>2056</v>
       </c>
@@ -4899,9 +5229,13 @@
         <v>37002.96</v>
       </c>
       <c r="X51" s="2"/>
-      <c r="Y51" s="1"/>
+      <c r="Y51" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z51" s="2"/>
-      <c r="AA51" s="1"/>
+      <c r="AA51" s="1">
+        <v>9048670.0</v>
+      </c>
       <c r="AB51" s="1">
         <v>0</v>
       </c>
@@ -4910,26 +5244,29 @@
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="2">
         <v>-29502.96</v>
       </c>
-      <c r="AF51" s="1">
+      <c r="AH51" s="1">
         <v>-270993.0</v>
       </c>
-      <c r="AG51" s="2"/>
-      <c r="AH51" s="1">
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI51" s="1">
+      <c r="AK51" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ51" s="1">
+      <c r="AL51" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK51" s="1"/>
-      <c r="AL51" s="2"/>
       <c r="AM51"/>
-    </row>
-    <row r="52" spans="1:39">
+      <c r="AO51"/>
+    </row>
+    <row r="52" spans="1:41">
       <c r="A52">
         <v>2057</v>
       </c>
@@ -4986,9 +5323,13 @@
         <v>38889.36</v>
       </c>
       <c r="X52" s="2"/>
-      <c r="Y52" s="1"/>
+      <c r="Y52" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z52" s="2"/>
-      <c r="AA52" s="1"/>
+      <c r="AA52" s="1">
+        <v>9284470.0</v>
+      </c>
       <c r="AB52" s="1">
         <v>0</v>
       </c>
@@ -4997,26 +5338,29 @@
       </c>
       <c r="AD52" s="2"/>
       <c r="AE52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="2">
         <v>-31389.36</v>
       </c>
-      <c r="AF52" s="1">
+      <c r="AH52" s="1">
         <v>-302382.36</v>
       </c>
-      <c r="AG52" s="2"/>
-      <c r="AH52" s="1">
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI52" s="1">
+      <c r="AK52" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ52" s="1">
+      <c r="AL52" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK52" s="1"/>
-      <c r="AL52" s="2"/>
       <c r="AM52"/>
-    </row>
-    <row r="53" spans="1:39">
+      <c r="AO52"/>
+    </row>
+    <row r="53" spans="1:41">
       <c r="A53" s="3">
         <v>2058</v>
       </c>
@@ -5073,9 +5417,13 @@
         <v>40775.76</v>
       </c>
       <c r="X53" s="14"/>
-      <c r="Y53" s="13"/>
+      <c r="Y53" s="13">
+        <v>4200.0</v>
+      </c>
       <c r="Z53" s="14"/>
-      <c r="AA53" s="13"/>
+      <c r="AA53" s="13">
+        <v>9520270.0</v>
+      </c>
       <c r="AB53" s="13">
         <v>0</v>
       </c>
@@ -5084,26 +5432,29 @@
       </c>
       <c r="AD53" s="14"/>
       <c r="AE53" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AF53" s="13"/>
+      <c r="AG53" s="14">
         <v>-33275.76</v>
       </c>
-      <c r="AF53" s="13">
+      <c r="AH53" s="13">
         <v>-335658.12</v>
       </c>
-      <c r="AG53" s="14"/>
-      <c r="AH53" s="13">
+      <c r="AI53" s="13"/>
+      <c r="AJ53" s="13">
         <v>240000.0</v>
       </c>
-      <c r="AI53" s="13">
+      <c r="AK53" s="13">
         <v>1200000.0</v>
       </c>
-      <c r="AJ53" s="13">
+      <c r="AL53" s="14">
         <v>235800.0</v>
       </c>
-      <c r="AK53" s="13"/>
-      <c r="AL53" s="14"/>
       <c r="AM53" s="3"/>
-    </row>
-    <row r="54" spans="1:39">
+      <c r="AO53"/>
+    </row>
+    <row r="54" spans="1:41">
       <c r="A54">
         <v>2059</v>
       </c>
@@ -5160,9 +5511,13 @@
         <v>42662.16</v>
       </c>
       <c r="X54" s="2"/>
-      <c r="Y54" s="1"/>
+      <c r="Y54" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z54" s="2"/>
-      <c r="AA54" s="1"/>
+      <c r="AA54" s="1">
+        <v>9756070.0</v>
+      </c>
       <c r="AB54" s="1">
         <v>0</v>
       </c>
@@ -5171,26 +5526,29 @@
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="2">
         <v>-35162.16</v>
       </c>
-      <c r="AF54" s="1">
+      <c r="AH54" s="1">
         <v>-370820.28</v>
       </c>
-      <c r="AG54" s="2"/>
-      <c r="AH54" s="1">
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI54" s="1">
+      <c r="AK54" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ54" s="1">
+      <c r="AL54" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK54" s="1"/>
-      <c r="AL54" s="2"/>
       <c r="AM54"/>
-    </row>
-    <row r="55" spans="1:39">
+      <c r="AO54"/>
+    </row>
+    <row r="55" spans="1:41">
       <c r="A55">
         <v>2060</v>
       </c>
@@ -5247,9 +5605,13 @@
         <v>44548.56</v>
       </c>
       <c r="X55" s="2"/>
-      <c r="Y55" s="1"/>
+      <c r="Y55" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z55" s="2"/>
-      <c r="AA55" s="1"/>
+      <c r="AA55" s="1">
+        <v>9991870.0</v>
+      </c>
       <c r="AB55" s="1">
         <v>0</v>
       </c>
@@ -5258,26 +5620,29 @@
       </c>
       <c r="AD55" s="2"/>
       <c r="AE55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="2">
         <v>-37048.56</v>
       </c>
-      <c r="AF55" s="1">
+      <c r="AH55" s="1">
         <v>-407868.84</v>
       </c>
-      <c r="AG55" s="2"/>
-      <c r="AH55" s="1">
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI55" s="1">
+      <c r="AK55" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ55" s="1">
+      <c r="AL55" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK55" s="1"/>
-      <c r="AL55" s="2"/>
       <c r="AM55"/>
-    </row>
-    <row r="56" spans="1:39">
+      <c r="AO55"/>
+    </row>
+    <row r="56" spans="1:41">
       <c r="A56">
         <v>2061</v>
       </c>
@@ -5334,9 +5699,13 @@
         <v>46434.96</v>
       </c>
       <c r="X56" s="2"/>
-      <c r="Y56" s="1"/>
+      <c r="Y56" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z56" s="2"/>
-      <c r="AA56" s="1"/>
+      <c r="AA56" s="1">
+        <v>10227670.0</v>
+      </c>
       <c r="AB56" s="1">
         <v>0</v>
       </c>
@@ -5345,26 +5714,29 @@
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="2">
         <v>-38934.96</v>
       </c>
-      <c r="AF56" s="1">
+      <c r="AH56" s="1">
         <v>-446803.8</v>
       </c>
-      <c r="AG56" s="2"/>
-      <c r="AH56" s="1">
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI56" s="1">
+      <c r="AK56" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ56" s="1">
+      <c r="AL56" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK56" s="1"/>
-      <c r="AL56" s="2"/>
       <c r="AM56"/>
-    </row>
-    <row r="57" spans="1:39">
+      <c r="AO56"/>
+    </row>
+    <row r="57" spans="1:41">
       <c r="A57" s="3">
         <v>2062</v>
       </c>
@@ -5421,9 +5793,13 @@
         <v>48321.36</v>
       </c>
       <c r="X57" s="14"/>
-      <c r="Y57" s="13"/>
+      <c r="Y57" s="13">
+        <v>4200.0</v>
+      </c>
       <c r="Z57" s="14"/>
-      <c r="AA57" s="13"/>
+      <c r="AA57" s="13">
+        <v>10463470.0</v>
+      </c>
       <c r="AB57" s="13">
         <v>0</v>
       </c>
@@ -5432,26 +5808,29 @@
       </c>
       <c r="AD57" s="14"/>
       <c r="AE57" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AF57" s="13"/>
+      <c r="AG57" s="14">
         <v>-40821.36</v>
       </c>
-      <c r="AF57" s="13">
+      <c r="AH57" s="13">
         <v>-487625.16</v>
       </c>
-      <c r="AG57" s="14"/>
-      <c r="AH57" s="13">
+      <c r="AI57" s="13"/>
+      <c r="AJ57" s="13">
         <v>240000.0</v>
       </c>
-      <c r="AI57" s="13">
+      <c r="AK57" s="13">
         <v>1200000.0</v>
       </c>
-      <c r="AJ57" s="13">
+      <c r="AL57" s="14">
         <v>235800.0</v>
       </c>
-      <c r="AK57" s="13"/>
-      <c r="AL57" s="14"/>
       <c r="AM57" s="3"/>
-    </row>
-    <row r="58" spans="1:39">
+      <c r="AO57"/>
+    </row>
+    <row r="58" spans="1:41">
       <c r="A58">
         <v>2063</v>
       </c>
@@ -5508,9 +5887,13 @@
         <v>50207.76</v>
       </c>
       <c r="X58" s="2"/>
-      <c r="Y58" s="1"/>
+      <c r="Y58" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z58" s="2"/>
-      <c r="AA58" s="1"/>
+      <c r="AA58" s="1">
+        <v>10699270.0</v>
+      </c>
       <c r="AB58" s="1">
         <v>0</v>
       </c>
@@ -5519,26 +5902,29 @@
       </c>
       <c r="AD58" s="2"/>
       <c r="AE58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="2">
         <v>-42707.76</v>
       </c>
-      <c r="AF58" s="1">
+      <c r="AH58" s="1">
         <v>-530332.92</v>
       </c>
-      <c r="AG58" s="2"/>
-      <c r="AH58" s="1">
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI58" s="1">
+      <c r="AK58" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ58" s="1">
+      <c r="AL58" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK58" s="1"/>
-      <c r="AL58" s="2"/>
       <c r="AM58"/>
-    </row>
-    <row r="59" spans="1:39">
+      <c r="AO58"/>
+    </row>
+    <row r="59" spans="1:41">
       <c r="A59">
         <v>2064</v>
       </c>
@@ -5595,9 +5981,13 @@
         <v>52094.16</v>
       </c>
       <c r="X59" s="2"/>
-      <c r="Y59" s="1"/>
+      <c r="Y59" s="1">
+        <v>4200.0</v>
+      </c>
       <c r="Z59" s="2"/>
-      <c r="AA59" s="1"/>
+      <c r="AA59" s="1">
+        <v>10935070.0</v>
+      </c>
       <c r="AB59" s="1">
         <v>0</v>
       </c>
@@ -5606,26 +5996,29 @@
       </c>
       <c r="AD59" s="2"/>
       <c r="AE59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="2">
         <v>-44594.16</v>
       </c>
-      <c r="AF59" s="1">
+      <c r="AH59" s="1">
         <v>-574927.08</v>
       </c>
-      <c r="AG59" s="2"/>
-      <c r="AH59" s="1">
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI59" s="1">
+      <c r="AK59" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ59" s="1">
+      <c r="AL59" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK59" s="1"/>
-      <c r="AL59" s="2"/>
       <c r="AM59"/>
-    </row>
-    <row r="60" spans="1:39">
+      <c r="AO59"/>
+    </row>
+    <row r="60" spans="1:41">
       <c r="A60" s="15">
         <v>2065</v>
       </c>
@@ -5682,9 +6075,13 @@
         <v>53980.56</v>
       </c>
       <c r="X60" s="16"/>
-      <c r="Y60" s="5"/>
+      <c r="Y60" s="5">
+        <v>4200.0</v>
+      </c>
       <c r="Z60" s="16"/>
-      <c r="AA60" s="5"/>
+      <c r="AA60" s="5">
+        <v>11170870.0</v>
+      </c>
       <c r="AB60" s="5">
         <v>0</v>
       </c>
@@ -5693,26 +6090,29 @@
       </c>
       <c r="AD60" s="16"/>
       <c r="AE60" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="16">
         <v>-46480.56</v>
       </c>
-      <c r="AF60" s="5">
+      <c r="AH60" s="5">
         <v>-621407.64</v>
       </c>
-      <c r="AG60" s="16"/>
-      <c r="AH60" s="5">
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="5">
         <v>240000.0</v>
       </c>
-      <c r="AI60" s="5">
+      <c r="AK60" s="5">
         <v>1200000.0</v>
       </c>
-      <c r="AJ60" s="5">
+      <c r="AL60" s="16">
         <v>235800.0</v>
       </c>
-      <c r="AK60" s="5"/>
-      <c r="AL60" s="16"/>
       <c r="AM60" s="15"/>
-    </row>
-    <row r="61" spans="1:39">
+      <c r="AO60"/>
+    </row>
+    <row r="61" spans="1:41">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="2"/>
@@ -5751,7 +6151,7 @@
       <c r="AK61" s="1"/>
       <c r="AL61" s="2"/>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
@@ -5790,7 +6190,7 @@
       <c r="AK62" s="1"/>
       <c r="AL62" s="2"/>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="2"/>
@@ -5829,7 +6229,7 @@
       <c r="AK63" s="1"/>
       <c r="AL63" s="2"/>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="2"/>
@@ -5868,7 +6268,7 @@
       <c r="AK64" s="1"/>
       <c r="AL64" s="2"/>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="2"/>
@@ -5907,7 +6307,7 @@
       <c r="AK65" s="1"/>
       <c r="AL65" s="2"/>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="2"/>
@@ -5946,7 +6346,7 @@
       <c r="AK66" s="1"/>
       <c r="AL66" s="2"/>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="2"/>
@@ -5985,7 +6385,7 @@
       <c r="AK67" s="1"/>
       <c r="AL67" s="2"/>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="2"/>
@@ -6024,7 +6424,7 @@
       <c r="AK68" s="1"/>
       <c r="AL68" s="2"/>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="2"/>
@@ -6063,7 +6463,7 @@
       <c r="AK69" s="1"/>
       <c r="AL69" s="2"/>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="2"/>
@@ -6102,7 +6502,7 @@
       <c r="AK70" s="1"/>
       <c r="AL70" s="2"/>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="2"/>
@@ -6141,7 +6541,7 @@
       <c r="AK71" s="1"/>
       <c r="AL71" s="2"/>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="2"/>
@@ -6180,7 +6580,7 @@
       <c r="AK72" s="1"/>
       <c r="AL72" s="2"/>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="2"/>
@@ -6219,7 +6619,7 @@
       <c r="AK73" s="1"/>
       <c r="AL73" s="2"/>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="2"/>
@@ -6258,7 +6658,7 @@
       <c r="AK74" s="1"/>
       <c r="AL74" s="2"/>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:41">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="2"/>
@@ -6297,7 +6697,7 @@
       <c r="AK75" s="1"/>
       <c r="AL75" s="2"/>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:41">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="2"/>
@@ -6336,7 +6736,7 @@
       <c r="AK76" s="1"/>
       <c r="AL76" s="2"/>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:41">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
@@ -6375,7 +6775,7 @@
       <c r="AK77" s="1"/>
       <c r="AL77" s="2"/>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:41">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
@@ -6414,7 +6814,7 @@
       <c r="AK78" s="1"/>
       <c r="AL78" s="2"/>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:41">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="2"/>
@@ -6453,7 +6853,7 @@
       <c r="AK79" s="1"/>
       <c r="AL79" s="2"/>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:41">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="2"/>
@@ -6513,7 +6913,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AM80"/>
+  <dimension ref="A1:AO80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A60" sqref="A60:AM60"/>
@@ -6551,25 +6951,25 @@
     <col min="28" max="28" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="29" max="29" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="36" max="36" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="31" max="31" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="32" max="32" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="33" max="33" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="34" max="34" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="36" max="36" width="17.567" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -6581,7 +6981,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -6593,10 +6993,10 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -6624,109 +7024,112 @@
       <c r="AG4" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>16</v>
       </c>
       <c r="AJ4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:39">
+      <c r="AL4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="R5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="AF5" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="AG5" s="3" t="s">
         <v>15</v>
@@ -6735,22 +7138,28 @@
         <v>40</v>
       </c>
       <c r="AI5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AK5" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="AL5" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AM5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:39">
+      <c r="AO5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -6787,27 +7196,28 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG6" s="2"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI6" s="1"/>
       <c r="AJ6" s="1">
         <v>0</v>
       </c>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="2"/>
+      <c r="AK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0</v>
+      </c>
       <c r="AM6"/>
-    </row>
-    <row r="7" spans="1:39">
+      <c r="AO6"/>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -6844,27 +7254,28 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG7" s="2"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI7" s="1"/>
       <c r="AJ7" s="1">
         <v>0</v>
       </c>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="2"/>
+      <c r="AK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>0</v>
+      </c>
       <c r="AM7"/>
-    </row>
-    <row r="8" spans="1:39">
+      <c r="AO7"/>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -6901,27 +7312,28 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG8" s="2"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI8" s="1"/>
       <c r="AJ8" s="1">
         <v>0</v>
       </c>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="2"/>
+      <c r="AK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>0</v>
+      </c>
       <c r="AM8"/>
-    </row>
-    <row r="9" spans="1:39">
+      <c r="AO8"/>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9">
         <v>2014</v>
       </c>
@@ -6958,27 +7370,28 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG9" s="2"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI9" s="1"/>
       <c r="AJ9" s="1">
         <v>0</v>
       </c>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="2"/>
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>0</v>
+      </c>
       <c r="AM9"/>
-    </row>
-    <row r="10" spans="1:39">
+      <c r="AO9"/>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -7015,27 +7428,28 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG10" s="2"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI10" s="1"/>
       <c r="AJ10" s="1">
         <v>0</v>
       </c>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="2"/>
+      <c r="AK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>0</v>
+      </c>
       <c r="AM10"/>
-    </row>
-    <row r="11" spans="1:39">
+      <c r="AO10"/>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -7072,27 +7486,28 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG11" s="2"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI11" s="1"/>
       <c r="AJ11" s="1">
         <v>0</v>
       </c>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="2"/>
+      <c r="AK11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>0</v>
+      </c>
       <c r="AM11"/>
-    </row>
-    <row r="12" spans="1:39">
+      <c r="AO11"/>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -7129,27 +7544,28 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG12" s="2"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI12" s="1"/>
       <c r="AJ12" s="1">
         <v>0</v>
       </c>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="2"/>
+      <c r="AK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>0</v>
+      </c>
       <c r="AM12"/>
-    </row>
-    <row r="13" spans="1:39">
+      <c r="AO12"/>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -7186,27 +7602,28 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="2"/>
-      <c r="AE13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG13" s="2"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI13" s="1"/>
       <c r="AJ13" s="1">
         <v>0</v>
       </c>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="2"/>
+      <c r="AK13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>0</v>
+      </c>
       <c r="AM13"/>
-    </row>
-    <row r="14" spans="1:39">
+      <c r="AO13"/>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -7243,27 +7660,28 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG14" s="2"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI14" s="1"/>
       <c r="AJ14" s="1">
         <v>0</v>
       </c>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="2"/>
+      <c r="AK14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>0</v>
+      </c>
       <c r="AM14"/>
-    </row>
-    <row r="15" spans="1:39">
+      <c r="AO14"/>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -7300,27 +7718,28 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="2"/>
-      <c r="AE15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG15" s="2"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI15" s="1"/>
       <c r="AJ15" s="1">
         <v>0</v>
       </c>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="2"/>
+      <c r="AK15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>0</v>
+      </c>
       <c r="AM15"/>
-    </row>
-    <row r="16" spans="1:39">
+      <c r="AO15"/>
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -7357,27 +7776,28 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG16" s="2"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI16" s="1"/>
       <c r="AJ16" s="1">
         <v>0</v>
       </c>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="2"/>
+      <c r="AK16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>0</v>
+      </c>
       <c r="AM16"/>
-    </row>
-    <row r="17" spans="1:39">
+      <c r="AO16"/>
+    </row>
+    <row r="17" spans="1:41">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -7414,27 +7834,28 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="2"/>
-      <c r="AE17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG17" s="2"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI17" s="1"/>
       <c r="AJ17" s="1">
         <v>0</v>
       </c>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="2"/>
+      <c r="AK17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>0</v>
+      </c>
       <c r="AM17"/>
-    </row>
-    <row r="18" spans="1:39">
+      <c r="AO17"/>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18">
         <v>2023</v>
       </c>
@@ -7471,27 +7892,28 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="2"/>
-      <c r="AE18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG18" s="2"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI18" s="1"/>
       <c r="AJ18" s="1">
         <v>0</v>
       </c>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="2"/>
+      <c r="AK18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>0</v>
+      </c>
       <c r="AM18"/>
-    </row>
-    <row r="19" spans="1:39">
+      <c r="AO18"/>
+    </row>
+    <row r="19" spans="1:41">
       <c r="A19" s="7">
         <v>2024</v>
       </c>
@@ -7567,32 +7989,36 @@
       </c>
       <c r="AD19" s="9"/>
       <c r="AE19" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AF19" s="8">
-        <v>0.0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="8"/>
       <c r="AG19" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="AH19" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AI19" s="8">
         <v>0.5</v>
       </c>
-      <c r="AH19" s="8">
+      <c r="AJ19" s="8">
         <v>225000.0</v>
       </c>
-      <c r="AI19" s="8">
+      <c r="AK19" s="8">
         <v>1125000.0</v>
       </c>
-      <c r="AJ19" s="8">
+      <c r="AL19" s="9">
         <v>2985000.0</v>
       </c>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="9">
+      <c r="AM19" s="7"/>
+      <c r="AN19">
         <v>0.92</v>
       </c>
-      <c r="AM19" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39">
+      <c r="AO19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
       <c r="A20">
         <v>2025</v>
       </c>
@@ -7668,32 +8094,36 @@
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF20" s="1">
-        <v>0.0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="1"/>
       <c r="AG20" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI20" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="AJ20" s="1">
         <v>225000.0</v>
       </c>
-      <c r="AI20" s="1">
+      <c r="AK20" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AJ20" s="1">
+      <c r="AL20" s="2">
         <v>-15000.0</v>
       </c>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="2">
+      <c r="AM20"/>
+      <c r="AN20">
         <v>0.06</v>
       </c>
-      <c r="AM20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39">
+      <c r="AO20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
       <c r="A21">
         <v>2026</v>
       </c>
@@ -7769,32 +8199,36 @@
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF21" s="1">
-        <v>0.0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="1"/>
       <c r="AG21" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI21" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AJ21" s="1">
         <v>225000.0</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AK21" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="AL21" s="2">
         <v>-15000.0</v>
       </c>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="2">
+      <c r="AM21"/>
+      <c r="AN21">
         <v>0.06</v>
       </c>
-      <c r="AM21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39">
+      <c r="AO21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41">
       <c r="A22">
         <v>2027</v>
       </c>
@@ -7870,32 +8304,36 @@
       </c>
       <c r="AD22" s="2"/>
       <c r="AE22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF22" s="1">
-        <v>0.0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="1"/>
       <c r="AG22" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI22" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH22" s="1">
+      <c r="AJ22" s="1">
         <v>225000.0</v>
       </c>
-      <c r="AI22" s="1">
+      <c r="AK22" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AL22" s="2">
         <v>-15000.0</v>
       </c>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="2">
+      <c r="AM22"/>
+      <c r="AN22">
         <v>0.06</v>
       </c>
-      <c r="AM22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39">
+      <c r="AO22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41">
       <c r="A23">
         <v>2028</v>
       </c>
@@ -7971,32 +8409,36 @@
       </c>
       <c r="AD23" s="2"/>
       <c r="AE23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF23" s="1">
-        <v>0.0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="1"/>
       <c r="AG23" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI23" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH23" s="1">
+      <c r="AJ23" s="1">
         <v>225000.0</v>
       </c>
-      <c r="AI23" s="1">
+      <c r="AK23" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AJ23" s="1">
+      <c r="AL23" s="2">
         <v>-15000.0</v>
       </c>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="2">
+      <c r="AM23"/>
+      <c r="AN23">
         <v>0.06</v>
       </c>
-      <c r="AM23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39">
+      <c r="AO23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
       <c r="A24">
         <v>2029</v>
       </c>
@@ -8072,32 +8514,36 @@
       </c>
       <c r="AD24" s="2"/>
       <c r="AE24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF24" s="1">
-        <v>0.0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="1"/>
       <c r="AG24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI24" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH24" s="1">
+      <c r="AJ24" s="1">
         <v>225000.0</v>
       </c>
-      <c r="AI24" s="1">
+      <c r="AK24" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AJ24" s="1">
+      <c r="AL24" s="2">
         <v>-15000.0</v>
       </c>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="2">
+      <c r="AM24"/>
+      <c r="AN24">
         <v>0.06</v>
       </c>
-      <c r="AM24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39">
+      <c r="AO24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41">
       <c r="A25">
         <v>2030</v>
       </c>
@@ -8173,32 +8619,36 @@
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF25" s="1">
-        <v>0.0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="1"/>
       <c r="AG25" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI25" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH25" s="1">
+      <c r="AJ25" s="1">
         <v>225000.0</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AK25" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AJ25" s="1">
+      <c r="AL25" s="2">
         <v>-15000.0</v>
       </c>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="2">
+      <c r="AM25"/>
+      <c r="AN25">
         <v>0.06</v>
       </c>
-      <c r="AM25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39">
+      <c r="AO25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41">
       <c r="A26">
         <v>2031</v>
       </c>
@@ -8274,32 +8724,36 @@
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF26" s="1">
-        <v>0.0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="1"/>
       <c r="AG26" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI26" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH26" s="1">
+      <c r="AJ26" s="1">
         <v>225000.0</v>
       </c>
-      <c r="AI26" s="1">
+      <c r="AK26" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AJ26" s="1">
+      <c r="AL26" s="2">
         <v>-15000.0</v>
       </c>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="2">
+      <c r="AM26"/>
+      <c r="AN26">
         <v>0.06</v>
       </c>
-      <c r="AM26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39">
+      <c r="AO26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41">
       <c r="A27">
         <v>2032</v>
       </c>
@@ -8375,32 +8829,36 @@
       </c>
       <c r="AD27" s="2"/>
       <c r="AE27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF27" s="1">
-        <v>0.0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="1"/>
       <c r="AG27" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI27" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH27" s="1">
+      <c r="AJ27" s="1">
         <v>225000.0</v>
       </c>
-      <c r="AI27" s="1">
+      <c r="AK27" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AJ27" s="1">
+      <c r="AL27" s="2">
         <v>-15000.0</v>
       </c>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="2">
+      <c r="AM27"/>
+      <c r="AN27">
         <v>0.06</v>
       </c>
-      <c r="AM27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39">
+      <c r="AO27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41">
       <c r="A28">
         <v>2033</v>
       </c>
@@ -8476,32 +8934,36 @@
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF28" s="1">
-        <v>0.0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="1"/>
       <c r="AG28" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI28" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH28" s="1">
+      <c r="AJ28" s="1">
         <v>225000.0</v>
       </c>
-      <c r="AI28" s="1">
+      <c r="AK28" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AJ28" s="1">
+      <c r="AL28" s="2">
         <v>-15000.0</v>
       </c>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="2">
+      <c r="AM28"/>
+      <c r="AN28">
         <v>0.06</v>
       </c>
-      <c r="AM28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39">
+      <c r="AO28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41">
       <c r="A29">
         <v>2034</v>
       </c>
@@ -8577,32 +9039,36 @@
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF29" s="1">
-        <v>0.0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="1"/>
       <c r="AG29" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI29" s="1">
         <v>0.452209</v>
       </c>
-      <c r="AH29" s="1">
+      <c r="AJ29" s="1">
         <v>81627.0</v>
       </c>
-      <c r="AI29" s="1">
+      <c r="AK29" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AJ29" s="1">
+      <c r="AL29" s="2">
         <v>-15000.0</v>
       </c>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="2">
+      <c r="AM29"/>
+      <c r="AN29">
         <v>0.06</v>
       </c>
-      <c r="AM29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39">
+      <c r="AO29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41">
       <c r="A30">
         <v>2035</v>
       </c>
@@ -8678,32 +9144,36 @@
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF30" s="1">
-        <v>0.0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="1"/>
       <c r="AG30" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI30" s="1">
         <v>0.40394</v>
       </c>
-      <c r="AH30" s="1">
+      <c r="AJ30" s="1">
         <v>81627.0</v>
       </c>
-      <c r="AI30" s="1">
+      <c r="AK30" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AJ30" s="1">
+      <c r="AL30" s="2">
         <v>-13566.0</v>
       </c>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="2">
+      <c r="AM30"/>
+      <c r="AN30">
         <v>0.05</v>
       </c>
-      <c r="AM30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39">
+      <c r="AO30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41">
       <c r="A31">
         <v>2036</v>
       </c>
@@ -8779,32 +9249,36 @@
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF31" s="1">
-        <v>0.0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="1"/>
       <c r="AG31" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI31" s="1">
         <v>0.35518833333333</v>
       </c>
-      <c r="AH31" s="1">
+      <c r="AJ31" s="1">
         <v>81627.0</v>
       </c>
-      <c r="AI31" s="1">
+      <c r="AK31" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AJ31" s="1">
+      <c r="AL31" s="2">
         <v>-12118.0</v>
       </c>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="2">
+      <c r="AM31"/>
+      <c r="AN31">
         <v>0.05</v>
       </c>
-      <c r="AM31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39">
+      <c r="AO31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41">
       <c r="A32">
         <v>2037</v>
       </c>
@@ -8880,32 +9354,36 @@
       </c>
       <c r="AD32" s="2"/>
       <c r="AE32" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF32" s="1">
-        <v>0.0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="1"/>
       <c r="AG32" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI32" s="1">
         <v>0.30594933333333</v>
       </c>
-      <c r="AH32" s="1">
+      <c r="AJ32" s="1">
         <v>81627.0</v>
       </c>
-      <c r="AI32" s="1">
+      <c r="AK32" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AJ32" s="1">
+      <c r="AL32" s="2">
         <v>-10656.0</v>
       </c>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="2">
+      <c r="AM32"/>
+      <c r="AN32">
         <v>0.04</v>
       </c>
-      <c r="AM32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39">
+      <c r="AO32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41">
       <c r="A33">
         <v>2038</v>
       </c>
@@ -8981,32 +9459,36 @@
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF33" s="1">
-        <v>0.0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="1"/>
       <c r="AG33" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI33" s="1">
         <v>0.25621766666667</v>
       </c>
-      <c r="AH33" s="1">
+      <c r="AJ33" s="1">
         <v>81627.0</v>
       </c>
-      <c r="AI33" s="1">
+      <c r="AK33" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AJ33" s="1">
+      <c r="AL33" s="2">
         <v>-9178.0</v>
       </c>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="2">
+      <c r="AM33"/>
+      <c r="AN33">
         <v>0.03</v>
       </c>
-      <c r="AM33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39">
+      <c r="AO33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41">
       <c r="A34">
         <v>2039</v>
       </c>
@@ -9082,32 +9564,36 @@
       </c>
       <c r="AD34" s="2"/>
       <c r="AE34" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF34" s="1">
-        <v>0.0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="1"/>
       <c r="AG34" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI34" s="1">
         <v>0.20598866666667</v>
       </c>
-      <c r="AH34" s="1">
+      <c r="AJ34" s="1">
         <v>81627.0</v>
       </c>
-      <c r="AI34" s="1">
+      <c r="AK34" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AJ34" s="1">
+      <c r="AL34" s="2">
         <v>-7687.0</v>
       </c>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="2">
+      <c r="AM34"/>
+      <c r="AN34">
         <v>0.03</v>
       </c>
-      <c r="AM34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39">
+      <c r="AO34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41">
       <c r="A35">
         <v>2040</v>
       </c>
@@ -9183,32 +9669,36 @@
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF35" s="1">
-        <v>0.0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="1"/>
       <c r="AG35" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI35" s="1">
         <v>0.15525766666667</v>
       </c>
-      <c r="AH35" s="1">
+      <c r="AJ35" s="1">
         <v>81627.0</v>
       </c>
-      <c r="AI35" s="1">
+      <c r="AK35" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AJ35" s="1">
+      <c r="AL35" s="2">
         <v>-6180.0</v>
       </c>
-      <c r="AK35" s="1"/>
-      <c r="AL35" s="2">
+      <c r="AM35"/>
+      <c r="AN35">
         <v>0.02</v>
       </c>
-      <c r="AM35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39">
+      <c r="AO35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41">
       <c r="A36">
         <v>2041</v>
       </c>
@@ -9284,32 +9774,36 @@
       </c>
       <c r="AD36" s="2"/>
       <c r="AE36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF36" s="1">
-        <v>0.0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="1"/>
       <c r="AG36" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI36" s="1">
         <v>0.10401933333333</v>
       </c>
-      <c r="AH36" s="1">
+      <c r="AJ36" s="1">
         <v>81627.0</v>
       </c>
-      <c r="AI36" s="1">
+      <c r="AK36" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AJ36" s="1">
+      <c r="AL36" s="2">
         <v>-4658.0</v>
       </c>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="2">
+      <c r="AM36"/>
+      <c r="AN36">
         <v>0.01</v>
       </c>
-      <c r="AM36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39">
+      <c r="AO36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41">
       <c r="A37">
         <v>2042</v>
       </c>
@@ -9385,32 +9879,36 @@
       </c>
       <c r="AD37" s="2"/>
       <c r="AE37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF37" s="1">
-        <v>0.0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="1"/>
       <c r="AG37" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI37" s="1">
         <v>0.052268333333333</v>
       </c>
-      <c r="AH37" s="1">
+      <c r="AJ37" s="1">
         <v>81627.0</v>
       </c>
-      <c r="AI37" s="1">
+      <c r="AK37" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AJ37" s="1">
+      <c r="AL37" s="2">
         <v>-3121.0</v>
       </c>
-      <c r="AK37" s="1"/>
-      <c r="AL37" s="2">
+      <c r="AM37"/>
+      <c r="AN37">
         <v>0.01</v>
       </c>
-      <c r="AM37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39">
+      <c r="AO37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41">
       <c r="A38">
         <v>2043</v>
       </c>
@@ -9486,30 +9984,34 @@
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG38" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1">
         <v>81627.0</v>
       </c>
-      <c r="AI38" s="1">
+      <c r="AK38" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AJ38" s="1">
+      <c r="AL38" s="2">
         <v>-1568.0</v>
       </c>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39">
+      <c r="AM38"/>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41">
       <c r="A39">
         <v>2044</v>
       </c>
@@ -9575,28 +10077,31 @@
       </c>
       <c r="AD39" s="2"/>
       <c r="AE39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG39" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI39" s="1">
+      <c r="AK39" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK39" s="1"/>
-      <c r="AL39" s="2"/>
-      <c r="AM39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:39">
+      <c r="AL39" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AM39"/>
+      <c r="AO39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41">
       <c r="A40" s="10">
         <v>2045</v>
       </c>
@@ -9662,28 +10167,31 @@
       </c>
       <c r="AD40" s="12"/>
       <c r="AE40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AF40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AG40" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AH40" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11">
         <v>240000.0</v>
       </c>
-      <c r="AI40" s="11">
+      <c r="AK40" s="11">
         <v>1200000.0</v>
       </c>
-      <c r="AJ40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AK40" s="11"/>
-      <c r="AL40" s="12"/>
-      <c r="AM40" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39">
+      <c r="AL40" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AM40" s="10"/>
+      <c r="AO40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41">
       <c r="A41">
         <v>2046</v>
       </c>
@@ -9749,28 +10257,31 @@
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG41" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI41" s="1">
+      <c r="AK41" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK41" s="1"/>
-      <c r="AL41" s="2"/>
-      <c r="AM41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:39">
+      <c r="AL41" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AM41"/>
+      <c r="AO41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41">
       <c r="A42">
         <v>2047</v>
       </c>
@@ -9836,28 +10347,31 @@
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG42" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI42" s="1">
+      <c r="AK42" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK42" s="1"/>
-      <c r="AL42" s="2"/>
-      <c r="AM42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:39">
+      <c r="AL42" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AM42"/>
+      <c r="AO42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41">
       <c r="A43">
         <v>2048</v>
       </c>
@@ -9923,28 +10437,31 @@
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG43" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI43" s="1">
+      <c r="AK43" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK43" s="1"/>
-      <c r="AL43" s="2"/>
-      <c r="AM43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:39">
+      <c r="AL43" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AM43"/>
+      <c r="AO43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41">
       <c r="A44">
         <v>2049</v>
       </c>
@@ -10010,28 +10527,31 @@
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG44" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI44" s="1">
+      <c r="AK44" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK44" s="1"/>
-      <c r="AL44" s="2"/>
-      <c r="AM44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:39">
+      <c r="AL44" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AM44"/>
+      <c r="AO44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41">
       <c r="A45">
         <v>2050</v>
       </c>
@@ -10097,28 +10617,31 @@
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG45" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI45" s="1">
+      <c r="AK45" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK45" s="1"/>
-      <c r="AL45" s="2"/>
-      <c r="AM45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:39">
+      <c r="AL45" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AM45"/>
+      <c r="AO45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41">
       <c r="A46">
         <v>2051</v>
       </c>
@@ -10184,28 +10707,31 @@
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG46" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI46" s="1">
+      <c r="AK46" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK46" s="1"/>
-      <c r="AL46" s="2"/>
-      <c r="AM46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:39">
+      <c r="AL46" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AM46"/>
+      <c r="AO46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41">
       <c r="A47">
         <v>2052</v>
       </c>
@@ -10271,28 +10797,31 @@
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG47" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI47" s="1">
+      <c r="AK47" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK47" s="1"/>
-      <c r="AL47" s="2"/>
-      <c r="AM47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39">
+      <c r="AL47" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AM47"/>
+      <c r="AO47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41">
       <c r="A48">
         <v>2053</v>
       </c>
@@ -10358,28 +10887,31 @@
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG48" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI48" s="1">
+      <c r="AK48" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK48" s="1"/>
-      <c r="AL48" s="2"/>
-      <c r="AM48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:39">
+      <c r="AL48" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AM48"/>
+      <c r="AO48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41">
       <c r="A49">
         <v>2054</v>
       </c>
@@ -10445,28 +10977,31 @@
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG49" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI49" s="1">
+      <c r="AK49" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK49" s="1"/>
-      <c r="AL49" s="2"/>
-      <c r="AM49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:39">
+      <c r="AL49" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AM49"/>
+      <c r="AO49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41">
       <c r="A50">
         <v>2055</v>
       </c>
@@ -10532,28 +11067,31 @@
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG50" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI50" s="1">
+      <c r="AK50" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK50" s="1"/>
-      <c r="AL50" s="2"/>
-      <c r="AM50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:39">
+      <c r="AL50" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AM50"/>
+      <c r="AO50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41">
       <c r="A51">
         <v>2056</v>
       </c>
@@ -10619,28 +11157,31 @@
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG51" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI51" s="1">
+      <c r="AK51" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK51" s="1"/>
-      <c r="AL51" s="2"/>
-      <c r="AM51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:39">
+      <c r="AL51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AM51"/>
+      <c r="AO51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41">
       <c r="A52">
         <v>2057</v>
       </c>
@@ -10706,28 +11247,31 @@
       </c>
       <c r="AD52" s="2"/>
       <c r="AE52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG52" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI52" s="1">
+      <c r="AK52" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK52" s="1"/>
-      <c r="AL52" s="2"/>
-      <c r="AM52" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:39">
+      <c r="AL52" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AM52"/>
+      <c r="AO52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41">
       <c r="A53" s="3">
         <v>2058</v>
       </c>
@@ -10793,28 +11337,31 @@
       </c>
       <c r="AD53" s="14"/>
       <c r="AE53" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="AF53" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="AG53" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="13"/>
+      <c r="AG53" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AH53" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AI53" s="13"/>
+      <c r="AJ53" s="13">
         <v>240000.0</v>
       </c>
-      <c r="AI53" s="13">
+      <c r="AK53" s="13">
         <v>1200000.0</v>
       </c>
-      <c r="AJ53" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="AK53" s="13"/>
-      <c r="AL53" s="14"/>
-      <c r="AM53" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:39">
+      <c r="AL53" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="AM53" s="3"/>
+      <c r="AO53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41">
       <c r="A54">
         <v>2059</v>
       </c>
@@ -10880,28 +11427,31 @@
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG54" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI54" s="1">
+      <c r="AK54" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK54" s="1"/>
-      <c r="AL54" s="2"/>
-      <c r="AM54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:39">
+      <c r="AL54" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AM54"/>
+      <c r="AO54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41">
       <c r="A55">
         <v>2060</v>
       </c>
@@ -10967,28 +11517,31 @@
       </c>
       <c r="AD55" s="2"/>
       <c r="AE55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG55" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI55" s="1">
+      <c r="AK55" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK55" s="1"/>
-      <c r="AL55" s="2"/>
-      <c r="AM55" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:39">
+      <c r="AL55" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AM55"/>
+      <c r="AO55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:41">
       <c r="A56">
         <v>2061</v>
       </c>
@@ -11054,28 +11607,31 @@
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG56" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI56" s="1">
+      <c r="AK56" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK56" s="1"/>
-      <c r="AL56" s="2"/>
-      <c r="AM56" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:39">
+      <c r="AL56" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AM56"/>
+      <c r="AO56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:41">
       <c r="A57" s="3">
         <v>2062</v>
       </c>
@@ -11141,28 +11697,31 @@
       </c>
       <c r="AD57" s="14"/>
       <c r="AE57" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="AF57" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="AG57" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="13"/>
+      <c r="AG57" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AH57" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AI57" s="13"/>
+      <c r="AJ57" s="13">
         <v>240000.0</v>
       </c>
-      <c r="AI57" s="13">
+      <c r="AK57" s="13">
         <v>1200000.0</v>
       </c>
-      <c r="AJ57" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="AK57" s="13"/>
-      <c r="AL57" s="14"/>
-      <c r="AM57" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:39">
+      <c r="AL57" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="AM57" s="3"/>
+      <c r="AO57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41">
       <c r="A58">
         <v>2063</v>
       </c>
@@ -11228,28 +11787,31 @@
       </c>
       <c r="AD58" s="2"/>
       <c r="AE58" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF58" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG58" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI58" s="1">
+      <c r="AK58" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ58" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK58" s="1"/>
-      <c r="AL58" s="2"/>
-      <c r="AM58" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:39">
+      <c r="AL58" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AM58"/>
+      <c r="AO58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:41">
       <c r="A59">
         <v>2064</v>
       </c>
@@ -11315,28 +11877,31 @@
       </c>
       <c r="AD59" s="2"/>
       <c r="AE59" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF59" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG59" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1">
         <v>240000.0</v>
       </c>
-      <c r="AI59" s="1">
+      <c r="AK59" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AJ59" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK59" s="1"/>
-      <c r="AL59" s="2"/>
-      <c r="AM59" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:39">
+      <c r="AL59" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AM59"/>
+      <c r="AO59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:41">
       <c r="A60" s="15">
         <v>2065</v>
       </c>
@@ -11402,28 +11967,31 @@
       </c>
       <c r="AD60" s="16"/>
       <c r="AE60" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AF60" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AG60" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="16">
+        <v>0.0</v>
+      </c>
       <c r="AH60" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="5">
         <v>240000.0</v>
       </c>
-      <c r="AI60" s="5">
+      <c r="AK60" s="5">
         <v>1200000.0</v>
       </c>
-      <c r="AJ60" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AK60" s="5"/>
-      <c r="AL60" s="16"/>
-      <c r="AM60" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:39">
+      <c r="AL60" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AM60" s="15"/>
+      <c r="AO60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:41">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="2"/>
@@ -11462,7 +12030,7 @@
       <c r="AK61" s="1"/>
       <c r="AL61" s="2"/>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
@@ -11501,7 +12069,7 @@
       <c r="AK62" s="1"/>
       <c r="AL62" s="2"/>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="2"/>
@@ -11540,7 +12108,7 @@
       <c r="AK63" s="1"/>
       <c r="AL63" s="2"/>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="2"/>
@@ -11579,7 +12147,7 @@
       <c r="AK64" s="1"/>
       <c r="AL64" s="2"/>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="2"/>
@@ -11618,7 +12186,7 @@
       <c r="AK65" s="1"/>
       <c r="AL65" s="2"/>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="2"/>
@@ -11657,7 +12225,7 @@
       <c r="AK66" s="1"/>
       <c r="AL66" s="2"/>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="2"/>
@@ -11696,7 +12264,7 @@
       <c r="AK67" s="1"/>
       <c r="AL67" s="2"/>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="2"/>
@@ -11735,7 +12303,7 @@
       <c r="AK68" s="1"/>
       <c r="AL68" s="2"/>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="2"/>
@@ -11774,7 +12342,7 @@
       <c r="AK69" s="1"/>
       <c r="AL69" s="2"/>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="2"/>
@@ -11813,7 +12381,7 @@
       <c r="AK70" s="1"/>
       <c r="AL70" s="2"/>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="2"/>
@@ -11852,7 +12420,7 @@
       <c r="AK71" s="1"/>
       <c r="AL71" s="2"/>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="2"/>
@@ -11891,7 +12459,7 @@
       <c r="AK72" s="1"/>
       <c r="AL72" s="2"/>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="2"/>
@@ -11930,7 +12498,7 @@
       <c r="AK73" s="1"/>
       <c r="AL73" s="2"/>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="2"/>
@@ -11969,7 +12537,7 @@
       <c r="AK74" s="1"/>
       <c r="AL74" s="2"/>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:41">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="2"/>
@@ -12008,7 +12576,7 @@
       <c r="AK75" s="1"/>
       <c r="AL75" s="2"/>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:41">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="2"/>
@@ -12047,7 +12615,7 @@
       <c r="AK76" s="1"/>
       <c r="AL76" s="2"/>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:41">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
@@ -12086,7 +12654,7 @@
       <c r="AK77" s="1"/>
       <c r="AL77" s="2"/>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:41">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
@@ -12125,7 +12693,7 @@
       <c r="AK78" s="1"/>
       <c r="AL78" s="2"/>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:41">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="2"/>
@@ -12164,7 +12732,7 @@
       <c r="AK79" s="1"/>
       <c r="AL79" s="2"/>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:41">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="2"/>
@@ -12224,7 +12792,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AM80"/>
+  <dimension ref="A1:AO80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A60" sqref="A60:AM60"/>
@@ -12237,7 +12805,7 @@
     <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
@@ -12262,25 +12830,25 @@
     <col min="28" max="28" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="29" max="29" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="36" max="36" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="31" max="31" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="32" max="32" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="33" max="33" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="34" max="34" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="36" max="36" width="17.567" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -12292,7 +12860,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -12305,7 +12873,7 @@
       </c>
       <c r="J2"/>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -12333,109 +12901,112 @@
       <c r="AG4" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>16</v>
       </c>
       <c r="AJ4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:39">
+      <c r="AL4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="R5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="AF5" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="AG5" s="3" t="s">
         <v>15</v>
@@ -12444,22 +13015,28 @@
         <v>40</v>
       </c>
       <c r="AI5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AK5" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="AL5" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AM5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:39">
+      <c r="AO5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -12496,27 +13073,28 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG6" s="2"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI6" s="1"/>
       <c r="AJ6" s="1">
         <v>0</v>
       </c>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="2"/>
+      <c r="AK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0</v>
+      </c>
       <c r="AM6"/>
-    </row>
-    <row r="7" spans="1:39">
+      <c r="AO6"/>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -12553,27 +13131,28 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG7" s="2"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI7" s="1"/>
       <c r="AJ7" s="1">
         <v>0</v>
       </c>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="2"/>
+      <c r="AK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>0</v>
+      </c>
       <c r="AM7"/>
-    </row>
-    <row r="8" spans="1:39">
+      <c r="AO7"/>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -12610,27 +13189,28 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG8" s="2"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI8" s="1"/>
       <c r="AJ8" s="1">
         <v>0</v>
       </c>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="2"/>
+      <c r="AK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>0</v>
+      </c>
       <c r="AM8"/>
-    </row>
-    <row r="9" spans="1:39">
+      <c r="AO8"/>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9">
         <v>2014</v>
       </c>
@@ -12667,27 +13247,28 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG9" s="2"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI9" s="1"/>
       <c r="AJ9" s="1">
         <v>0</v>
       </c>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="2"/>
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>0</v>
+      </c>
       <c r="AM9"/>
-    </row>
-    <row r="10" spans="1:39">
+      <c r="AO9"/>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -12724,27 +13305,28 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG10" s="2"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI10" s="1"/>
       <c r="AJ10" s="1">
         <v>0</v>
       </c>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="2"/>
+      <c r="AK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>0</v>
+      </c>
       <c r="AM10"/>
-    </row>
-    <row r="11" spans="1:39">
+      <c r="AO10"/>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -12781,27 +13363,28 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG11" s="2"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI11" s="1"/>
       <c r="AJ11" s="1">
         <v>0</v>
       </c>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="2"/>
+      <c r="AK11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>0</v>
+      </c>
       <c r="AM11"/>
-    </row>
-    <row r="12" spans="1:39">
+      <c r="AO11"/>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -12838,27 +13421,28 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG12" s="2"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI12" s="1"/>
       <c r="AJ12" s="1">
         <v>0</v>
       </c>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="2"/>
+      <c r="AK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>0</v>
+      </c>
       <c r="AM12"/>
-    </row>
-    <row r="13" spans="1:39">
+      <c r="AO12"/>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -12895,27 +13479,28 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="2"/>
-      <c r="AE13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG13" s="2"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI13" s="1"/>
       <c r="AJ13" s="1">
         <v>0</v>
       </c>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="2"/>
+      <c r="AK13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>0</v>
+      </c>
       <c r="AM13"/>
-    </row>
-    <row r="14" spans="1:39">
+      <c r="AO13"/>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -12952,27 +13537,28 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG14" s="2"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI14" s="1"/>
       <c r="AJ14" s="1">
         <v>0</v>
       </c>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="2"/>
+      <c r="AK14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>0</v>
+      </c>
       <c r="AM14"/>
-    </row>
-    <row r="15" spans="1:39">
+      <c r="AO14"/>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -13009,27 +13595,28 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="2"/>
-      <c r="AE15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG15" s="2"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI15" s="1"/>
       <c r="AJ15" s="1">
         <v>0</v>
       </c>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="2"/>
+      <c r="AK15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>0</v>
+      </c>
       <c r="AM15"/>
-    </row>
-    <row r="16" spans="1:39">
+      <c r="AO15"/>
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -13066,27 +13653,28 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG16" s="2"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI16" s="1"/>
       <c r="AJ16" s="1">
         <v>0</v>
       </c>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="2"/>
+      <c r="AK16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>0</v>
+      </c>
       <c r="AM16"/>
-    </row>
-    <row r="17" spans="1:39">
+      <c r="AO16"/>
+    </row>
+    <row r="17" spans="1:41">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -13123,27 +13711,28 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="2"/>
-      <c r="AE17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG17" s="2"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI17" s="1"/>
       <c r="AJ17" s="1">
         <v>0</v>
       </c>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="2"/>
+      <c r="AK17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>0</v>
+      </c>
       <c r="AM17"/>
-    </row>
-    <row r="18" spans="1:39">
+      <c r="AO17"/>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18">
         <v>2023</v>
       </c>
@@ -13180,27 +13769,28 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="2"/>
-      <c r="AE18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG18" s="2"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI18" s="1"/>
       <c r="AJ18" s="1">
         <v>0</v>
       </c>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="2"/>
+      <c r="AK18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>0</v>
+      </c>
       <c r="AM18"/>
-    </row>
-    <row r="19" spans="1:39">
+      <c r="AO18"/>
+    </row>
+    <row r="19" spans="1:41">
       <c r="A19" s="7">
         <v>2024</v>
       </c>
@@ -13262,28 +13852,32 @@
       <c r="AE19" s="8">
         <v>0.0</v>
       </c>
-      <c r="AF19" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AG19" s="9"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="9">
+        <v>0.0</v>
+      </c>
       <c r="AH19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="8">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI19" s="8"/>
       <c r="AJ19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="9">
         <v>221800.0</v>
       </c>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="9">
+      <c r="AM19" s="7"/>
+      <c r="AN19">
         <v>1</v>
       </c>
-      <c r="AM19" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39">
+      <c r="AO19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
       <c r="A20">
         <v>2025</v>
       </c>
@@ -13345,28 +13939,32 @@
       <c r="AE20" s="1">
         <v>0.0</v>
       </c>
-      <c r="AF20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG20" s="2"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI20" s="1"/>
       <c r="AJ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="2">
         <v>220800.0</v>
       </c>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="2">
+      <c r="AM20"/>
+      <c r="AN20">
         <v>1</v>
       </c>
-      <c r="AM20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39">
+      <c r="AO20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
       <c r="A21">
         <v>2026</v>
       </c>
@@ -13428,28 +14026,32 @@
       <c r="AE21" s="1">
         <v>0.0</v>
       </c>
-      <c r="AF21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG21" s="2"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI21" s="1"/>
       <c r="AJ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2">
         <v>220800.0</v>
       </c>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="2">
+      <c r="AM21"/>
+      <c r="AN21">
         <v>1</v>
       </c>
-      <c r="AM21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39">
+      <c r="AO21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41">
       <c r="A22">
         <v>2027</v>
       </c>
@@ -13511,28 +14113,32 @@
       <c r="AE22" s="1">
         <v>0.0</v>
       </c>
-      <c r="AF22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG22" s="2"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI22" s="1"/>
       <c r="AJ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="2">
         <v>220800.0</v>
       </c>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="2">
+      <c r="AM22"/>
+      <c r="AN22">
         <v>1</v>
       </c>
-      <c r="AM22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39">
+      <c r="AO22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41">
       <c r="A23">
         <v>2028</v>
       </c>
@@ -13594,28 +14200,32 @@
       <c r="AE23" s="1">
         <v>0.0</v>
       </c>
-      <c r="AF23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG23" s="2"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI23" s="1"/>
       <c r="AJ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="2">
         <v>220800.0</v>
       </c>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="2">
+      <c r="AM23"/>
+      <c r="AN23">
         <v>1</v>
       </c>
-      <c r="AM23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39">
+      <c r="AO23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
       <c r="A24">
         <v>2029</v>
       </c>
@@ -13677,28 +14287,32 @@
       <c r="AE24" s="1">
         <v>0.0</v>
       </c>
-      <c r="AF24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG24" s="2"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI24" s="1"/>
       <c r="AJ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="2">
         <v>220800.0</v>
       </c>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="2">
+      <c r="AM24"/>
+      <c r="AN24">
         <v>1</v>
       </c>
-      <c r="AM24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39">
+      <c r="AO24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41">
       <c r="A25">
         <v>2030</v>
       </c>
@@ -13760,28 +14374,32 @@
       <c r="AE25" s="1">
         <v>0.0</v>
       </c>
-      <c r="AF25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG25" s="2"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI25" s="1"/>
       <c r="AJ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="2">
         <v>220800.0</v>
       </c>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="2">
+      <c r="AM25"/>
+      <c r="AN25">
         <v>1</v>
       </c>
-      <c r="AM25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39">
+      <c r="AO25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41">
       <c r="A26">
         <v>2031</v>
       </c>
@@ -13843,28 +14461,32 @@
       <c r="AE26" s="1">
         <v>0.0</v>
       </c>
-      <c r="AF26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG26" s="2"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI26" s="1"/>
       <c r="AJ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="2">
         <v>220800.0</v>
       </c>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="2">
+      <c r="AM26"/>
+      <c r="AN26">
         <v>1</v>
       </c>
-      <c r="AM26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39">
+      <c r="AO26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41">
       <c r="A27">
         <v>2032</v>
       </c>
@@ -13926,28 +14548,32 @@
       <c r="AE27" s="1">
         <v>0.0</v>
       </c>
-      <c r="AF27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG27" s="2"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI27" s="1"/>
       <c r="AJ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="2">
         <v>220800.0</v>
       </c>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="2">
+      <c r="AM27"/>
+      <c r="AN27">
         <v>1</v>
       </c>
-      <c r="AM27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39">
+      <c r="AO27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41">
       <c r="A28">
         <v>2033</v>
       </c>
@@ -14009,28 +14635,32 @@
       <c r="AE28" s="1">
         <v>0.0</v>
       </c>
-      <c r="AF28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG28" s="2"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="2">
+        <v>0.0</v>
+      </c>
       <c r="AH28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="AI28" s="1"/>
       <c r="AJ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="2">
         <v>220800.0</v>
       </c>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="2">
+      <c r="AM28"/>
+      <c r="AN28">
         <v>1</v>
       </c>
-      <c r="AM28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39">
+      <c r="AO28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41">
       <c r="A29">
         <v>2034</v>
       </c>
@@ -14090,30 +14720,34 @@
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="2">
         <v>-672.0</v>
       </c>
-      <c r="AF29" s="1">
+      <c r="AH29" s="1">
         <v>-672.0</v>
       </c>
-      <c r="AG29" s="2"/>
-      <c r="AH29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI29" s="1"/>
       <c r="AJ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="2">
         <v>77427.0</v>
       </c>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="2">
+      <c r="AM29"/>
+      <c r="AN29">
         <v>1</v>
       </c>
-      <c r="AM29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39">
+      <c r="AO29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41">
       <c r="A30">
         <v>2035</v>
       </c>
@@ -14173,30 +14807,34 @@
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="2">
         <v>-1291.416</v>
       </c>
-      <c r="AF30" s="1">
+      <c r="AH30" s="1">
         <v>-1963.416</v>
       </c>
-      <c r="AG30" s="2"/>
-      <c r="AH30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI30" s="1"/>
       <c r="AJ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="2">
         <v>77427.0</v>
       </c>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="2">
+      <c r="AM30"/>
+      <c r="AN30">
         <v>1</v>
       </c>
-      <c r="AM30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39">
+      <c r="AO30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41">
       <c r="A31">
         <v>2036</v>
       </c>
@@ -14256,30 +14894,34 @@
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="2">
         <v>-1910.832</v>
       </c>
-      <c r="AF31" s="1">
+      <c r="AH31" s="1">
         <v>-3874.248</v>
       </c>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI31" s="1"/>
       <c r="AJ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="2">
         <v>77427.0</v>
       </c>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="2">
+      <c r="AM31"/>
+      <c r="AN31">
         <v>1</v>
       </c>
-      <c r="AM31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39">
+      <c r="AO31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41">
       <c r="A32">
         <v>2037</v>
       </c>
@@ -14339,30 +14981,34 @@
       </c>
       <c r="AD32" s="2"/>
       <c r="AE32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="2">
         <v>-2530.248</v>
       </c>
-      <c r="AF32" s="1">
+      <c r="AH32" s="1">
         <v>-6404.496</v>
       </c>
-      <c r="AG32" s="2"/>
-      <c r="AH32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI32" s="1"/>
       <c r="AJ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="2">
         <v>77427.0</v>
       </c>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="2">
+      <c r="AM32"/>
+      <c r="AN32">
         <v>1</v>
       </c>
-      <c r="AM32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39">
+      <c r="AO32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41">
       <c r="A33">
         <v>2038</v>
       </c>
@@ -14422,30 +15068,34 @@
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="2">
         <v>-3149.664</v>
       </c>
-      <c r="AF33" s="1">
+      <c r="AH33" s="1">
         <v>-9554.16</v>
       </c>
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI33" s="1"/>
       <c r="AJ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="2">
         <v>77427.0</v>
       </c>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="2">
+      <c r="AM33"/>
+      <c r="AN33">
         <v>1</v>
       </c>
-      <c r="AM33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39">
+      <c r="AO33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41">
       <c r="A34">
         <v>2039</v>
       </c>
@@ -14505,30 +15155,34 @@
       </c>
       <c r="AD34" s="2"/>
       <c r="AE34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="2">
         <v>-3769.08</v>
       </c>
-      <c r="AF34" s="1">
+      <c r="AH34" s="1">
         <v>-13323.24</v>
       </c>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI34" s="1"/>
       <c r="AJ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="2">
         <v>77427.0</v>
       </c>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="2">
+      <c r="AM34"/>
+      <c r="AN34">
         <v>1</v>
       </c>
-      <c r="AM34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39">
+      <c r="AO34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41">
       <c r="A35">
         <v>2040</v>
       </c>
@@ -14588,30 +15242,34 @@
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="2">
         <v>-4388.496</v>
       </c>
-      <c r="AF35" s="1">
+      <c r="AH35" s="1">
         <v>-17711.736</v>
       </c>
-      <c r="AG35" s="2"/>
-      <c r="AH35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI35" s="1"/>
       <c r="AJ35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="2">
         <v>77427.0</v>
       </c>
-      <c r="AK35" s="1"/>
-      <c r="AL35" s="2">
+      <c r="AM35"/>
+      <c r="AN35">
         <v>1</v>
       </c>
-      <c r="AM35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39">
+      <c r="AO35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41">
       <c r="A36">
         <v>2041</v>
       </c>
@@ -14671,30 +15329,34 @@
       </c>
       <c r="AD36" s="2"/>
       <c r="AE36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="2">
         <v>-5007.912</v>
       </c>
-      <c r="AF36" s="1">
+      <c r="AH36" s="1">
         <v>-22719.648</v>
       </c>
-      <c r="AG36" s="2"/>
-      <c r="AH36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI36" s="1"/>
       <c r="AJ36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="2">
         <v>77427.0</v>
       </c>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="2">
+      <c r="AM36"/>
+      <c r="AN36">
         <v>1</v>
       </c>
-      <c r="AM36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39">
+      <c r="AO36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41">
       <c r="A37">
         <v>2042</v>
       </c>
@@ -14754,30 +15416,34 @@
       </c>
       <c r="AD37" s="2"/>
       <c r="AE37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="2">
         <v>-5627.328</v>
       </c>
-      <c r="AF37" s="1">
+      <c r="AH37" s="1">
         <v>-28346.976</v>
       </c>
-      <c r="AG37" s="2"/>
-      <c r="AH37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI37" s="1"/>
       <c r="AJ37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="2">
         <v>77427.0</v>
       </c>
-      <c r="AK37" s="1"/>
-      <c r="AL37" s="2">
+      <c r="AM37"/>
+      <c r="AN37">
         <v>1</v>
       </c>
-      <c r="AM37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39">
+      <c r="AO37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41">
       <c r="A38">
         <v>2043</v>
       </c>
@@ -14837,30 +15503,34 @@
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="2">
         <v>-6246.744</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AH38" s="1">
         <v>-34593.72</v>
       </c>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI38" s="1"/>
       <c r="AJ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="2">
         <v>77427.0</v>
       </c>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="2">
+      <c r="AM38"/>
+      <c r="AN38">
         <v>1</v>
       </c>
-      <c r="AM38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39">
+      <c r="AO38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41">
       <c r="A39">
         <v>2044</v>
       </c>
@@ -14920,30 +15590,34 @@
       </c>
       <c r="AD39" s="2"/>
       <c r="AE39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="2">
         <v>-6866.16</v>
       </c>
-      <c r="AF39" s="1">
+      <c r="AH39" s="1">
         <v>-41459.88</v>
       </c>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI39" s="1"/>
       <c r="AJ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK39" s="1"/>
-      <c r="AL39" s="2">
+      <c r="AM39"/>
+      <c r="AN39">
         <v>1</v>
       </c>
-      <c r="AM39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:39">
+      <c r="AO39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41">
       <c r="A40" s="10">
         <v>2045</v>
       </c>
@@ -15003,30 +15677,34 @@
       </c>
       <c r="AD40" s="12"/>
       <c r="AE40" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="12">
         <v>-8752.56</v>
       </c>
-      <c r="AF40" s="11">
+      <c r="AH40" s="11">
         <v>-50212.44</v>
       </c>
-      <c r="AG40" s="12"/>
-      <c r="AH40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="11">
-        <v>0</v>
-      </c>
+      <c r="AI40" s="11"/>
       <c r="AJ40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="12">
         <v>235800.0</v>
       </c>
-      <c r="AK40" s="11"/>
-      <c r="AL40" s="12">
+      <c r="AM40" s="10"/>
+      <c r="AN40">
         <v>1</v>
       </c>
-      <c r="AM40" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39">
+      <c r="AO40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41">
       <c r="A41">
         <v>2046</v>
       </c>
@@ -15086,30 +15764,34 @@
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="2">
         <v>-10638.96</v>
       </c>
-      <c r="AF41" s="1">
+      <c r="AH41" s="1">
         <v>-60851.4</v>
       </c>
-      <c r="AG41" s="2"/>
-      <c r="AH41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI41" s="1"/>
       <c r="AJ41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK41" s="1"/>
-      <c r="AL41" s="2">
+      <c r="AM41"/>
+      <c r="AN41">
         <v>1</v>
       </c>
-      <c r="AM41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:39">
+      <c r="AO41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41">
       <c r="A42">
         <v>2047</v>
       </c>
@@ -15169,30 +15851,34 @@
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="2">
         <v>-12525.36</v>
       </c>
-      <c r="AF42" s="1">
+      <c r="AH42" s="1">
         <v>-73376.76</v>
       </c>
-      <c r="AG42" s="2"/>
-      <c r="AH42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI42" s="1"/>
       <c r="AJ42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK42" s="1"/>
-      <c r="AL42" s="2">
+      <c r="AM42"/>
+      <c r="AN42">
         <v>1</v>
       </c>
-      <c r="AM42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:39">
+      <c r="AO42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41">
       <c r="A43">
         <v>2048</v>
       </c>
@@ -15252,30 +15938,34 @@
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="2">
         <v>-14411.76</v>
       </c>
-      <c r="AF43" s="1">
+      <c r="AH43" s="1">
         <v>-87788.52</v>
       </c>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI43" s="1"/>
       <c r="AJ43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK43" s="1"/>
-      <c r="AL43" s="2">
+      <c r="AM43"/>
+      <c r="AN43">
         <v>1</v>
       </c>
-      <c r="AM43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:39">
+      <c r="AO43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41">
       <c r="A44">
         <v>2049</v>
       </c>
@@ -15335,30 +16025,34 @@
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="2">
         <v>-16298.16</v>
       </c>
-      <c r="AF44" s="1">
+      <c r="AH44" s="1">
         <v>-104086.68</v>
       </c>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI44" s="1"/>
       <c r="AJ44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK44" s="1"/>
-      <c r="AL44" s="2">
+      <c r="AM44"/>
+      <c r="AN44">
         <v>1</v>
       </c>
-      <c r="AM44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:39">
+      <c r="AO44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41">
       <c r="A45">
         <v>2050</v>
       </c>
@@ -15418,30 +16112,34 @@
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="2">
         <v>-18184.56</v>
       </c>
-      <c r="AF45" s="1">
+      <c r="AH45" s="1">
         <v>-122271.24</v>
       </c>
-      <c r="AG45" s="2"/>
-      <c r="AH45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI45" s="1"/>
       <c r="AJ45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK45" s="1"/>
-      <c r="AL45" s="2">
+      <c r="AM45"/>
+      <c r="AN45">
         <v>1</v>
       </c>
-      <c r="AM45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:39">
+      <c r="AO45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41">
       <c r="A46">
         <v>2051</v>
       </c>
@@ -15501,30 +16199,34 @@
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="2">
         <v>-20070.96</v>
       </c>
-      <c r="AF46" s="1">
+      <c r="AH46" s="1">
         <v>-142342.2</v>
       </c>
-      <c r="AG46" s="2"/>
-      <c r="AH46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI46" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI46" s="1"/>
       <c r="AJ46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK46" s="1"/>
-      <c r="AL46" s="2">
+      <c r="AM46"/>
+      <c r="AN46">
         <v>1</v>
       </c>
-      <c r="AM46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:39">
+      <c r="AO46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41">
       <c r="A47">
         <v>2052</v>
       </c>
@@ -15584,30 +16286,34 @@
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="2">
         <v>-21957.36</v>
       </c>
-      <c r="AF47" s="1">
+      <c r="AH47" s="1">
         <v>-164299.56</v>
       </c>
-      <c r="AG47" s="2"/>
-      <c r="AH47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI47" s="1"/>
       <c r="AJ47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK47" s="1"/>
-      <c r="AL47" s="2">
+      <c r="AM47"/>
+      <c r="AN47">
         <v>1</v>
       </c>
-      <c r="AM47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39">
+      <c r="AO47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41">
       <c r="A48">
         <v>2053</v>
       </c>
@@ -15667,30 +16373,34 @@
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="2">
         <v>-23843.76</v>
       </c>
-      <c r="AF48" s="1">
+      <c r="AH48" s="1">
         <v>-188143.32</v>
       </c>
-      <c r="AG48" s="2"/>
-      <c r="AH48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI48" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI48" s="1"/>
       <c r="AJ48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK48" s="1"/>
-      <c r="AL48" s="2">
+      <c r="AM48"/>
+      <c r="AN48">
         <v>1</v>
       </c>
-      <c r="AM48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:39">
+      <c r="AO48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41">
       <c r="A49">
         <v>2054</v>
       </c>
@@ -15750,30 +16460,34 @@
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="2">
         <v>-25730.16</v>
       </c>
-      <c r="AF49" s="1">
+      <c r="AH49" s="1">
         <v>-213873.48</v>
       </c>
-      <c r="AG49" s="2"/>
-      <c r="AH49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI49" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI49" s="1"/>
       <c r="AJ49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK49" s="1"/>
-      <c r="AL49" s="2">
+      <c r="AM49"/>
+      <c r="AN49">
         <v>1</v>
       </c>
-      <c r="AM49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:39">
+      <c r="AO49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41">
       <c r="A50">
         <v>2055</v>
       </c>
@@ -15833,30 +16547,34 @@
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="2">
         <v>-27616.56</v>
       </c>
-      <c r="AF50" s="1">
+      <c r="AH50" s="1">
         <v>-241490.04</v>
       </c>
-      <c r="AG50" s="2"/>
-      <c r="AH50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI50" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI50" s="1"/>
       <c r="AJ50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK50" s="1"/>
-      <c r="AL50" s="2">
+      <c r="AM50"/>
+      <c r="AN50">
         <v>1</v>
       </c>
-      <c r="AM50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:39">
+      <c r="AO50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41">
       <c r="A51">
         <v>2056</v>
       </c>
@@ -15916,30 +16634,34 @@
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="2">
         <v>-29502.96</v>
       </c>
-      <c r="AF51" s="1">
+      <c r="AH51" s="1">
         <v>-270993.0</v>
       </c>
-      <c r="AG51" s="2"/>
-      <c r="AH51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI51" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI51" s="1"/>
       <c r="AJ51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK51" s="1"/>
-      <c r="AL51" s="2">
+      <c r="AM51"/>
+      <c r="AN51">
         <v>1</v>
       </c>
-      <c r="AM51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:39">
+      <c r="AO51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41">
       <c r="A52">
         <v>2057</v>
       </c>
@@ -15999,30 +16721,34 @@
       </c>
       <c r="AD52" s="2"/>
       <c r="AE52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="2">
         <v>-31389.36</v>
       </c>
-      <c r="AF52" s="1">
+      <c r="AH52" s="1">
         <v>-302382.36</v>
       </c>
-      <c r="AG52" s="2"/>
-      <c r="AH52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI52" s="1"/>
       <c r="AJ52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK52" s="1"/>
-      <c r="AL52" s="2">
+      <c r="AM52"/>
+      <c r="AN52">
         <v>1</v>
       </c>
-      <c r="AM52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:39">
+      <c r="AO52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41">
       <c r="A53" s="3">
         <v>2058</v>
       </c>
@@ -16082,30 +16808,34 @@
       </c>
       <c r="AD53" s="14"/>
       <c r="AE53" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AF53" s="13"/>
+      <c r="AG53" s="14">
         <v>-33275.76</v>
       </c>
-      <c r="AF53" s="13">
+      <c r="AH53" s="13">
         <v>-335658.12</v>
       </c>
-      <c r="AG53" s="14"/>
-      <c r="AH53" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI53" s="13">
-        <v>0</v>
-      </c>
+      <c r="AI53" s="13"/>
       <c r="AJ53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="14">
         <v>235800.0</v>
       </c>
-      <c r="AK53" s="13"/>
-      <c r="AL53" s="14">
+      <c r="AM53" s="3"/>
+      <c r="AN53">
         <v>1</v>
       </c>
-      <c r="AM53" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:39">
+      <c r="AO53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41">
       <c r="A54">
         <v>2059</v>
       </c>
@@ -16165,30 +16895,34 @@
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="2">
         <v>-35162.16</v>
       </c>
-      <c r="AF54" s="1">
+      <c r="AH54" s="1">
         <v>-370820.28</v>
       </c>
-      <c r="AG54" s="2"/>
-      <c r="AH54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI54" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI54" s="1"/>
       <c r="AJ54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK54" s="1"/>
-      <c r="AL54" s="2">
+      <c r="AM54"/>
+      <c r="AN54">
         <v>1</v>
       </c>
-      <c r="AM54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:39">
+      <c r="AO54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41">
       <c r="A55">
         <v>2060</v>
       </c>
@@ -16248,30 +16982,34 @@
       </c>
       <c r="AD55" s="2"/>
       <c r="AE55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="2">
         <v>-37048.56</v>
       </c>
-      <c r="AF55" s="1">
+      <c r="AH55" s="1">
         <v>-407868.84</v>
       </c>
-      <c r="AG55" s="2"/>
-      <c r="AH55" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI55" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI55" s="1"/>
       <c r="AJ55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK55" s="1"/>
-      <c r="AL55" s="2">
+      <c r="AM55"/>
+      <c r="AN55">
         <v>1</v>
       </c>
-      <c r="AM55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:39">
+      <c r="AO55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:41">
       <c r="A56">
         <v>2061</v>
       </c>
@@ -16331,30 +17069,34 @@
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="2">
         <v>-38934.96</v>
       </c>
-      <c r="AF56" s="1">
+      <c r="AH56" s="1">
         <v>-446803.8</v>
       </c>
-      <c r="AG56" s="2"/>
-      <c r="AH56" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI56" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI56" s="1"/>
       <c r="AJ56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK56" s="1"/>
-      <c r="AL56" s="2">
+      <c r="AM56"/>
+      <c r="AN56">
         <v>1</v>
       </c>
-      <c r="AM56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:39">
+      <c r="AO56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:41">
       <c r="A57" s="3">
         <v>2062</v>
       </c>
@@ -16414,30 +17156,34 @@
       </c>
       <c r="AD57" s="14"/>
       <c r="AE57" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AF57" s="13"/>
+      <c r="AG57" s="14">
         <v>-40821.36</v>
       </c>
-      <c r="AF57" s="13">
+      <c r="AH57" s="13">
         <v>-487625.16</v>
       </c>
-      <c r="AG57" s="14"/>
-      <c r="AH57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI57" s="13">
-        <v>0</v>
-      </c>
+      <c r="AI57" s="13"/>
       <c r="AJ57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="14">
         <v>235800.0</v>
       </c>
-      <c r="AK57" s="13"/>
-      <c r="AL57" s="14">
+      <c r="AM57" s="3"/>
+      <c r="AN57">
         <v>1</v>
       </c>
-      <c r="AM57" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:39">
+      <c r="AO57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41">
       <c r="A58">
         <v>2063</v>
       </c>
@@ -16497,30 +17243,34 @@
       </c>
       <c r="AD58" s="2"/>
       <c r="AE58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="2">
         <v>-42707.76</v>
       </c>
-      <c r="AF58" s="1">
+      <c r="AH58" s="1">
         <v>-530332.92</v>
       </c>
-      <c r="AG58" s="2"/>
-      <c r="AH58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI58" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI58" s="1"/>
       <c r="AJ58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK58" s="1"/>
-      <c r="AL58" s="2">
+      <c r="AM58"/>
+      <c r="AN58">
         <v>1</v>
       </c>
-      <c r="AM58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:39">
+      <c r="AO58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:41">
       <c r="A59">
         <v>2064</v>
       </c>
@@ -16580,30 +17330,34 @@
       </c>
       <c r="AD59" s="2"/>
       <c r="AE59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="2">
         <v>-44594.16</v>
       </c>
-      <c r="AF59" s="1">
+      <c r="AH59" s="1">
         <v>-574927.08</v>
       </c>
-      <c r="AG59" s="2"/>
-      <c r="AH59" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI59" s="1">
-        <v>0</v>
-      </c>
+      <c r="AI59" s="1"/>
       <c r="AJ59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="2">
         <v>235800.0</v>
       </c>
-      <c r="AK59" s="1"/>
-      <c r="AL59" s="2">
+      <c r="AM59"/>
+      <c r="AN59">
         <v>1</v>
       </c>
-      <c r="AM59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:39">
+      <c r="AO59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:41">
       <c r="A60" s="15">
         <v>2065</v>
       </c>
@@ -16663,30 +17417,34 @@
       </c>
       <c r="AD60" s="16"/>
       <c r="AE60" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="16">
         <v>-46480.56</v>
       </c>
-      <c r="AF60" s="5">
+      <c r="AH60" s="5">
         <v>-621407.64</v>
       </c>
-      <c r="AG60" s="16"/>
-      <c r="AH60" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI60" s="5">
-        <v>0</v>
-      </c>
+      <c r="AI60" s="5"/>
       <c r="AJ60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="16">
         <v>235800.0</v>
       </c>
-      <c r="AK60" s="5"/>
-      <c r="AL60" s="16">
+      <c r="AM60" s="15"/>
+      <c r="AN60">
         <v>1</v>
       </c>
-      <c r="AM60" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:39">
+      <c r="AO60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:41">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="2"/>
@@ -16725,7 +17483,7 @@
       <c r="AK61" s="1"/>
       <c r="AL61" s="2"/>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
@@ -16764,7 +17522,7 @@
       <c r="AK62" s="1"/>
       <c r="AL62" s="2"/>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="2"/>
@@ -16803,7 +17561,7 @@
       <c r="AK63" s="1"/>
       <c r="AL63" s="2"/>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="2"/>
@@ -16842,7 +17600,7 @@
       <c r="AK64" s="1"/>
       <c r="AL64" s="2"/>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="2"/>
@@ -16881,7 +17639,7 @@
       <c r="AK65" s="1"/>
       <c r="AL65" s="2"/>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="2"/>
@@ -16920,7 +17678,7 @@
       <c r="AK66" s="1"/>
       <c r="AL66" s="2"/>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="2"/>
@@ -16959,7 +17717,7 @@
       <c r="AK67" s="1"/>
       <c r="AL67" s="2"/>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="2"/>
@@ -16998,7 +17756,7 @@
       <c r="AK68" s="1"/>
       <c r="AL68" s="2"/>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="2"/>
@@ -17037,7 +17795,7 @@
       <c r="AK69" s="1"/>
       <c r="AL69" s="2"/>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="2"/>
@@ -17076,7 +17834,7 @@
       <c r="AK70" s="1"/>
       <c r="AL70" s="2"/>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="2"/>
@@ -17115,7 +17873,7 @@
       <c r="AK71" s="1"/>
       <c r="AL71" s="2"/>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="2"/>
@@ -17154,7 +17912,7 @@
       <c r="AK72" s="1"/>
       <c r="AL72" s="2"/>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="2"/>
@@ -17193,7 +17951,7 @@
       <c r="AK73" s="1"/>
       <c r="AL73" s="2"/>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="2"/>
@@ -17232,7 +17990,7 @@
       <c r="AK74" s="1"/>
       <c r="AL74" s="2"/>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:41">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="2"/>
@@ -17271,7 +18029,7 @@
       <c r="AK75" s="1"/>
       <c r="AL75" s="2"/>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:41">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="2"/>
@@ -17310,7 +18068,7 @@
       <c r="AK76" s="1"/>
       <c r="AL76" s="2"/>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:41">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
@@ -17349,7 +18107,7 @@
       <c r="AK77" s="1"/>
       <c r="AL77" s="2"/>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:41">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
@@ -17388,7 +18146,7 @@
       <c r="AK78" s="1"/>
       <c r="AL78" s="2"/>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:41">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="2"/>
@@ -17427,7 +18185,7 @@
       <c r="AK79" s="1"/>
       <c r="AL79" s="2"/>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:41">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="2"/>
@@ -17497,13 +18255,13 @@
   <sheetData>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4">

--- a/tests/Feature/config/property-mortgage-interest-only-vs-fond_zero.xlsx
+++ b/tests/Feature/config/property-mortgage-interest-only-vs-fond_zero.xlsx
@@ -167,10 +167,10 @@
     <t>House with 10 interestOnlyYears, the rest of the money put into fond</t>
   </si>
   <si>
-    <t>Income Asset rule: Using current amount: 3000000 * 1</t>
+    <t xml:space="preserve">Income Asset rule: Using current amount: 3000000 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 3000000 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 3000000 * 1 </t>
   </si>
   <si>
     <t>fond</t>
@@ -179,130 +179,130 @@
     <t>equityfund</t>
   </si>
   <si>
-    <t>transfered 220800 - 0 (tax) = 220800 from house.2024.cashflow.afterTaxAmount  Asset rule: Using current amount: 1000 * 1</t>
+    <t xml:space="preserve">transfered 220800 - 0 (tax) = 220800 from house.2024.cashflow.afterTaxAmount  Asset rule: Using current amount: 1000 * 1 </t>
   </si>
   <si>
-    <t>transfered 220800 - 0 (tax) = 220800 from house.2025.cashflow.afterTaxAmount  Asset rule: Using current amount: 221800 * 1</t>
+    <t xml:space="preserve">transfered 220800 - 0 (tax) = 220800 from house.2025.cashflow.afterTaxAmount  Asset rule: Using current amount: 221800 * 1 </t>
   </si>
   <si>
-    <t>transfered 220800 - 0 (tax) = 220800 from house.2026.cashflow.afterTaxAmount  Asset rule: Using current amount: 442600 * 1</t>
+    <t xml:space="preserve">transfered 220800 - 0 (tax) = 220800 from house.2026.cashflow.afterTaxAmount  Asset rule: Using current amount: 442600 * 1 </t>
   </si>
   <si>
-    <t>transfered 220800 - 0 (tax) = 220800 from house.2027.cashflow.afterTaxAmount  Asset rule: Using current amount: 663400 * 1</t>
+    <t xml:space="preserve">transfered 220800 - 0 (tax) = 220800 from house.2027.cashflow.afterTaxAmount  Asset rule: Using current amount: 663400 * 1 </t>
   </si>
   <si>
-    <t>transfered 220800 - 0 (tax) = 220800 from house.2028.cashflow.afterTaxAmount  Asset rule: Using current amount: 884200 * 1</t>
+    <t xml:space="preserve">transfered 220800 - 0 (tax) = 220800 from house.2028.cashflow.afterTaxAmount  Asset rule: Using current amount: 884200 * 1 </t>
   </si>
   <si>
-    <t>transfered 220800 - 0 (tax) = 220800 from house.2029.cashflow.afterTaxAmount  Asset rule: Using current amount: 1105000 * 1</t>
+    <t xml:space="preserve">transfered 220800 - 0 (tax) = 220800 from house.2029.cashflow.afterTaxAmount  Asset rule: Using current amount: 1105000 * 1 </t>
   </si>
   <si>
-    <t>transfered 220800 - 0 (tax) = 220800 from house.2030.cashflow.afterTaxAmount  Asset rule: Using current amount: 1325800 * 1</t>
+    <t xml:space="preserve">transfered 220800 - 0 (tax) = 220800 from house.2030.cashflow.afterTaxAmount  Asset rule: Using current amount: 1325800 * 1 </t>
   </si>
   <si>
-    <t>transfered 220800 - 0 (tax) = 220800 from house.2031.cashflow.afterTaxAmount  Asset rule: Using current amount: 1546600 * 1</t>
+    <t xml:space="preserve">transfered 220800 - 0 (tax) = 220800 from house.2031.cashflow.afterTaxAmount  Asset rule: Using current amount: 1546600 * 1 </t>
   </si>
   <si>
-    <t>transfered 220800 - 0 (tax) = 220800 from house.2032.cashflow.afterTaxAmount  Asset rule: Using current amount: 1767400 * 1</t>
+    <t xml:space="preserve">transfered 220800 - 0 (tax) = 220800 from house.2032.cashflow.afterTaxAmount  Asset rule: Using current amount: 1767400 * 1 </t>
   </si>
   <si>
-    <t>transfered 220800 - 0 (tax) = 220800 from house.2033.cashflow.afterTaxAmount  Asset rule: Using current amount: 1988200 * 1</t>
+    <t xml:space="preserve">transfered 220800 - 0 (tax) = 220800 from house.2033.cashflow.afterTaxAmount  Asset rule: Using current amount: 1988200 * 1 </t>
   </si>
   <si>
-    <t>transfered 77427 - 0 (tax) = 77427 from house.2034.cashflow.afterTaxAmount  Asset rule: Using current amount: 2209000 * 1</t>
+    <t xml:space="preserve">transfered 77427 - 0 (tax) = 77427 from house.2034.cashflow.afterTaxAmount  Asset rule: Using current amount: 2209000 * 1 </t>
   </si>
   <si>
-    <t>transfered 77427 - 0 (tax) = 77427 from house.2035.cashflow.afterTaxAmount  Asset rule: Using current amount: 2286427 * 1</t>
+    <t xml:space="preserve">transfered 77427 - 0 (tax) = 77427 from house.2035.cashflow.afterTaxAmount  Asset rule: Using current amount: 2286427 * 1 </t>
   </si>
   <si>
-    <t>transfered 77427 - 0 (tax) = 77427 from house.2036.cashflow.afterTaxAmount  Asset rule: Using current amount: 2363854 * 1</t>
+    <t xml:space="preserve">transfered 77427 - 0 (tax) = 77427 from house.2036.cashflow.afterTaxAmount  Asset rule: Using current amount: 2363854 * 1 </t>
   </si>
   <si>
-    <t>transfered 77427 - 0 (tax) = 77427 from house.2037.cashflow.afterTaxAmount  Asset rule: Using current amount: 2441281 * 1</t>
+    <t xml:space="preserve">transfered 77427 - 0 (tax) = 77427 from house.2037.cashflow.afterTaxAmount  Asset rule: Using current amount: 2441281 * 1 </t>
   </si>
   <si>
-    <t>transfered 77427 - 0 (tax) = 77427 from house.2038.cashflow.afterTaxAmount  Asset rule: Using current amount: 2518708 * 1</t>
+    <t xml:space="preserve">transfered 77427 - 0 (tax) = 77427 from house.2038.cashflow.afterTaxAmount  Asset rule: Using current amount: 2518708 * 1 </t>
   </si>
   <si>
-    <t>transfered 77427 - 0 (tax) = 77427 from house.2039.cashflow.afterTaxAmount  Asset rule: Using current amount: 2596135 * 1</t>
+    <t xml:space="preserve">transfered 77427 - 0 (tax) = 77427 from house.2039.cashflow.afterTaxAmount  Asset rule: Using current amount: 2596135 * 1 </t>
   </si>
   <si>
-    <t>transfered 77427 - 0 (tax) = 77427 from house.2040.cashflow.afterTaxAmount  Asset rule: Using current amount: 2673562 * 1</t>
+    <t xml:space="preserve">transfered 77427 - 0 (tax) = 77427 from house.2040.cashflow.afterTaxAmount  Asset rule: Using current amount: 2673562 * 1 </t>
   </si>
   <si>
-    <t>transfered 77427 - 0 (tax) = 77427 from house.2041.cashflow.afterTaxAmount  Asset rule: Using current amount: 2750989 * 1</t>
+    <t xml:space="preserve">transfered 77427 - 0 (tax) = 77427 from house.2041.cashflow.afterTaxAmount  Asset rule: Using current amount: 2750989 * 1 </t>
   </si>
   <si>
-    <t>transfered 77427 - 0 (tax) = 77427 from house.2042.cashflow.afterTaxAmount  Asset rule: Using current amount: 2828416 * 1</t>
+    <t xml:space="preserve">transfered 77427 - 0 (tax) = 77427 from house.2042.cashflow.afterTaxAmount  Asset rule: Using current amount: 2828416 * 1 </t>
   </si>
   <si>
-    <t>transfered 77427 - 0 (tax) = 77427 from house.2043.cashflow.afterTaxAmount  Asset rule: Using current amount: 2905843 * 1</t>
+    <t xml:space="preserve">transfered 77427 - 0 (tax) = 77427 from house.2043.cashflow.afterTaxAmount  Asset rule: Using current amount: 2905843 * 1 </t>
   </si>
   <si>
-    <t>transfered 235800 - 0 (tax) = 235800 from house.2044.cashflow.afterTaxAmount  Asset rule: Using current amount: 2983270 * 1</t>
+    <t xml:space="preserve">transfered 235800 - 0 (tax) = 235800 from house.2044.cashflow.afterTaxAmount  Asset rule: Using current amount: 2983270 * 1 </t>
   </si>
   <si>
-    <t>transfered 235800 - 0 (tax) = 235800 from house.2045.cashflow.afterTaxAmount  Asset rule: Using current amount: 3219070 * 1</t>
+    <t xml:space="preserve">transfered 235800 - 0 (tax) = 235800 from house.2045.cashflow.afterTaxAmount  Asset rule: Using current amount: 3219070 * 1 </t>
   </si>
   <si>
-    <t>transfered 235800 - 0 (tax) = 235800 from house.2046.cashflow.afterTaxAmount  Asset rule: Using current amount: 3454870 * 1</t>
+    <t xml:space="preserve">transfered 235800 - 0 (tax) = 235800 from house.2046.cashflow.afterTaxAmount  Asset rule: Using current amount: 3454870 * 1 </t>
   </si>
   <si>
-    <t>transfered 235800 - 0 (tax) = 235800 from house.2047.cashflow.afterTaxAmount  Asset rule: Using current amount: 3690670 * 1</t>
+    <t xml:space="preserve">transfered 235800 - 0 (tax) = 235800 from house.2047.cashflow.afterTaxAmount  Asset rule: Using current amount: 3690670 * 1 </t>
   </si>
   <si>
-    <t>transfered 235800 - 0 (tax) = 235800 from house.2048.cashflow.afterTaxAmount  Asset rule: Using current amount: 3926470 * 1</t>
+    <t xml:space="preserve">transfered 235800 - 0 (tax) = 235800 from house.2048.cashflow.afterTaxAmount  Asset rule: Using current amount: 3926470 * 1 </t>
   </si>
   <si>
-    <t>transfered 235800 - 0 (tax) = 235800 from house.2049.cashflow.afterTaxAmount  Asset rule: Using current amount: 4162270 * 1</t>
+    <t xml:space="preserve">transfered 235800 - 0 (tax) = 235800 from house.2049.cashflow.afterTaxAmount  Asset rule: Using current amount: 4162270 * 1 </t>
   </si>
   <si>
-    <t>transfered 235800 - 0 (tax) = 235800 from house.2050.cashflow.afterTaxAmount  Asset rule: Using current amount: 4398070 * 1</t>
+    <t xml:space="preserve">transfered 235800 - 0 (tax) = 235800 from house.2050.cashflow.afterTaxAmount  Asset rule: Using current amount: 4398070 * 1 </t>
   </si>
   <si>
-    <t>transfered 235800 - 0 (tax) = 235800 from house.2051.cashflow.afterTaxAmount  Asset rule: Using current amount: 4633870 * 1</t>
+    <t xml:space="preserve">transfered 235800 - 0 (tax) = 235800 from house.2051.cashflow.afterTaxAmount  Asset rule: Using current amount: 4633870 * 1 </t>
   </si>
   <si>
-    <t>transfered 235800 - 0 (tax) = 235800 from house.2052.cashflow.afterTaxAmount  Asset rule: Using current amount: 4869670 * 1</t>
+    <t xml:space="preserve">transfered 235800 - 0 (tax) = 235800 from house.2052.cashflow.afterTaxAmount  Asset rule: Using current amount: 4869670 * 1 </t>
   </si>
   <si>
-    <t>transfered 235800 - 0 (tax) = 235800 from house.2053.cashflow.afterTaxAmount  Asset rule: Using current amount: 5105470 * 1</t>
+    <t xml:space="preserve">transfered 235800 - 0 (tax) = 235800 from house.2053.cashflow.afterTaxAmount  Asset rule: Using current amount: 5105470 * 1 </t>
   </si>
   <si>
-    <t>transfered 235800 - 0 (tax) = 235800 from house.2054.cashflow.afterTaxAmount  Asset rule: Using current amount: 5341270 * 1</t>
+    <t xml:space="preserve">transfered 235800 - 0 (tax) = 235800 from house.2054.cashflow.afterTaxAmount  Asset rule: Using current amount: 5341270 * 1 </t>
   </si>
   <si>
-    <t>transfered 235800 - 0 (tax) = 235800 from house.2055.cashflow.afterTaxAmount  Asset rule: Using current amount: 5577070 * 1</t>
+    <t xml:space="preserve">transfered 235800 - 0 (tax) = 235800 from house.2055.cashflow.afterTaxAmount  Asset rule: Using current amount: 5577070 * 1 </t>
   </si>
   <si>
-    <t>transfered 235800 - 0 (tax) = 235800 from house.2056.cashflow.afterTaxAmount  Asset rule: Using current amount: 5812870 * 1</t>
+    <t xml:space="preserve">transfered 235800 - 0 (tax) = 235800 from house.2056.cashflow.afterTaxAmount  Asset rule: Using current amount: 5812870 * 1 </t>
   </si>
   <si>
-    <t>transfered 235800 - 0 (tax) = 235800 from house.2057.cashflow.afterTaxAmount  Asset rule: Using current amount: 6048670 * 1</t>
+    <t xml:space="preserve">transfered 235800 - 0 (tax) = 235800 from house.2057.cashflow.afterTaxAmount  Asset rule: Using current amount: 6048670 * 1 </t>
   </si>
   <si>
-    <t>transfered 235800 - 0 (tax) = 235800 from house.2058.cashflow.afterTaxAmount  Asset rule: Using current amount: 6284470 * 1</t>
+    <t xml:space="preserve">transfered 235800 - 0 (tax) = 235800 from house.2058.cashflow.afterTaxAmount  Asset rule: Using current amount: 6284470 * 1 </t>
   </si>
   <si>
-    <t>transfered 235800 - 0 (tax) = 235800 from house.2059.cashflow.afterTaxAmount  Asset rule: Using current amount: 6520270 * 1</t>
+    <t xml:space="preserve">transfered 235800 - 0 (tax) = 235800 from house.2059.cashflow.afterTaxAmount  Asset rule: Using current amount: 6520270 * 1 </t>
   </si>
   <si>
-    <t>transfered 235800 - 0 (tax) = 235800 from house.2060.cashflow.afterTaxAmount  Asset rule: Using current amount: 6756070 * 1</t>
+    <t xml:space="preserve">transfered 235800 - 0 (tax) = 235800 from house.2060.cashflow.afterTaxAmount  Asset rule: Using current amount: 6756070 * 1 </t>
   </si>
   <si>
-    <t>transfered 235800 - 0 (tax) = 235800 from house.2061.cashflow.afterTaxAmount  Asset rule: Using current amount: 6991870 * 1</t>
+    <t xml:space="preserve">transfered 235800 - 0 (tax) = 235800 from house.2061.cashflow.afterTaxAmount  Asset rule: Using current amount: 6991870 * 1 </t>
   </si>
   <si>
-    <t>transfered 235800 - 0 (tax) = 235800 from house.2062.cashflow.afterTaxAmount  Asset rule: Using current amount: 7227670 * 1</t>
+    <t xml:space="preserve">transfered 235800 - 0 (tax) = 235800 from house.2062.cashflow.afterTaxAmount  Asset rule: Using current amount: 7227670 * 1 </t>
   </si>
   <si>
-    <t>transfered 235800 - 0 (tax) = 235800 from house.2063.cashflow.afterTaxAmount  Asset rule: Using current amount: 7463470 * 1</t>
+    <t xml:space="preserve">transfered 235800 - 0 (tax) = 235800 from house.2063.cashflow.afterTaxAmount  Asset rule: Using current amount: 7463470 * 1 </t>
   </si>
   <si>
-    <t>transfered 235800 - 0 (tax) = 235800 from house.2064.cashflow.afterTaxAmount  Asset rule: Using current amount: 7699270 * 1</t>
+    <t xml:space="preserve">transfered 235800 - 0 (tax) = 235800 from house.2064.cashflow.afterTaxAmount  Asset rule: Using current amount: 7699270 * 1 </t>
   </si>
   <si>
-    <t>transfered 235800 - 0 (tax) = 235800 from house.2065.cashflow.afterTaxAmount  Asset rule: Using current amount: 7935070 * 1</t>
+    <t xml:space="preserve">transfered 235800 - 0 (tax) = 235800 from house.2065.cashflow.afterTaxAmount  Asset rule: Using current amount: 7935070 * 1 </t>
   </si>
   <si>
     <t>total</t>
@@ -703,7 +703,7 @@
   <dimension ref="A1:AO80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A60" sqref="A60:AM60"/>
+      <selection activeCell="A60" sqref="A60:AO60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -740,10 +740,12 @@
     <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="31" max="31" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="32" max="32" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="33" max="33" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="35" max="35" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="36" max="36" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="37" max="37" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="38" max="38" width="11.711" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
@@ -935,10 +937,10 @@
       <c r="AM5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AN5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AO5" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1016,24 +1018,25 @@
       <c r="AE6" s="1">
         <v>0</v>
       </c>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="2">
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="1">
         <v>0.0</v>
       </c>
       <c r="AH6" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI6" s="1"/>
+      <c r="AI6" s="2"/>
       <c r="AJ6" s="1">
         <v>0</v>
       </c>
       <c r="AK6" s="1">
         <v>0</v>
       </c>
-      <c r="AL6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM6"/>
+      <c r="AL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="2"/>
       <c r="AO6"/>
     </row>
     <row r="7" spans="1:41">
@@ -1110,24 +1113,25 @@
       <c r="AE7" s="1">
         <v>0</v>
       </c>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="2">
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="1">
         <v>0.0</v>
       </c>
       <c r="AH7" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI7" s="1"/>
+      <c r="AI7" s="2"/>
       <c r="AJ7" s="1">
         <v>0</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
       </c>
-      <c r="AL7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM7"/>
+      <c r="AL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="2"/>
       <c r="AO7"/>
     </row>
     <row r="8" spans="1:41">
@@ -1204,24 +1208,25 @@
       <c r="AE8" s="1">
         <v>0</v>
       </c>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="2">
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="1">
         <v>0.0</v>
       </c>
       <c r="AH8" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI8" s="1"/>
+      <c r="AI8" s="2"/>
       <c r="AJ8" s="1">
         <v>0</v>
       </c>
       <c r="AK8" s="1">
         <v>0</v>
       </c>
-      <c r="AL8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM8"/>
+      <c r="AL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="2"/>
       <c r="AO8"/>
     </row>
     <row r="9" spans="1:41">
@@ -1298,24 +1303,25 @@
       <c r="AE9" s="1">
         <v>0</v>
       </c>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="2">
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="1">
         <v>0.0</v>
       </c>
       <c r="AH9" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI9" s="1"/>
+      <c r="AI9" s="2"/>
       <c r="AJ9" s="1">
         <v>0</v>
       </c>
       <c r="AK9" s="1">
         <v>0</v>
       </c>
-      <c r="AL9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM9"/>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="2"/>
       <c r="AO9"/>
     </row>
     <row r="10" spans="1:41">
@@ -1392,24 +1398,25 @@
       <c r="AE10" s="1">
         <v>0</v>
       </c>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="2">
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="1">
         <v>0.0</v>
       </c>
       <c r="AH10" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI10" s="1"/>
+      <c r="AI10" s="2"/>
       <c r="AJ10" s="1">
         <v>0</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
       </c>
-      <c r="AL10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM10"/>
+      <c r="AL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="2"/>
       <c r="AO10"/>
     </row>
     <row r="11" spans="1:41">
@@ -1486,24 +1493,25 @@
       <c r="AE11" s="1">
         <v>0</v>
       </c>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="2">
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="1">
         <v>0.0</v>
       </c>
       <c r="AH11" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI11" s="1"/>
+      <c r="AI11" s="2"/>
       <c r="AJ11" s="1">
         <v>0</v>
       </c>
       <c r="AK11" s="1">
         <v>0</v>
       </c>
-      <c r="AL11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM11"/>
+      <c r="AL11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="2"/>
       <c r="AO11"/>
     </row>
     <row r="12" spans="1:41">
@@ -1580,24 +1588,25 @@
       <c r="AE12" s="1">
         <v>0</v>
       </c>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="2">
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="1">
         <v>0.0</v>
       </c>
       <c r="AH12" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI12" s="1"/>
+      <c r="AI12" s="2"/>
       <c r="AJ12" s="1">
         <v>0</v>
       </c>
       <c r="AK12" s="1">
         <v>0</v>
       </c>
-      <c r="AL12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM12"/>
+      <c r="AL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="2"/>
       <c r="AO12"/>
     </row>
     <row r="13" spans="1:41">
@@ -1674,24 +1683,25 @@
       <c r="AE13" s="1">
         <v>0</v>
       </c>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="2">
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="1">
         <v>0.0</v>
       </c>
       <c r="AH13" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI13" s="1"/>
+      <c r="AI13" s="2"/>
       <c r="AJ13" s="1">
         <v>0</v>
       </c>
       <c r="AK13" s="1">
         <v>0</v>
       </c>
-      <c r="AL13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM13"/>
+      <c r="AL13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="2"/>
       <c r="AO13"/>
     </row>
     <row r="14" spans="1:41">
@@ -1768,24 +1778,25 @@
       <c r="AE14" s="1">
         <v>0</v>
       </c>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="2">
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="1">
         <v>0.0</v>
       </c>
       <c r="AH14" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI14" s="1"/>
+      <c r="AI14" s="2"/>
       <c r="AJ14" s="1">
         <v>0</v>
       </c>
       <c r="AK14" s="1">
         <v>0</v>
       </c>
-      <c r="AL14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM14"/>
+      <c r="AL14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="2"/>
       <c r="AO14"/>
     </row>
     <row r="15" spans="1:41">
@@ -1862,24 +1873,25 @@
       <c r="AE15" s="1">
         <v>0</v>
       </c>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="2">
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="1">
         <v>0.0</v>
       </c>
       <c r="AH15" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI15" s="1"/>
+      <c r="AI15" s="2"/>
       <c r="AJ15" s="1">
         <v>0</v>
       </c>
       <c r="AK15" s="1">
         <v>0</v>
       </c>
-      <c r="AL15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM15"/>
+      <c r="AL15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="2"/>
       <c r="AO15"/>
     </row>
     <row r="16" spans="1:41">
@@ -1956,24 +1968,25 @@
       <c r="AE16" s="1">
         <v>0</v>
       </c>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="2">
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="1">
         <v>0.0</v>
       </c>
       <c r="AH16" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI16" s="1"/>
+      <c r="AI16" s="2"/>
       <c r="AJ16" s="1">
         <v>0</v>
       </c>
       <c r="AK16" s="1">
         <v>0</v>
       </c>
-      <c r="AL16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM16"/>
+      <c r="AL16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="2"/>
       <c r="AO16"/>
     </row>
     <row r="17" spans="1:41">
@@ -2050,24 +2063,25 @@
       <c r="AE17" s="1">
         <v>0</v>
       </c>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="2">
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="1">
         <v>0.0</v>
       </c>
       <c r="AH17" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI17" s="1"/>
+      <c r="AI17" s="2"/>
       <c r="AJ17" s="1">
         <v>0</v>
       </c>
       <c r="AK17" s="1">
         <v>0</v>
       </c>
-      <c r="AL17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM17"/>
+      <c r="AL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="2"/>
       <c r="AO17"/>
     </row>
     <row r="18" spans="1:41">
@@ -2144,24 +2158,25 @@
       <c r="AE18" s="1">
         <v>0</v>
       </c>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="2">
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="1">
         <v>0.0</v>
       </c>
       <c r="AH18" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI18" s="1"/>
+      <c r="AI18" s="2"/>
       <c r="AJ18" s="1">
         <v>0</v>
       </c>
       <c r="AK18" s="1">
         <v>0</v>
       </c>
-      <c r="AL18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM18"/>
+      <c r="AL18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="2"/>
       <c r="AO18"/>
     </row>
     <row r="19" spans="1:41">
@@ -2197,7 +2212,7 @@
         <v>1500000.0</v>
       </c>
       <c r="N19" s="8">
-        <v>0</v>
+        <v>3300.0</v>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="8">
@@ -2236,27 +2251,28 @@
       </c>
       <c r="AD19" s="9"/>
       <c r="AE19" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="9">
+        <v>7097.6</v>
+      </c>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="8">
         <v>0.0</v>
       </c>
       <c r="AH19" s="8">
         <v>0.0</v>
       </c>
-      <c r="AI19" s="8"/>
+      <c r="AI19" s="9"/>
       <c r="AJ19" s="8">
         <v>225000.0</v>
       </c>
       <c r="AK19" s="8">
         <v>1125000.0</v>
       </c>
-      <c r="AL19" s="9">
+      <c r="AL19" s="8">
         <v>3206800.0</v>
       </c>
-      <c r="AM19" s="7"/>
-      <c r="AO19"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="7"/>
     </row>
     <row r="20" spans="1:41">
       <c r="A20">
@@ -2291,7 +2307,7 @@
         <v>1500000.0</v>
       </c>
       <c r="N20" s="1">
-        <v>0</v>
+        <v>3300.0</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
@@ -2330,26 +2346,27 @@
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="2">
+        <v>16834.8</v>
+      </c>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="1">
         <v>0.0</v>
       </c>
       <c r="AH20" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI20" s="1"/>
+      <c r="AI20" s="2"/>
       <c r="AJ20" s="1">
         <v>225000.0</v>
       </c>
       <c r="AK20" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AL20" s="2">
+      <c r="AL20" s="1">
         <v>205800.0</v>
       </c>
-      <c r="AM20"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="2"/>
       <c r="AO20"/>
     </row>
     <row r="21" spans="1:41">
@@ -2385,7 +2402,7 @@
         <v>1500000.0</v>
       </c>
       <c r="N21" s="1">
-        <v>0</v>
+        <v>3300.0</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
@@ -2424,26 +2441,27 @@
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="2">
+        <v>31429.6</v>
+      </c>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="1">
         <v>0.0</v>
       </c>
       <c r="AH21" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI21" s="1"/>
+      <c r="AI21" s="2"/>
       <c r="AJ21" s="1">
         <v>225000.0</v>
       </c>
       <c r="AK21" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AL21" s="2">
+      <c r="AL21" s="1">
         <v>205800.0</v>
       </c>
-      <c r="AM21"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="2"/>
       <c r="AO21"/>
     </row>
     <row r="22" spans="1:41">
@@ -2479,7 +2497,7 @@
         <v>1500000.0</v>
       </c>
       <c r="N22" s="1">
-        <v>0</v>
+        <v>3300.0</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
@@ -2518,26 +2536,27 @@
       </c>
       <c r="AD22" s="2"/>
       <c r="AE22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="2">
+        <v>50882.0</v>
+      </c>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="1">
         <v>0.0</v>
       </c>
       <c r="AH22" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI22" s="1"/>
+      <c r="AI22" s="2"/>
       <c r="AJ22" s="1">
         <v>225000.0</v>
       </c>
       <c r="AK22" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AL22" s="2">
+      <c r="AL22" s="1">
         <v>205800.0</v>
       </c>
-      <c r="AM22"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="2"/>
       <c r="AO22"/>
     </row>
     <row r="23" spans="1:41">
@@ -2573,7 +2592,7 @@
         <v>1500000.0</v>
       </c>
       <c r="N23" s="1">
-        <v>0</v>
+        <v>3300.0</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
@@ -2612,26 +2631,27 @@
       </c>
       <c r="AD23" s="2"/>
       <c r="AE23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="2">
+        <v>75192.0</v>
+      </c>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="1">
         <v>0.0</v>
       </c>
       <c r="AH23" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI23" s="1"/>
+      <c r="AI23" s="2"/>
       <c r="AJ23" s="1">
         <v>225000.0</v>
       </c>
       <c r="AK23" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AL23" s="2">
+      <c r="AL23" s="1">
         <v>205800.0</v>
       </c>
-      <c r="AM23"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="2"/>
       <c r="AO23"/>
     </row>
     <row r="24" spans="1:41">
@@ -2667,7 +2687,7 @@
         <v>1500000.0</v>
       </c>
       <c r="N24" s="1">
-        <v>0</v>
+        <v>3300.0</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
@@ -2706,26 +2726,27 @@
       </c>
       <c r="AD24" s="2"/>
       <c r="AE24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="2">
+        <v>104359.6</v>
+      </c>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="1">
         <v>0.0</v>
       </c>
       <c r="AH24" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI24" s="1"/>
+      <c r="AI24" s="2"/>
       <c r="AJ24" s="1">
         <v>225000.0</v>
       </c>
       <c r="AK24" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AL24" s="2">
+      <c r="AL24" s="1">
         <v>205800.0</v>
       </c>
-      <c r="AM24"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="2"/>
       <c r="AO24"/>
     </row>
     <row r="25" spans="1:41">
@@ -2761,7 +2782,7 @@
         <v>1500000.0</v>
       </c>
       <c r="N25" s="1">
-        <v>0</v>
+        <v>3300.0</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
@@ -2800,26 +2821,27 @@
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="2">
+        <v>138384.8</v>
+      </c>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="1">
         <v>0.0</v>
       </c>
       <c r="AH25" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI25" s="1"/>
+      <c r="AI25" s="2"/>
       <c r="AJ25" s="1">
         <v>225000.0</v>
       </c>
       <c r="AK25" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AL25" s="2">
+      <c r="AL25" s="1">
         <v>205800.0</v>
       </c>
-      <c r="AM25"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="2"/>
       <c r="AO25"/>
     </row>
     <row r="26" spans="1:41">
@@ -2855,7 +2877,7 @@
         <v>1500000.0</v>
       </c>
       <c r="N26" s="1">
-        <v>0</v>
+        <v>3300.0</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
@@ -2894,26 +2916,27 @@
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="2">
+        <v>177267.6</v>
+      </c>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="1">
         <v>0.0</v>
       </c>
       <c r="AH26" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI26" s="1"/>
+      <c r="AI26" s="2"/>
       <c r="AJ26" s="1">
         <v>225000.0</v>
       </c>
       <c r="AK26" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AL26" s="2">
+      <c r="AL26" s="1">
         <v>205800.0</v>
       </c>
-      <c r="AM26"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="2"/>
       <c r="AO26"/>
     </row>
     <row r="27" spans="1:41">
@@ -2949,7 +2972,7 @@
         <v>1500000.0</v>
       </c>
       <c r="N27" s="1">
-        <v>0</v>
+        <v>3300.0</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
@@ -2988,26 +3011,27 @@
       </c>
       <c r="AD27" s="2"/>
       <c r="AE27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="2">
+        <v>221008.0</v>
+      </c>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="1">
         <v>0.0</v>
       </c>
       <c r="AH27" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI27" s="1"/>
+      <c r="AI27" s="2"/>
       <c r="AJ27" s="1">
         <v>225000.0</v>
       </c>
       <c r="AK27" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AL27" s="2">
+      <c r="AL27" s="1">
         <v>205800.0</v>
       </c>
-      <c r="AM27"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="2"/>
       <c r="AO27"/>
     </row>
     <row r="28" spans="1:41">
@@ -3043,7 +3067,7 @@
         <v>1500000.0</v>
       </c>
       <c r="N28" s="1">
-        <v>0</v>
+        <v>3300.0</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
@@ -3082,26 +3106,27 @@
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="2">
+        <v>269606.0</v>
+      </c>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="1">
         <v>0.0</v>
       </c>
       <c r="AH28" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI28" s="1"/>
+      <c r="AI28" s="2"/>
       <c r="AJ28" s="1">
         <v>225000.0</v>
       </c>
       <c r="AK28" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AL28" s="2">
+      <c r="AL28" s="1">
         <v>205800.0</v>
       </c>
-      <c r="AM28"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="2"/>
       <c r="AO28"/>
     </row>
     <row r="29" spans="1:41">
@@ -3137,7 +3162,7 @@
         <v>1356627.0</v>
       </c>
       <c r="N29" s="1">
-        <v>0</v>
+        <v>3300.0</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="6">
@@ -3176,26 +3201,27 @@
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="2">
+        <v>319907.394</v>
+      </c>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="1">
         <v>-672.0</v>
       </c>
       <c r="AH29" s="1">
         <v>-672.0</v>
       </c>
-      <c r="AI29" s="1"/>
+      <c r="AI29" s="2"/>
       <c r="AJ29" s="1">
         <v>81627.0</v>
       </c>
       <c r="AK29" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AL29" s="2">
+      <c r="AL29" s="1">
         <v>62427.0</v>
       </c>
-      <c r="AM29"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="2"/>
       <c r="AO29"/>
     </row>
     <row r="30" spans="1:41">
@@ -3231,7 +3257,7 @@
         <v>1211820.0</v>
       </c>
       <c r="N30" s="1">
-        <v>0</v>
+        <v>2984.52</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="6">
@@ -3270,26 +3296,27 @@
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="2">
+        <v>371912.182</v>
+      </c>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="1">
         <v>-1291.416</v>
       </c>
       <c r="AH30" s="1">
         <v>-1963.416</v>
       </c>
-      <c r="AI30" s="1"/>
+      <c r="AI30" s="2"/>
       <c r="AJ30" s="1">
         <v>81627.0</v>
       </c>
       <c r="AK30" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AL30" s="2">
+      <c r="AL30" s="1">
         <v>63861.0</v>
       </c>
-      <c r="AM30"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="2"/>
       <c r="AO30"/>
     </row>
     <row r="31" spans="1:41">
@@ -3325,7 +3352,7 @@
         <v>1065565.0</v>
       </c>
       <c r="N31" s="1">
-        <v>0</v>
+        <v>2665.96</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
@@ -3364,26 +3391,27 @@
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="2">
+        <v>425620.364</v>
+      </c>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="1">
         <v>-1910.832</v>
       </c>
       <c r="AH31" s="1">
         <v>-3874.248</v>
       </c>
-      <c r="AI31" s="1"/>
+      <c r="AI31" s="2"/>
       <c r="AJ31" s="1">
         <v>81627.0</v>
       </c>
       <c r="AK31" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AL31" s="2">
+      <c r="AL31" s="1">
         <v>65309.0</v>
       </c>
-      <c r="AM31"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="2"/>
       <c r="AO31"/>
     </row>
     <row r="32" spans="1:41">
@@ -3419,7 +3447,7 @@
         <v>917848.0</v>
       </c>
       <c r="N32" s="1">
-        <v>0</v>
+        <v>2344.32</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="6">
@@ -3458,26 +3486,27 @@
       </c>
       <c r="AD32" s="2"/>
       <c r="AE32" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="2">
+        <v>481031.94</v>
+      </c>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="1">
         <v>-2530.248</v>
       </c>
       <c r="AH32" s="1">
         <v>-6404.496</v>
       </c>
-      <c r="AI32" s="1"/>
+      <c r="AI32" s="2"/>
       <c r="AJ32" s="1">
         <v>81627.0</v>
       </c>
       <c r="AK32" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AL32" s="2">
+      <c r="AL32" s="1">
         <v>66771.0</v>
       </c>
-      <c r="AM32"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="2"/>
       <c r="AO32"/>
     </row>
     <row r="33" spans="1:41">
@@ -3513,7 +3542,7 @@
         <v>768653.0</v>
       </c>
       <c r="N33" s="1">
-        <v>0</v>
+        <v>2019.16</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="6">
@@ -3552,26 +3581,27 @@
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="2">
+        <v>538146.91</v>
+      </c>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="1">
         <v>-3149.664</v>
       </c>
       <c r="AH33" s="1">
         <v>-9554.16</v>
       </c>
-      <c r="AI33" s="1"/>
+      <c r="AI33" s="2"/>
       <c r="AJ33" s="1">
         <v>81627.0</v>
       </c>
       <c r="AK33" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AL33" s="2">
+      <c r="AL33" s="1">
         <v>68249.0</v>
       </c>
-      <c r="AM33"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="2"/>
       <c r="AO33"/>
     </row>
     <row r="34" spans="1:41">
@@ -3607,7 +3637,7 @@
         <v>617966.0</v>
       </c>
       <c r="N34" s="1">
-        <v>0</v>
+        <v>1691.14</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="6">
@@ -3646,26 +3676,27 @@
       </c>
       <c r="AD34" s="2"/>
       <c r="AE34" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="2">
+        <v>596965.274</v>
+      </c>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="1">
         <v>-3769.08</v>
       </c>
       <c r="AH34" s="1">
         <v>-13323.24</v>
       </c>
-      <c r="AI34" s="1"/>
+      <c r="AI34" s="2"/>
       <c r="AJ34" s="1">
         <v>81627.0</v>
       </c>
       <c r="AK34" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AL34" s="2">
+      <c r="AL34" s="1">
         <v>69740.0</v>
       </c>
-      <c r="AM34"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="2"/>
       <c r="AO34"/>
     </row>
     <row r="35" spans="1:41">
@@ -3701,7 +3732,7 @@
         <v>465773.0</v>
       </c>
       <c r="N35" s="1">
-        <v>0</v>
+        <v>1359.6</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="6">
@@ -3740,26 +3771,27 @@
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="2">
+        <v>657487.032</v>
+      </c>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="1">
         <v>-4388.496</v>
       </c>
       <c r="AH35" s="1">
         <v>-17711.736</v>
       </c>
-      <c r="AI35" s="1"/>
+      <c r="AI35" s="2"/>
       <c r="AJ35" s="1">
         <v>81627.0</v>
       </c>
       <c r="AK35" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AL35" s="2">
+      <c r="AL35" s="1">
         <v>71247.0</v>
       </c>
-      <c r="AM35"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="2"/>
       <c r="AO35"/>
     </row>
     <row r="36" spans="1:41">
@@ -3795,7 +3827,7 @@
         <v>312058.0</v>
       </c>
       <c r="N36" s="1">
-        <v>0</v>
+        <v>1024.76</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="6">
@@ -3834,26 +3866,27 @@
       </c>
       <c r="AD36" s="2"/>
       <c r="AE36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="2">
+        <v>719712.184</v>
+      </c>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="1">
         <v>-5007.912</v>
       </c>
       <c r="AH36" s="1">
         <v>-22719.648</v>
       </c>
-      <c r="AI36" s="1"/>
+      <c r="AI36" s="2"/>
       <c r="AJ36" s="1">
         <v>81627.0</v>
       </c>
       <c r="AK36" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AL36" s="2">
+      <c r="AL36" s="1">
         <v>72769.0</v>
       </c>
-      <c r="AM36"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="2"/>
       <c r="AO36"/>
     </row>
     <row r="37" spans="1:41">
@@ -3889,7 +3922,7 @@
         <v>156805.0</v>
       </c>
       <c r="N37" s="1">
-        <v>0</v>
+        <v>686.62</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
@@ -3928,26 +3961,27 @@
       </c>
       <c r="AD37" s="2"/>
       <c r="AE37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF37" s="1"/>
-      <c r="AG37" s="2">
+        <v>783640.73</v>
+      </c>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="1">
         <v>-5627.328</v>
       </c>
       <c r="AH37" s="1">
         <v>-28346.976</v>
       </c>
-      <c r="AI37" s="1"/>
+      <c r="AI37" s="2"/>
       <c r="AJ37" s="1">
         <v>81627.0</v>
       </c>
       <c r="AK37" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AL37" s="2">
+      <c r="AL37" s="1">
         <v>74306.0</v>
       </c>
-      <c r="AM37"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="2"/>
       <c r="AO37"/>
     </row>
     <row r="38" spans="1:41">
@@ -3983,7 +4017,7 @@
         <v>0.0</v>
       </c>
       <c r="N38" s="1">
-        <v>0</v>
+        <v>344.96</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
@@ -4022,26 +4056,27 @@
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="2">
+        <v>849272.67</v>
+      </c>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="1">
         <v>-6246.744</v>
       </c>
       <c r="AH38" s="1">
         <v>-34593.72</v>
       </c>
-      <c r="AI38" s="1"/>
+      <c r="AI38" s="2"/>
       <c r="AJ38" s="1">
         <v>81627.0</v>
       </c>
       <c r="AK38" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AL38" s="2">
+      <c r="AL38" s="1">
         <v>75859.0</v>
       </c>
-      <c r="AM38"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="2"/>
       <c r="AO38"/>
     </row>
     <row r="39" spans="1:41">
@@ -4116,26 +4151,27 @@
       </c>
       <c r="AD39" s="2"/>
       <c r="AE39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="2">
+        <v>920092.21</v>
+      </c>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="1">
         <v>-6866.16</v>
       </c>
       <c r="AH39" s="1">
         <v>-41459.88</v>
       </c>
-      <c r="AI39" s="1"/>
+      <c r="AI39" s="2"/>
       <c r="AJ39" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK39" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL39" s="2">
+      <c r="AL39" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM39"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="2"/>
       <c r="AO39"/>
     </row>
     <row r="40" spans="1:41">
@@ -4210,27 +4246,28 @@
       </c>
       <c r="AD40" s="12"/>
       <c r="AE40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AF40" s="11"/>
-      <c r="AG40" s="12">
+        <v>996099.35</v>
+      </c>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="11">
         <v>-8752.56</v>
       </c>
       <c r="AH40" s="11">
         <v>-50212.44</v>
       </c>
-      <c r="AI40" s="11"/>
+      <c r="AI40" s="12"/>
       <c r="AJ40" s="11">
         <v>240000.0</v>
       </c>
       <c r="AK40" s="11">
         <v>1200000.0</v>
       </c>
-      <c r="AL40" s="12">
+      <c r="AL40" s="11">
         <v>235800.0</v>
       </c>
-      <c r="AM40" s="10"/>
-      <c r="AO40"/>
+      <c r="AM40" s="11"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="10"/>
     </row>
     <row r="41" spans="1:41">
       <c r="A41">
@@ -4304,26 +4341,27 @@
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="2">
+        <v>1077294.09</v>
+      </c>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="1">
         <v>-10638.96</v>
       </c>
       <c r="AH41" s="1">
         <v>-60851.4</v>
       </c>
-      <c r="AI41" s="1"/>
+      <c r="AI41" s="2"/>
       <c r="AJ41" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK41" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL41" s="2">
+      <c r="AL41" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM41"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="2"/>
       <c r="AO41"/>
     </row>
     <row r="42" spans="1:41">
@@ -4398,26 +4436,27 @@
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF42" s="1"/>
-      <c r="AG42" s="2">
+        <v>1163676.43</v>
+      </c>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="1">
         <v>-12525.36</v>
       </c>
       <c r="AH42" s="1">
         <v>-73376.76</v>
       </c>
-      <c r="AI42" s="1"/>
+      <c r="AI42" s="2"/>
       <c r="AJ42" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK42" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL42" s="2">
+      <c r="AL42" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM42"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="2"/>
       <c r="AO42"/>
     </row>
     <row r="43" spans="1:41">
@@ -4492,26 +4531,27 @@
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF43" s="1"/>
-      <c r="AG43" s="2">
+        <v>1255246.37</v>
+      </c>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="1">
         <v>-14411.76</v>
       </c>
       <c r="AH43" s="1">
         <v>-87788.52</v>
       </c>
-      <c r="AI43" s="1"/>
+      <c r="AI43" s="2"/>
       <c r="AJ43" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK43" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL43" s="2">
+      <c r="AL43" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM43"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="2"/>
       <c r="AO43"/>
     </row>
     <row r="44" spans="1:41">
@@ -4586,26 +4626,27 @@
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF44" s="1"/>
-      <c r="AG44" s="2">
+        <v>1352003.91</v>
+      </c>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="1">
         <v>-16298.16</v>
       </c>
       <c r="AH44" s="1">
         <v>-104086.68</v>
       </c>
-      <c r="AI44" s="1"/>
+      <c r="AI44" s="2"/>
       <c r="AJ44" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK44" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL44" s="2">
+      <c r="AL44" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM44"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="2"/>
       <c r="AO44"/>
     </row>
     <row r="45" spans="1:41">
@@ -4680,26 +4721,27 @@
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF45" s="1"/>
-      <c r="AG45" s="2">
+        <v>1453949.05</v>
+      </c>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="1">
         <v>-18184.56</v>
       </c>
       <c r="AH45" s="1">
         <v>-122271.24</v>
       </c>
-      <c r="AI45" s="1"/>
+      <c r="AI45" s="2"/>
       <c r="AJ45" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK45" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL45" s="2">
+      <c r="AL45" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM45"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="2"/>
       <c r="AO45"/>
     </row>
     <row r="46" spans="1:41">
@@ -4774,26 +4816,27 @@
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF46" s="1"/>
-      <c r="AG46" s="2">
+        <v>1561081.79</v>
+      </c>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="1">
         <v>-20070.96</v>
       </c>
       <c r="AH46" s="1">
         <v>-142342.2</v>
       </c>
-      <c r="AI46" s="1"/>
+      <c r="AI46" s="2"/>
       <c r="AJ46" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK46" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL46" s="2">
+      <c r="AL46" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM46"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="2"/>
       <c r="AO46"/>
     </row>
     <row r="47" spans="1:41">
@@ -4868,26 +4911,27 @@
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF47" s="1"/>
-      <c r="AG47" s="2">
+        <v>1673402.13</v>
+      </c>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="1">
         <v>-21957.36</v>
       </c>
       <c r="AH47" s="1">
         <v>-164299.56</v>
       </c>
-      <c r="AI47" s="1"/>
+      <c r="AI47" s="2"/>
       <c r="AJ47" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK47" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL47" s="2">
+      <c r="AL47" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM47"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="2"/>
       <c r="AO47"/>
     </row>
     <row r="48" spans="1:41">
@@ -4962,26 +5006,27 @@
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF48" s="1"/>
-      <c r="AG48" s="2">
+        <v>1790910.07</v>
+      </c>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="1">
         <v>-23843.76</v>
       </c>
       <c r="AH48" s="1">
         <v>-188143.32</v>
       </c>
-      <c r="AI48" s="1"/>
+      <c r="AI48" s="2"/>
       <c r="AJ48" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK48" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL48" s="2">
+      <c r="AL48" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM48"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="2"/>
       <c r="AO48"/>
     </row>
     <row r="49" spans="1:41">
@@ -5056,26 +5101,27 @@
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF49" s="1"/>
-      <c r="AG49" s="2">
+        <v>1913605.61</v>
+      </c>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="1">
         <v>-25730.16</v>
       </c>
       <c r="AH49" s="1">
         <v>-213873.48</v>
       </c>
-      <c r="AI49" s="1"/>
+      <c r="AI49" s="2"/>
       <c r="AJ49" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK49" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL49" s="2">
+      <c r="AL49" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM49"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="2"/>
       <c r="AO49"/>
     </row>
     <row r="50" spans="1:41">
@@ -5150,26 +5196,27 @@
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="2">
+        <v>2041488.75</v>
+      </c>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="1">
         <v>-27616.56</v>
       </c>
       <c r="AH50" s="1">
         <v>-241490.04</v>
       </c>
-      <c r="AI50" s="1"/>
+      <c r="AI50" s="2"/>
       <c r="AJ50" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK50" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL50" s="2">
+      <c r="AL50" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM50"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="2"/>
       <c r="AO50"/>
     </row>
     <row r="51" spans="1:41">
@@ -5244,26 +5291,27 @@
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF51" s="1"/>
-      <c r="AG51" s="2">
+        <v>2174559.49</v>
+      </c>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="1">
         <v>-29502.96</v>
       </c>
       <c r="AH51" s="1">
         <v>-270993.0</v>
       </c>
-      <c r="AI51" s="1"/>
+      <c r="AI51" s="2"/>
       <c r="AJ51" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK51" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL51" s="2">
+      <c r="AL51" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM51"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="2"/>
       <c r="AO51"/>
     </row>
     <row r="52" spans="1:41">
@@ -5338,26 +5386,27 @@
       </c>
       <c r="AD52" s="2"/>
       <c r="AE52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF52" s="1"/>
-      <c r="AG52" s="2">
+        <v>2312817.83</v>
+      </c>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="1">
         <v>-31389.36</v>
       </c>
       <c r="AH52" s="1">
         <v>-302382.36</v>
       </c>
-      <c r="AI52" s="1"/>
+      <c r="AI52" s="2"/>
       <c r="AJ52" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK52" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL52" s="2">
+      <c r="AL52" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM52"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="2"/>
       <c r="AO52"/>
     </row>
     <row r="53" spans="1:41">
@@ -5432,27 +5481,28 @@
       </c>
       <c r="AD53" s="14"/>
       <c r="AE53" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="AF53" s="13"/>
-      <c r="AG53" s="14">
+        <v>2456263.77</v>
+      </c>
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="13">
         <v>-33275.76</v>
       </c>
       <c r="AH53" s="13">
         <v>-335658.12</v>
       </c>
-      <c r="AI53" s="13"/>
+      <c r="AI53" s="14"/>
       <c r="AJ53" s="13">
         <v>240000.0</v>
       </c>
       <c r="AK53" s="13">
         <v>1200000.0</v>
       </c>
-      <c r="AL53" s="14">
+      <c r="AL53" s="13">
         <v>235800.0</v>
       </c>
-      <c r="AM53" s="3"/>
-      <c r="AO53"/>
+      <c r="AM53" s="13"/>
+      <c r="AN53" s="14"/>
+      <c r="AO53" s="3"/>
     </row>
     <row r="54" spans="1:41">
       <c r="A54">
@@ -5526,26 +5576,27 @@
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF54" s="1"/>
-      <c r="AG54" s="2">
+        <v>2604897.31</v>
+      </c>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="1">
         <v>-35162.16</v>
       </c>
       <c r="AH54" s="1">
         <v>-370820.28</v>
       </c>
-      <c r="AI54" s="1"/>
+      <c r="AI54" s="2"/>
       <c r="AJ54" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK54" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL54" s="2">
+      <c r="AL54" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM54"/>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="2"/>
       <c r="AO54"/>
     </row>
     <row r="55" spans="1:41">
@@ -5620,26 +5671,27 @@
       </c>
       <c r="AD55" s="2"/>
       <c r="AE55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF55" s="1"/>
-      <c r="AG55" s="2">
+        <v>2758718.45</v>
+      </c>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="1">
         <v>-37048.56</v>
       </c>
       <c r="AH55" s="1">
         <v>-407868.84</v>
       </c>
-      <c r="AI55" s="1"/>
+      <c r="AI55" s="2"/>
       <c r="AJ55" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK55" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL55" s="2">
+      <c r="AL55" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM55"/>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="2"/>
       <c r="AO55"/>
     </row>
     <row r="56" spans="1:41">
@@ -5714,26 +5766,27 @@
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF56" s="1"/>
-      <c r="AG56" s="2">
+        <v>2917727.19</v>
+      </c>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="1">
         <v>-38934.96</v>
       </c>
       <c r="AH56" s="1">
         <v>-446803.8</v>
       </c>
-      <c r="AI56" s="1"/>
+      <c r="AI56" s="2"/>
       <c r="AJ56" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK56" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL56" s="2">
+      <c r="AL56" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM56"/>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="2"/>
       <c r="AO56"/>
     </row>
     <row r="57" spans="1:41">
@@ -5808,27 +5861,28 @@
       </c>
       <c r="AD57" s="14"/>
       <c r="AE57" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="AF57" s="13"/>
-      <c r="AG57" s="14">
+        <v>3081923.53</v>
+      </c>
+      <c r="AF57" s="14"/>
+      <c r="AG57" s="13">
         <v>-40821.36</v>
       </c>
       <c r="AH57" s="13">
         <v>-487625.16</v>
       </c>
-      <c r="AI57" s="13"/>
+      <c r="AI57" s="14"/>
       <c r="AJ57" s="13">
         <v>240000.0</v>
       </c>
       <c r="AK57" s="13">
         <v>1200000.0</v>
       </c>
-      <c r="AL57" s="14">
+      <c r="AL57" s="13">
         <v>235800.0</v>
       </c>
-      <c r="AM57" s="3"/>
-      <c r="AO57"/>
+      <c r="AM57" s="13"/>
+      <c r="AN57" s="14"/>
+      <c r="AO57" s="3"/>
     </row>
     <row r="58" spans="1:41">
       <c r="A58">
@@ -5902,26 +5956,27 @@
       </c>
       <c r="AD58" s="2"/>
       <c r="AE58" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF58" s="1"/>
-      <c r="AG58" s="2">
+        <v>3251307.47</v>
+      </c>
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="1">
         <v>-42707.76</v>
       </c>
       <c r="AH58" s="1">
         <v>-530332.92</v>
       </c>
-      <c r="AI58" s="1"/>
+      <c r="AI58" s="2"/>
       <c r="AJ58" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK58" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL58" s="2">
+      <c r="AL58" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM58"/>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="2"/>
       <c r="AO58"/>
     </row>
     <row r="59" spans="1:41">
@@ -5996,26 +6051,27 @@
       </c>
       <c r="AD59" s="2"/>
       <c r="AE59" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF59" s="1"/>
-      <c r="AG59" s="2">
+        <v>3425879.01</v>
+      </c>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="1">
         <v>-44594.16</v>
       </c>
       <c r="AH59" s="1">
         <v>-574927.08</v>
       </c>
-      <c r="AI59" s="1"/>
+      <c r="AI59" s="2"/>
       <c r="AJ59" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK59" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL59" s="2">
+      <c r="AL59" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM59"/>
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="2"/>
       <c r="AO59"/>
     </row>
     <row r="60" spans="1:41">
@@ -6090,27 +6146,28 @@
       </c>
       <c r="AD60" s="16"/>
       <c r="AE60" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AF60" s="5"/>
-      <c r="AG60" s="16">
+        <v>3605638.15</v>
+      </c>
+      <c r="AF60" s="16"/>
+      <c r="AG60" s="5">
         <v>-46480.56</v>
       </c>
       <c r="AH60" s="5">
         <v>-621407.64</v>
       </c>
-      <c r="AI60" s="5"/>
+      <c r="AI60" s="16"/>
       <c r="AJ60" s="5">
         <v>240000.0</v>
       </c>
       <c r="AK60" s="5">
         <v>1200000.0</v>
       </c>
-      <c r="AL60" s="16">
+      <c r="AL60" s="5">
         <v>235800.0</v>
       </c>
-      <c r="AM60" s="15"/>
-      <c r="AO60"/>
+      <c r="AM60" s="5"/>
+      <c r="AN60" s="16"/>
+      <c r="AO60" s="15"/>
     </row>
     <row r="61" spans="1:41">
       <c r="B61" s="1"/>
@@ -6143,13 +6200,15 @@
       <c r="AC61" s="1"/>
       <c r="AD61" s="2"/>
       <c r="AE61" s="1"/>
-      <c r="AF61" s="1"/>
-      <c r="AG61" s="2"/>
+      <c r="AF61" s="2"/>
+      <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
-      <c r="AI61" s="1"/>
+      <c r="AI61" s="2"/>
       <c r="AJ61" s="1"/>
       <c r="AK61" s="1"/>
-      <c r="AL61" s="2"/>
+      <c r="AL61" s="1"/>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="2"/>
     </row>
     <row r="62" spans="1:41">
       <c r="B62" s="1"/>
@@ -6182,13 +6241,15 @@
       <c r="AC62" s="1"/>
       <c r="AD62" s="2"/>
       <c r="AE62" s="1"/>
-      <c r="AF62" s="1"/>
-      <c r="AG62" s="2"/>
+      <c r="AF62" s="2"/>
+      <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
-      <c r="AI62" s="1"/>
+      <c r="AI62" s="2"/>
       <c r="AJ62" s="1"/>
       <c r="AK62" s="1"/>
-      <c r="AL62" s="2"/>
+      <c r="AL62" s="1"/>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="2"/>
     </row>
     <row r="63" spans="1:41">
       <c r="B63" s="1"/>
@@ -6221,13 +6282,15 @@
       <c r="AC63" s="1"/>
       <c r="AD63" s="2"/>
       <c r="AE63" s="1"/>
-      <c r="AF63" s="1"/>
-      <c r="AG63" s="2"/>
+      <c r="AF63" s="2"/>
+      <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
-      <c r="AI63" s="1"/>
+      <c r="AI63" s="2"/>
       <c r="AJ63" s="1"/>
       <c r="AK63" s="1"/>
-      <c r="AL63" s="2"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="2"/>
     </row>
     <row r="64" spans="1:41">
       <c r="B64" s="1"/>
@@ -6260,13 +6323,15 @@
       <c r="AC64" s="1"/>
       <c r="AD64" s="2"/>
       <c r="AE64" s="1"/>
-      <c r="AF64" s="1"/>
-      <c r="AG64" s="2"/>
+      <c r="AF64" s="2"/>
+      <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
-      <c r="AI64" s="1"/>
+      <c r="AI64" s="2"/>
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
-      <c r="AL64" s="2"/>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="2"/>
     </row>
     <row r="65" spans="1:41">
       <c r="B65" s="1"/>
@@ -6299,13 +6364,15 @@
       <c r="AC65" s="1"/>
       <c r="AD65" s="2"/>
       <c r="AE65" s="1"/>
-      <c r="AF65" s="1"/>
-      <c r="AG65" s="2"/>
+      <c r="AF65" s="2"/>
+      <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
-      <c r="AI65" s="1"/>
+      <c r="AI65" s="2"/>
       <c r="AJ65" s="1"/>
       <c r="AK65" s="1"/>
-      <c r="AL65" s="2"/>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="2"/>
     </row>
     <row r="66" spans="1:41">
       <c r="B66" s="1"/>
@@ -6338,13 +6405,15 @@
       <c r="AC66" s="1"/>
       <c r="AD66" s="2"/>
       <c r="AE66" s="1"/>
-      <c r="AF66" s="1"/>
-      <c r="AG66" s="2"/>
+      <c r="AF66" s="2"/>
+      <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
-      <c r="AI66" s="1"/>
+      <c r="AI66" s="2"/>
       <c r="AJ66" s="1"/>
       <c r="AK66" s="1"/>
-      <c r="AL66" s="2"/>
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="2"/>
     </row>
     <row r="67" spans="1:41">
       <c r="B67" s="1"/>
@@ -6377,13 +6446,15 @@
       <c r="AC67" s="1"/>
       <c r="AD67" s="2"/>
       <c r="AE67" s="1"/>
-      <c r="AF67" s="1"/>
-      <c r="AG67" s="2"/>
+      <c r="AF67" s="2"/>
+      <c r="AG67" s="1"/>
       <c r="AH67" s="1"/>
-      <c r="AI67" s="1"/>
+      <c r="AI67" s="2"/>
       <c r="AJ67" s="1"/>
       <c r="AK67" s="1"/>
-      <c r="AL67" s="2"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="2"/>
     </row>
     <row r="68" spans="1:41">
       <c r="B68" s="1"/>
@@ -6416,13 +6487,15 @@
       <c r="AC68" s="1"/>
       <c r="AD68" s="2"/>
       <c r="AE68" s="1"/>
-      <c r="AF68" s="1"/>
-      <c r="AG68" s="2"/>
+      <c r="AF68" s="2"/>
+      <c r="AG68" s="1"/>
       <c r="AH68" s="1"/>
-      <c r="AI68" s="1"/>
+      <c r="AI68" s="2"/>
       <c r="AJ68" s="1"/>
       <c r="AK68" s="1"/>
-      <c r="AL68" s="2"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="2"/>
     </row>
     <row r="69" spans="1:41">
       <c r="B69" s="1"/>
@@ -6455,13 +6528,15 @@
       <c r="AC69" s="1"/>
       <c r="AD69" s="2"/>
       <c r="AE69" s="1"/>
-      <c r="AF69" s="1"/>
-      <c r="AG69" s="2"/>
+      <c r="AF69" s="2"/>
+      <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
-      <c r="AI69" s="1"/>
+      <c r="AI69" s="2"/>
       <c r="AJ69" s="1"/>
       <c r="AK69" s="1"/>
-      <c r="AL69" s="2"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="2"/>
     </row>
     <row r="70" spans="1:41">
       <c r="B70" s="1"/>
@@ -6494,13 +6569,15 @@
       <c r="AC70" s="1"/>
       <c r="AD70" s="2"/>
       <c r="AE70" s="1"/>
-      <c r="AF70" s="1"/>
-      <c r="AG70" s="2"/>
+      <c r="AF70" s="2"/>
+      <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
-      <c r="AI70" s="1"/>
+      <c r="AI70" s="2"/>
       <c r="AJ70" s="1"/>
       <c r="AK70" s="1"/>
-      <c r="AL70" s="2"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="2"/>
     </row>
     <row r="71" spans="1:41">
       <c r="B71" s="1"/>
@@ -6533,13 +6610,15 @@
       <c r="AC71" s="1"/>
       <c r="AD71" s="2"/>
       <c r="AE71" s="1"/>
-      <c r="AF71" s="1"/>
-      <c r="AG71" s="2"/>
+      <c r="AF71" s="2"/>
+      <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
-      <c r="AI71" s="1"/>
+      <c r="AI71" s="2"/>
       <c r="AJ71" s="1"/>
       <c r="AK71" s="1"/>
-      <c r="AL71" s="2"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="2"/>
     </row>
     <row r="72" spans="1:41">
       <c r="B72" s="1"/>
@@ -6572,13 +6651,15 @@
       <c r="AC72" s="1"/>
       <c r="AD72" s="2"/>
       <c r="AE72" s="1"/>
-      <c r="AF72" s="1"/>
-      <c r="AG72" s="2"/>
+      <c r="AF72" s="2"/>
+      <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
-      <c r="AI72" s="1"/>
+      <c r="AI72" s="2"/>
       <c r="AJ72" s="1"/>
       <c r="AK72" s="1"/>
-      <c r="AL72" s="2"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="2"/>
     </row>
     <row r="73" spans="1:41">
       <c r="B73" s="1"/>
@@ -6611,13 +6692,15 @@
       <c r="AC73" s="1"/>
       <c r="AD73" s="2"/>
       <c r="AE73" s="1"/>
-      <c r="AF73" s="1"/>
-      <c r="AG73" s="2"/>
+      <c r="AF73" s="2"/>
+      <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
-      <c r="AI73" s="1"/>
+      <c r="AI73" s="2"/>
       <c r="AJ73" s="1"/>
       <c r="AK73" s="1"/>
-      <c r="AL73" s="2"/>
+      <c r="AL73" s="1"/>
+      <c r="AM73" s="1"/>
+      <c r="AN73" s="2"/>
     </row>
     <row r="74" spans="1:41">
       <c r="B74" s="1"/>
@@ -6650,13 +6733,15 @@
       <c r="AC74" s="1"/>
       <c r="AD74" s="2"/>
       <c r="AE74" s="1"/>
-      <c r="AF74" s="1"/>
-      <c r="AG74" s="2"/>
+      <c r="AF74" s="2"/>
+      <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
-      <c r="AI74" s="1"/>
+      <c r="AI74" s="2"/>
       <c r="AJ74" s="1"/>
       <c r="AK74" s="1"/>
-      <c r="AL74" s="2"/>
+      <c r="AL74" s="1"/>
+      <c r="AM74" s="1"/>
+      <c r="AN74" s="2"/>
     </row>
     <row r="75" spans="1:41">
       <c r="B75" s="1"/>
@@ -6689,13 +6774,15 @@
       <c r="AC75" s="1"/>
       <c r="AD75" s="2"/>
       <c r="AE75" s="1"/>
-      <c r="AF75" s="1"/>
-      <c r="AG75" s="2"/>
+      <c r="AF75" s="2"/>
+      <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
-      <c r="AI75" s="1"/>
+      <c r="AI75" s="2"/>
       <c r="AJ75" s="1"/>
       <c r="AK75" s="1"/>
-      <c r="AL75" s="2"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AN75" s="2"/>
     </row>
     <row r="76" spans="1:41">
       <c r="B76" s="1"/>
@@ -6728,13 +6815,15 @@
       <c r="AC76" s="1"/>
       <c r="AD76" s="2"/>
       <c r="AE76" s="1"/>
-      <c r="AF76" s="1"/>
-      <c r="AG76" s="2"/>
+      <c r="AF76" s="2"/>
+      <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
-      <c r="AI76" s="1"/>
+      <c r="AI76" s="2"/>
       <c r="AJ76" s="1"/>
       <c r="AK76" s="1"/>
-      <c r="AL76" s="2"/>
+      <c r="AL76" s="1"/>
+      <c r="AM76" s="1"/>
+      <c r="AN76" s="2"/>
     </row>
     <row r="77" spans="1:41">
       <c r="B77" s="1"/>
@@ -6767,13 +6856,15 @@
       <c r="AC77" s="1"/>
       <c r="AD77" s="2"/>
       <c r="AE77" s="1"/>
-      <c r="AF77" s="1"/>
-      <c r="AG77" s="2"/>
+      <c r="AF77" s="2"/>
+      <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
-      <c r="AI77" s="1"/>
+      <c r="AI77" s="2"/>
       <c r="AJ77" s="1"/>
       <c r="AK77" s="1"/>
-      <c r="AL77" s="2"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AN77" s="2"/>
     </row>
     <row r="78" spans="1:41">
       <c r="B78" s="1"/>
@@ -6806,13 +6897,15 @@
       <c r="AC78" s="1"/>
       <c r="AD78" s="2"/>
       <c r="AE78" s="1"/>
-      <c r="AF78" s="1"/>
-      <c r="AG78" s="2"/>
+      <c r="AF78" s="2"/>
+      <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
-      <c r="AI78" s="1"/>
+      <c r="AI78" s="2"/>
       <c r="AJ78" s="1"/>
       <c r="AK78" s="1"/>
-      <c r="AL78" s="2"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="2"/>
     </row>
     <row r="79" spans="1:41">
       <c r="B79" s="1"/>
@@ -6845,13 +6938,15 @@
       <c r="AC79" s="1"/>
       <c r="AD79" s="2"/>
       <c r="AE79" s="1"/>
-      <c r="AF79" s="1"/>
-      <c r="AG79" s="2"/>
+      <c r="AF79" s="2"/>
+      <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
-      <c r="AI79" s="1"/>
+      <c r="AI79" s="2"/>
       <c r="AJ79" s="1"/>
       <c r="AK79" s="1"/>
-      <c r="AL79" s="2"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="2"/>
     </row>
     <row r="80" spans="1:41">
       <c r="B80" s="1"/>
@@ -6884,13 +6979,15 @@
       <c r="AC80" s="1"/>
       <c r="AD80" s="2"/>
       <c r="AE80" s="1"/>
-      <c r="AF80" s="1"/>
-      <c r="AG80" s="2"/>
+      <c r="AF80" s="2"/>
+      <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
-      <c r="AI80" s="1"/>
+      <c r="AI80" s="2"/>
       <c r="AJ80" s="1"/>
       <c r="AK80" s="1"/>
-      <c r="AL80" s="2"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -6916,7 +7013,7 @@
   <dimension ref="A1:AO80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A60" sqref="A60:AM60"/>
+      <selection activeCell="A60" sqref="A60:AO60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6957,6 +7054,8 @@
     <col min="34" max="34" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="35" max="35" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="36" max="36" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="37" max="37" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="38" max="38" width="11.711" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
@@ -7152,10 +7251,10 @@
       <c r="AM5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AN5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AO5" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7197,24 +7296,25 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="2">
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="1">
         <v>0.0</v>
       </c>
       <c r="AH6" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI6" s="1"/>
+      <c r="AI6" s="2"/>
       <c r="AJ6" s="1">
         <v>0</v>
       </c>
       <c r="AK6" s="1">
         <v>0</v>
       </c>
-      <c r="AL6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM6"/>
+      <c r="AL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="2"/>
       <c r="AO6"/>
     </row>
     <row r="7" spans="1:41">
@@ -7255,24 +7355,25 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="2">
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="1">
         <v>0.0</v>
       </c>
       <c r="AH7" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI7" s="1"/>
+      <c r="AI7" s="2"/>
       <c r="AJ7" s="1">
         <v>0</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
       </c>
-      <c r="AL7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM7"/>
+      <c r="AL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="2"/>
       <c r="AO7"/>
     </row>
     <row r="8" spans="1:41">
@@ -7313,24 +7414,25 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="2">
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="1">
         <v>0.0</v>
       </c>
       <c r="AH8" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI8" s="1"/>
+      <c r="AI8" s="2"/>
       <c r="AJ8" s="1">
         <v>0</v>
       </c>
       <c r="AK8" s="1">
         <v>0</v>
       </c>
-      <c r="AL8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM8"/>
+      <c r="AL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="2"/>
       <c r="AO8"/>
     </row>
     <row r="9" spans="1:41">
@@ -7371,24 +7473,25 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="2">
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="1">
         <v>0.0</v>
       </c>
       <c r="AH9" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI9" s="1"/>
+      <c r="AI9" s="2"/>
       <c r="AJ9" s="1">
         <v>0</v>
       </c>
       <c r="AK9" s="1">
         <v>0</v>
       </c>
-      <c r="AL9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM9"/>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="2"/>
       <c r="AO9"/>
     </row>
     <row r="10" spans="1:41">
@@ -7429,24 +7532,25 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="2">
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="1">
         <v>0.0</v>
       </c>
       <c r="AH10" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI10" s="1"/>
+      <c r="AI10" s="2"/>
       <c r="AJ10" s="1">
         <v>0</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
       </c>
-      <c r="AL10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM10"/>
+      <c r="AL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="2"/>
       <c r="AO10"/>
     </row>
     <row r="11" spans="1:41">
@@ -7487,24 +7591,25 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="2">
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="1">
         <v>0.0</v>
       </c>
       <c r="AH11" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI11" s="1"/>
+      <c r="AI11" s="2"/>
       <c r="AJ11" s="1">
         <v>0</v>
       </c>
       <c r="AK11" s="1">
         <v>0</v>
       </c>
-      <c r="AL11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM11"/>
+      <c r="AL11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="2"/>
       <c r="AO11"/>
     </row>
     <row r="12" spans="1:41">
@@ -7545,24 +7650,25 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="2">
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="1">
         <v>0.0</v>
       </c>
       <c r="AH12" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI12" s="1"/>
+      <c r="AI12" s="2"/>
       <c r="AJ12" s="1">
         <v>0</v>
       </c>
       <c r="AK12" s="1">
         <v>0</v>
       </c>
-      <c r="AL12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM12"/>
+      <c r="AL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="2"/>
       <c r="AO12"/>
     </row>
     <row r="13" spans="1:41">
@@ -7603,24 +7709,25 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="2">
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="1">
         <v>0.0</v>
       </c>
       <c r="AH13" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI13" s="1"/>
+      <c r="AI13" s="2"/>
       <c r="AJ13" s="1">
         <v>0</v>
       </c>
       <c r="AK13" s="1">
         <v>0</v>
       </c>
-      <c r="AL13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM13"/>
+      <c r="AL13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="2"/>
       <c r="AO13"/>
     </row>
     <row r="14" spans="1:41">
@@ -7661,24 +7768,25 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="2">
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="1">
         <v>0.0</v>
       </c>
       <c r="AH14" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI14" s="1"/>
+      <c r="AI14" s="2"/>
       <c r="AJ14" s="1">
         <v>0</v>
       </c>
       <c r="AK14" s="1">
         <v>0</v>
       </c>
-      <c r="AL14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM14"/>
+      <c r="AL14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="2"/>
       <c r="AO14"/>
     </row>
     <row r="15" spans="1:41">
@@ -7719,24 +7827,25 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="2">
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="1">
         <v>0.0</v>
       </c>
       <c r="AH15" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI15" s="1"/>
+      <c r="AI15" s="2"/>
       <c r="AJ15" s="1">
         <v>0</v>
       </c>
       <c r="AK15" s="1">
         <v>0</v>
       </c>
-      <c r="AL15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM15"/>
+      <c r="AL15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="2"/>
       <c r="AO15"/>
     </row>
     <row r="16" spans="1:41">
@@ -7777,24 +7886,25 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="2">
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="1">
         <v>0.0</v>
       </c>
       <c r="AH16" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI16" s="1"/>
+      <c r="AI16" s="2"/>
       <c r="AJ16" s="1">
         <v>0</v>
       </c>
       <c r="AK16" s="1">
         <v>0</v>
       </c>
-      <c r="AL16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM16"/>
+      <c r="AL16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="2"/>
       <c r="AO16"/>
     </row>
     <row r="17" spans="1:41">
@@ -7835,24 +7945,25 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="2">
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="1">
         <v>0.0</v>
       </c>
       <c r="AH17" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI17" s="1"/>
+      <c r="AI17" s="2"/>
       <c r="AJ17" s="1">
         <v>0</v>
       </c>
       <c r="AK17" s="1">
         <v>0</v>
       </c>
-      <c r="AL17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM17"/>
+      <c r="AL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="2"/>
       <c r="AO17"/>
     </row>
     <row r="18" spans="1:41">
@@ -7893,24 +8004,25 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="2">
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="1">
         <v>0.0</v>
       </c>
       <c r="AH18" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI18" s="1"/>
+      <c r="AI18" s="2"/>
       <c r="AJ18" s="1">
         <v>0</v>
       </c>
       <c r="AK18" s="1">
         <v>0</v>
       </c>
-      <c r="AL18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM18"/>
+      <c r="AL18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="2"/>
       <c r="AO18"/>
     </row>
     <row r="19" spans="1:41">
@@ -7945,8 +8057,12 @@
       <c r="M19" s="8">
         <v>1500000.0</v>
       </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="9"/>
+      <c r="N19" s="8">
+        <v>3300.0</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0.22</v>
+      </c>
       <c r="P19" s="8">
         <v>3000000.0</v>
       </c>
@@ -7991,14 +8107,14 @@
       <c r="AE19" s="8">
         <v>0</v>
       </c>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="9">
-        <v>0.0</v>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="8">
+        <v>0</v>
       </c>
       <c r="AH19" s="8">
         <v>0.0</v>
       </c>
-      <c r="AI19" s="8">
+      <c r="AI19" s="9">
         <v>0.5</v>
       </c>
       <c r="AJ19" s="8">
@@ -8007,14 +8123,14 @@
       <c r="AK19" s="8">
         <v>1125000.0</v>
       </c>
-      <c r="AL19" s="9">
+      <c r="AL19" s="8">
         <v>2985000.0</v>
       </c>
-      <c r="AM19" s="7"/>
-      <c r="AN19">
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="9">
         <v>0.92</v>
       </c>
-      <c r="AO19" t="s">
+      <c r="AO19" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8050,8 +8166,12 @@
       <c r="M20" s="1">
         <v>1500000.0</v>
       </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="2"/>
+      <c r="N20" s="1">
+        <v>3300.0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P20" s="6">
         <v>3000000.0</v>
       </c>
@@ -8096,14 +8216,14 @@
       <c r="AE20" s="1">
         <v>0</v>
       </c>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="2">
-        <v>0.0</v>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="1">
+        <v>0</v>
       </c>
       <c r="AH20" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI20" s="1">
+      <c r="AI20" s="2">
         <v>0.5</v>
       </c>
       <c r="AJ20" s="1">
@@ -8112,11 +8232,11 @@
       <c r="AK20" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AL20" s="2">
+      <c r="AL20" s="1">
         <v>-15000.0</v>
       </c>
-      <c r="AM20"/>
-      <c r="AN20">
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="2">
         <v>0.06</v>
       </c>
       <c r="AO20" t="s">
@@ -8155,8 +8275,12 @@
       <c r="M21" s="1">
         <v>1500000.0</v>
       </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="2"/>
+      <c r="N21" s="1">
+        <v>3300.0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P21" s="6">
         <v>3000000.0</v>
       </c>
@@ -8201,14 +8325,14 @@
       <c r="AE21" s="1">
         <v>0</v>
       </c>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="2">
-        <v>0.0</v>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="1">
+        <v>0</v>
       </c>
       <c r="AH21" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AI21" s="2">
         <v>0.5</v>
       </c>
       <c r="AJ21" s="1">
@@ -8217,11 +8341,11 @@
       <c r="AK21" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AL21" s="2">
+      <c r="AL21" s="1">
         <v>-15000.0</v>
       </c>
-      <c r="AM21"/>
-      <c r="AN21">
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="2">
         <v>0.06</v>
       </c>
       <c r="AO21" t="s">
@@ -8260,8 +8384,12 @@
       <c r="M22" s="1">
         <v>1500000.0</v>
       </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="2"/>
+      <c r="N22" s="1">
+        <v>3300.0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P22" s="6">
         <v>3000000.0</v>
       </c>
@@ -8306,14 +8434,14 @@
       <c r="AE22" s="1">
         <v>0</v>
       </c>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="2">
-        <v>0.0</v>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="1">
+        <v>0</v>
       </c>
       <c r="AH22" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI22" s="1">
+      <c r="AI22" s="2">
         <v>0.5</v>
       </c>
       <c r="AJ22" s="1">
@@ -8322,11 +8450,11 @@
       <c r="AK22" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AL22" s="2">
+      <c r="AL22" s="1">
         <v>-15000.0</v>
       </c>
-      <c r="AM22"/>
-      <c r="AN22">
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="2">
         <v>0.06</v>
       </c>
       <c r="AO22" t="s">
@@ -8365,8 +8493,12 @@
       <c r="M23" s="1">
         <v>1500000.0</v>
       </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="2"/>
+      <c r="N23" s="1">
+        <v>3300.0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P23" s="6">
         <v>3000000.0</v>
       </c>
@@ -8411,14 +8543,14 @@
       <c r="AE23" s="1">
         <v>0</v>
       </c>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="2">
-        <v>0.0</v>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="1">
+        <v>0</v>
       </c>
       <c r="AH23" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI23" s="1">
+      <c r="AI23" s="2">
         <v>0.5</v>
       </c>
       <c r="AJ23" s="1">
@@ -8427,11 +8559,11 @@
       <c r="AK23" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AL23" s="2">
+      <c r="AL23" s="1">
         <v>-15000.0</v>
       </c>
-      <c r="AM23"/>
-      <c r="AN23">
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="2">
         <v>0.06</v>
       </c>
       <c r="AO23" t="s">
@@ -8470,8 +8602,12 @@
       <c r="M24" s="1">
         <v>1500000.0</v>
       </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="2"/>
+      <c r="N24" s="1">
+        <v>3300.0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P24" s="6">
         <v>3000000.0</v>
       </c>
@@ -8516,14 +8652,14 @@
       <c r="AE24" s="1">
         <v>0</v>
       </c>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="2">
-        <v>0.0</v>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="1">
+        <v>0</v>
       </c>
       <c r="AH24" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI24" s="1">
+      <c r="AI24" s="2">
         <v>0.5</v>
       </c>
       <c r="AJ24" s="1">
@@ -8532,11 +8668,11 @@
       <c r="AK24" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AL24" s="2">
+      <c r="AL24" s="1">
         <v>-15000.0</v>
       </c>
-      <c r="AM24"/>
-      <c r="AN24">
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="2">
         <v>0.06</v>
       </c>
       <c r="AO24" t="s">
@@ -8575,8 +8711,12 @@
       <c r="M25" s="1">
         <v>1500000.0</v>
       </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="2"/>
+      <c r="N25" s="1">
+        <v>3300.0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P25" s="6">
         <v>3000000.0</v>
       </c>
@@ -8621,14 +8761,14 @@
       <c r="AE25" s="1">
         <v>0</v>
       </c>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="2">
-        <v>0.0</v>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="1">
+        <v>0</v>
       </c>
       <c r="AH25" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AI25" s="2">
         <v>0.5</v>
       </c>
       <c r="AJ25" s="1">
@@ -8637,11 +8777,11 @@
       <c r="AK25" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AL25" s="2">
+      <c r="AL25" s="1">
         <v>-15000.0</v>
       </c>
-      <c r="AM25"/>
-      <c r="AN25">
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="2">
         <v>0.06</v>
       </c>
       <c r="AO25" t="s">
@@ -8680,8 +8820,12 @@
       <c r="M26" s="1">
         <v>1500000.0</v>
       </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="2"/>
+      <c r="N26" s="1">
+        <v>3300.0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P26" s="6">
         <v>3000000.0</v>
       </c>
@@ -8726,14 +8870,14 @@
       <c r="AE26" s="1">
         <v>0</v>
       </c>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="2">
-        <v>0.0</v>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="1">
+        <v>0</v>
       </c>
       <c r="AH26" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI26" s="1">
+      <c r="AI26" s="2">
         <v>0.5</v>
       </c>
       <c r="AJ26" s="1">
@@ -8742,11 +8886,11 @@
       <c r="AK26" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AL26" s="2">
+      <c r="AL26" s="1">
         <v>-15000.0</v>
       </c>
-      <c r="AM26"/>
-      <c r="AN26">
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="2">
         <v>0.06</v>
       </c>
       <c r="AO26" t="s">
@@ -8785,8 +8929,12 @@
       <c r="M27" s="1">
         <v>1500000.0</v>
       </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="2"/>
+      <c r="N27" s="1">
+        <v>3300.0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P27" s="6">
         <v>3000000.0</v>
       </c>
@@ -8831,14 +8979,14 @@
       <c r="AE27" s="1">
         <v>0</v>
       </c>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="2">
-        <v>0.0</v>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="1">
+        <v>0</v>
       </c>
       <c r="AH27" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI27" s="1">
+      <c r="AI27" s="2">
         <v>0.5</v>
       </c>
       <c r="AJ27" s="1">
@@ -8847,11 +8995,11 @@
       <c r="AK27" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AL27" s="2">
+      <c r="AL27" s="1">
         <v>-15000.0</v>
       </c>
-      <c r="AM27"/>
-      <c r="AN27">
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="2">
         <v>0.06</v>
       </c>
       <c r="AO27" t="s">
@@ -8890,8 +9038,12 @@
       <c r="M28" s="1">
         <v>1500000.0</v>
       </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="2"/>
+      <c r="N28" s="1">
+        <v>3300.0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P28" s="6">
         <v>3000000.0</v>
       </c>
@@ -8936,14 +9088,14 @@
       <c r="AE28" s="1">
         <v>0</v>
       </c>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="2">
-        <v>0.0</v>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="1">
+        <v>0</v>
       </c>
       <c r="AH28" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI28" s="1">
+      <c r="AI28" s="2">
         <v>0.5</v>
       </c>
       <c r="AJ28" s="1">
@@ -8952,11 +9104,11 @@
       <c r="AK28" s="1">
         <v>1125000.0</v>
       </c>
-      <c r="AL28" s="2">
+      <c r="AL28" s="1">
         <v>-15000.0</v>
       </c>
-      <c r="AM28"/>
-      <c r="AN28">
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="2">
         <v>0.06</v>
       </c>
       <c r="AO28" t="s">
@@ -8995,8 +9147,12 @@
       <c r="M29" s="1">
         <v>1356627.0</v>
       </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="2"/>
+      <c r="N29" s="1">
+        <v>3300.0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P29" s="6">
         <v>3000000.0</v>
       </c>
@@ -9041,14 +9197,14 @@
       <c r="AE29" s="1">
         <v>0</v>
       </c>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="2">
-        <v>0.0</v>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="1">
+        <v>0</v>
       </c>
       <c r="AH29" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI29" s="1">
+      <c r="AI29" s="2">
         <v>0.452209</v>
       </c>
       <c r="AJ29" s="1">
@@ -9057,11 +9213,11 @@
       <c r="AK29" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AL29" s="2">
+      <c r="AL29" s="1">
         <v>-15000.0</v>
       </c>
-      <c r="AM29"/>
-      <c r="AN29">
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="2">
         <v>0.06</v>
       </c>
       <c r="AO29" t="s">
@@ -9100,8 +9256,12 @@
       <c r="M30" s="1">
         <v>1211820.0</v>
       </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="2"/>
+      <c r="N30" s="1">
+        <v>2984.52</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P30" s="6">
         <v>3000000.0</v>
       </c>
@@ -9146,14 +9306,14 @@
       <c r="AE30" s="1">
         <v>0</v>
       </c>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="2">
-        <v>0.0</v>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="1">
+        <v>0</v>
       </c>
       <c r="AH30" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI30" s="1">
+      <c r="AI30" s="2">
         <v>0.40394</v>
       </c>
       <c r="AJ30" s="1">
@@ -9162,11 +9322,11 @@
       <c r="AK30" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AL30" s="2">
+      <c r="AL30" s="1">
         <v>-13566.0</v>
       </c>
-      <c r="AM30"/>
-      <c r="AN30">
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="2">
         <v>0.05</v>
       </c>
       <c r="AO30" t="s">
@@ -9205,8 +9365,12 @@
       <c r="M31" s="1">
         <v>1065565.0</v>
       </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="2"/>
+      <c r="N31" s="1">
+        <v>2665.96</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P31" s="6">
         <v>3000000.0</v>
       </c>
@@ -9251,14 +9415,14 @@
       <c r="AE31" s="1">
         <v>0</v>
       </c>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="2">
-        <v>0.0</v>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="1">
+        <v>0</v>
       </c>
       <c r="AH31" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI31" s="1">
+      <c r="AI31" s="2">
         <v>0.35518833333333</v>
       </c>
       <c r="AJ31" s="1">
@@ -9267,11 +9431,11 @@
       <c r="AK31" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AL31" s="2">
+      <c r="AL31" s="1">
         <v>-12118.0</v>
       </c>
-      <c r="AM31"/>
-      <c r="AN31">
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="2">
         <v>0.05</v>
       </c>
       <c r="AO31" t="s">
@@ -9310,8 +9474,12 @@
       <c r="M32" s="1">
         <v>917848.0</v>
       </c>
-      <c r="N32" s="1"/>
-      <c r="O32" s="2"/>
+      <c r="N32" s="1">
+        <v>2344.32</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P32" s="6">
         <v>3000000.0</v>
       </c>
@@ -9356,14 +9524,14 @@
       <c r="AE32" s="1">
         <v>0</v>
       </c>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="2">
-        <v>0.0</v>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="1">
+        <v>0</v>
       </c>
       <c r="AH32" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI32" s="1">
+      <c r="AI32" s="2">
         <v>0.30594933333333</v>
       </c>
       <c r="AJ32" s="1">
@@ -9372,11 +9540,11 @@
       <c r="AK32" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AL32" s="2">
+      <c r="AL32" s="1">
         <v>-10656.0</v>
       </c>
-      <c r="AM32"/>
-      <c r="AN32">
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="2">
         <v>0.04</v>
       </c>
       <c r="AO32" t="s">
@@ -9415,8 +9583,12 @@
       <c r="M33" s="1">
         <v>768653.0</v>
       </c>
-      <c r="N33" s="1"/>
-      <c r="O33" s="2"/>
+      <c r="N33" s="1">
+        <v>2019.16</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P33" s="6">
         <v>3000000.0</v>
       </c>
@@ -9461,14 +9633,14 @@
       <c r="AE33" s="1">
         <v>0</v>
       </c>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="2">
-        <v>0.0</v>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="1">
+        <v>0</v>
       </c>
       <c r="AH33" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI33" s="1">
+      <c r="AI33" s="2">
         <v>0.25621766666667</v>
       </c>
       <c r="AJ33" s="1">
@@ -9477,11 +9649,11 @@
       <c r="AK33" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AL33" s="2">
+      <c r="AL33" s="1">
         <v>-9178.0</v>
       </c>
-      <c r="AM33"/>
-      <c r="AN33">
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="2">
         <v>0.03</v>
       </c>
       <c r="AO33" t="s">
@@ -9520,8 +9692,12 @@
       <c r="M34" s="1">
         <v>617966.0</v>
       </c>
-      <c r="N34" s="1"/>
-      <c r="O34" s="2"/>
+      <c r="N34" s="1">
+        <v>1691.14</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P34" s="6">
         <v>3000000.0</v>
       </c>
@@ -9566,14 +9742,14 @@
       <c r="AE34" s="1">
         <v>0</v>
       </c>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="2">
-        <v>0.0</v>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="1">
+        <v>0</v>
       </c>
       <c r="AH34" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI34" s="1">
+      <c r="AI34" s="2">
         <v>0.20598866666667</v>
       </c>
       <c r="AJ34" s="1">
@@ -9582,11 +9758,11 @@
       <c r="AK34" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AL34" s="2">
+      <c r="AL34" s="1">
         <v>-7687.0</v>
       </c>
-      <c r="AM34"/>
-      <c r="AN34">
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="2">
         <v>0.03</v>
       </c>
       <c r="AO34" t="s">
@@ -9625,8 +9801,12 @@
       <c r="M35" s="1">
         <v>465773.0</v>
       </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="2"/>
+      <c r="N35" s="1">
+        <v>1359.6</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P35" s="6">
         <v>3000000.0</v>
       </c>
@@ -9671,14 +9851,14 @@
       <c r="AE35" s="1">
         <v>0</v>
       </c>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="2">
-        <v>0.0</v>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="1">
+        <v>0</v>
       </c>
       <c r="AH35" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI35" s="1">
+      <c r="AI35" s="2">
         <v>0.15525766666667</v>
       </c>
       <c r="AJ35" s="1">
@@ -9687,11 +9867,11 @@
       <c r="AK35" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AL35" s="2">
+      <c r="AL35" s="1">
         <v>-6180.0</v>
       </c>
-      <c r="AM35"/>
-      <c r="AN35">
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="2">
         <v>0.02</v>
       </c>
       <c r="AO35" t="s">
@@ -9730,8 +9910,12 @@
       <c r="M36" s="1">
         <v>312058.0</v>
       </c>
-      <c r="N36" s="1"/>
-      <c r="O36" s="2"/>
+      <c r="N36" s="1">
+        <v>1024.76</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P36" s="6">
         <v>3000000.0</v>
       </c>
@@ -9776,14 +9960,14 @@
       <c r="AE36" s="1">
         <v>0</v>
       </c>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="2">
-        <v>0.0</v>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="1">
+        <v>0</v>
       </c>
       <c r="AH36" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI36" s="1">
+      <c r="AI36" s="2">
         <v>0.10401933333333</v>
       </c>
       <c r="AJ36" s="1">
@@ -9792,11 +9976,11 @@
       <c r="AK36" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AL36" s="2">
+      <c r="AL36" s="1">
         <v>-4658.0</v>
       </c>
-      <c r="AM36"/>
-      <c r="AN36">
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="2">
         <v>0.01</v>
       </c>
       <c r="AO36" t="s">
@@ -9835,8 +10019,12 @@
       <c r="M37" s="1">
         <v>156805.0</v>
       </c>
-      <c r="N37" s="1"/>
-      <c r="O37" s="2"/>
+      <c r="N37" s="1">
+        <v>686.62</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P37" s="6">
         <v>3000000.0</v>
       </c>
@@ -9881,14 +10069,14 @@
       <c r="AE37" s="1">
         <v>0</v>
       </c>
-      <c r="AF37" s="1"/>
-      <c r="AG37" s="2">
-        <v>0.0</v>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="1">
+        <v>0</v>
       </c>
       <c r="AH37" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI37" s="1">
+      <c r="AI37" s="2">
         <v>0.052268333333333</v>
       </c>
       <c r="AJ37" s="1">
@@ -9897,11 +10085,11 @@
       <c r="AK37" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AL37" s="2">
+      <c r="AL37" s="1">
         <v>-3121.0</v>
       </c>
-      <c r="AM37"/>
-      <c r="AN37">
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="2">
         <v>0.01</v>
       </c>
       <c r="AO37" t="s">
@@ -9940,8 +10128,12 @@
       <c r="M38" s="1">
         <v>0.0</v>
       </c>
-      <c r="N38" s="1"/>
-      <c r="O38" s="2"/>
+      <c r="N38" s="1">
+        <v>344.96</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0.22</v>
+      </c>
       <c r="P38" s="6">
         <v>3000000.0</v>
       </c>
@@ -9986,25 +10178,25 @@
       <c r="AE38" s="1">
         <v>0</v>
       </c>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="2">
-        <v>0.0</v>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="1">
+        <v>0</v>
       </c>
       <c r="AH38" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI38" s="1"/>
+      <c r="AI38" s="2"/>
       <c r="AJ38" s="1">
         <v>81627.0</v>
       </c>
       <c r="AK38" s="1">
         <v>408135.0</v>
       </c>
-      <c r="AL38" s="2">
+      <c r="AL38" s="1">
         <v>-1568.0</v>
       </c>
-      <c r="AM38"/>
-      <c r="AN38">
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="2">
         <v>0</v>
       </c>
       <c r="AO38" t="s">
@@ -10079,24 +10271,25 @@
       <c r="AE39" s="1">
         <v>0</v>
       </c>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="2">
-        <v>0.0</v>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="1">
+        <v>0</v>
       </c>
       <c r="AH39" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI39" s="1"/>
+      <c r="AI39" s="2"/>
       <c r="AJ39" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK39" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL39" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AM39"/>
+      <c r="AL39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="2"/>
       <c r="AO39" t="s">
         <v>50</v>
       </c>
@@ -10169,25 +10362,26 @@
       <c r="AE40" s="11">
         <v>0</v>
       </c>
-      <c r="AF40" s="11"/>
-      <c r="AG40" s="12">
-        <v>0.0</v>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="11">
+        <v>0</v>
       </c>
       <c r="AH40" s="11">
         <v>0.0</v>
       </c>
-      <c r="AI40" s="11"/>
+      <c r="AI40" s="12"/>
       <c r="AJ40" s="11">
         <v>240000.0</v>
       </c>
       <c r="AK40" s="11">
         <v>1200000.0</v>
       </c>
-      <c r="AL40" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="AM40" s="10"/>
-      <c r="AO40" t="s">
+      <c r="AL40" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="AM40" s="11"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -10259,24 +10453,25 @@
       <c r="AE41" s="1">
         <v>0</v>
       </c>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="2">
-        <v>0.0</v>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="1">
+        <v>0</v>
       </c>
       <c r="AH41" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI41" s="1"/>
+      <c r="AI41" s="2"/>
       <c r="AJ41" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK41" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL41" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AM41"/>
+      <c r="AL41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="2"/>
       <c r="AO41" t="s">
         <v>50</v>
       </c>
@@ -10349,24 +10544,25 @@
       <c r="AE42" s="1">
         <v>0</v>
       </c>
-      <c r="AF42" s="1"/>
-      <c r="AG42" s="2">
-        <v>0.0</v>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="1">
+        <v>0</v>
       </c>
       <c r="AH42" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI42" s="1"/>
+      <c r="AI42" s="2"/>
       <c r="AJ42" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK42" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL42" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AM42"/>
+      <c r="AL42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="2"/>
       <c r="AO42" t="s">
         <v>50</v>
       </c>
@@ -10439,24 +10635,25 @@
       <c r="AE43" s="1">
         <v>0</v>
       </c>
-      <c r="AF43" s="1"/>
-      <c r="AG43" s="2">
-        <v>0.0</v>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="1">
+        <v>0</v>
       </c>
       <c r="AH43" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI43" s="1"/>
+      <c r="AI43" s="2"/>
       <c r="AJ43" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK43" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL43" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AM43"/>
+      <c r="AL43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="2"/>
       <c r="AO43" t="s">
         <v>50</v>
       </c>
@@ -10529,24 +10726,25 @@
       <c r="AE44" s="1">
         <v>0</v>
       </c>
-      <c r="AF44" s="1"/>
-      <c r="AG44" s="2">
-        <v>0.0</v>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="1">
+        <v>0</v>
       </c>
       <c r="AH44" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI44" s="1"/>
+      <c r="AI44" s="2"/>
       <c r="AJ44" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK44" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL44" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AM44"/>
+      <c r="AL44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="2"/>
       <c r="AO44" t="s">
         <v>50</v>
       </c>
@@ -10619,24 +10817,25 @@
       <c r="AE45" s="1">
         <v>0</v>
       </c>
-      <c r="AF45" s="1"/>
-      <c r="AG45" s="2">
-        <v>0.0</v>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="1">
+        <v>0</v>
       </c>
       <c r="AH45" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI45" s="1"/>
+      <c r="AI45" s="2"/>
       <c r="AJ45" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK45" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL45" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AM45"/>
+      <c r="AL45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="2"/>
       <c r="AO45" t="s">
         <v>50</v>
       </c>
@@ -10709,24 +10908,25 @@
       <c r="AE46" s="1">
         <v>0</v>
       </c>
-      <c r="AF46" s="1"/>
-      <c r="AG46" s="2">
-        <v>0.0</v>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="1">
+        <v>0</v>
       </c>
       <c r="AH46" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI46" s="1"/>
+      <c r="AI46" s="2"/>
       <c r="AJ46" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK46" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL46" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AM46"/>
+      <c r="AL46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="2"/>
       <c r="AO46" t="s">
         <v>50</v>
       </c>
@@ -10799,24 +10999,25 @@
       <c r="AE47" s="1">
         <v>0</v>
       </c>
-      <c r="AF47" s="1"/>
-      <c r="AG47" s="2">
-        <v>0.0</v>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="1">
+        <v>0</v>
       </c>
       <c r="AH47" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI47" s="1"/>
+      <c r="AI47" s="2"/>
       <c r="AJ47" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK47" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL47" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AM47"/>
+      <c r="AL47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="2"/>
       <c r="AO47" t="s">
         <v>50</v>
       </c>
@@ -10889,24 +11090,25 @@
       <c r="AE48" s="1">
         <v>0</v>
       </c>
-      <c r="AF48" s="1"/>
-      <c r="AG48" s="2">
-        <v>0.0</v>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="1">
+        <v>0</v>
       </c>
       <c r="AH48" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI48" s="1"/>
+      <c r="AI48" s="2"/>
       <c r="AJ48" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK48" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL48" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AM48"/>
+      <c r="AL48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="2"/>
       <c r="AO48" t="s">
         <v>50</v>
       </c>
@@ -10979,24 +11181,25 @@
       <c r="AE49" s="1">
         <v>0</v>
       </c>
-      <c r="AF49" s="1"/>
-      <c r="AG49" s="2">
-        <v>0.0</v>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="1">
+        <v>0</v>
       </c>
       <c r="AH49" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI49" s="1"/>
+      <c r="AI49" s="2"/>
       <c r="AJ49" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK49" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL49" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AM49"/>
+      <c r="AL49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="2"/>
       <c r="AO49" t="s">
         <v>50</v>
       </c>
@@ -11069,24 +11272,25 @@
       <c r="AE50" s="1">
         <v>0</v>
       </c>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="2">
-        <v>0.0</v>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="1">
+        <v>0</v>
       </c>
       <c r="AH50" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI50" s="1"/>
+      <c r="AI50" s="2"/>
       <c r="AJ50" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK50" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL50" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AM50"/>
+      <c r="AL50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="2"/>
       <c r="AO50" t="s">
         <v>50</v>
       </c>
@@ -11159,24 +11363,25 @@
       <c r="AE51" s="1">
         <v>0</v>
       </c>
-      <c r="AF51" s="1"/>
-      <c r="AG51" s="2">
-        <v>0.0</v>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="1">
+        <v>0</v>
       </c>
       <c r="AH51" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI51" s="1"/>
+      <c r="AI51" s="2"/>
       <c r="AJ51" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK51" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL51" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AM51"/>
+      <c r="AL51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="2"/>
       <c r="AO51" t="s">
         <v>50</v>
       </c>
@@ -11249,24 +11454,25 @@
       <c r="AE52" s="1">
         <v>0</v>
       </c>
-      <c r="AF52" s="1"/>
-      <c r="AG52" s="2">
-        <v>0.0</v>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="1">
+        <v>0</v>
       </c>
       <c r="AH52" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI52" s="1"/>
+      <c r="AI52" s="2"/>
       <c r="AJ52" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK52" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL52" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AM52"/>
+      <c r="AL52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="2"/>
       <c r="AO52" t="s">
         <v>50</v>
       </c>
@@ -11339,25 +11545,26 @@
       <c r="AE53" s="13">
         <v>0</v>
       </c>
-      <c r="AF53" s="13"/>
-      <c r="AG53" s="14">
-        <v>0.0</v>
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="13">
+        <v>0</v>
       </c>
       <c r="AH53" s="13">
         <v>0.0</v>
       </c>
-      <c r="AI53" s="13"/>
+      <c r="AI53" s="14"/>
       <c r="AJ53" s="13">
         <v>240000.0</v>
       </c>
       <c r="AK53" s="13">
         <v>1200000.0</v>
       </c>
-      <c r="AL53" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="AM53" s="3"/>
-      <c r="AO53" t="s">
+      <c r="AL53" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AM53" s="13"/>
+      <c r="AN53" s="14"/>
+      <c r="AO53" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -11429,24 +11636,25 @@
       <c r="AE54" s="1">
         <v>0</v>
       </c>
-      <c r="AF54" s="1"/>
-      <c r="AG54" s="2">
-        <v>0.0</v>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="1">
+        <v>0</v>
       </c>
       <c r="AH54" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI54" s="1"/>
+      <c r="AI54" s="2"/>
       <c r="AJ54" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK54" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL54" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AM54"/>
+      <c r="AL54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="2"/>
       <c r="AO54" t="s">
         <v>50</v>
       </c>
@@ -11519,24 +11727,25 @@
       <c r="AE55" s="1">
         <v>0</v>
       </c>
-      <c r="AF55" s="1"/>
-      <c r="AG55" s="2">
-        <v>0.0</v>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="1">
+        <v>0</v>
       </c>
       <c r="AH55" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI55" s="1"/>
+      <c r="AI55" s="2"/>
       <c r="AJ55" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK55" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL55" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AM55"/>
+      <c r="AL55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="2"/>
       <c r="AO55" t="s">
         <v>50</v>
       </c>
@@ -11609,24 +11818,25 @@
       <c r="AE56" s="1">
         <v>0</v>
       </c>
-      <c r="AF56" s="1"/>
-      <c r="AG56" s="2">
-        <v>0.0</v>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="1">
+        <v>0</v>
       </c>
       <c r="AH56" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI56" s="1"/>
+      <c r="AI56" s="2"/>
       <c r="AJ56" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK56" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL56" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AM56"/>
+      <c r="AL56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="2"/>
       <c r="AO56" t="s">
         <v>50</v>
       </c>
@@ -11699,25 +11909,26 @@
       <c r="AE57" s="13">
         <v>0</v>
       </c>
-      <c r="AF57" s="13"/>
-      <c r="AG57" s="14">
-        <v>0.0</v>
+      <c r="AF57" s="14"/>
+      <c r="AG57" s="13">
+        <v>0</v>
       </c>
       <c r="AH57" s="13">
         <v>0.0</v>
       </c>
-      <c r="AI57" s="13"/>
+      <c r="AI57" s="14"/>
       <c r="AJ57" s="13">
         <v>240000.0</v>
       </c>
       <c r="AK57" s="13">
         <v>1200000.0</v>
       </c>
-      <c r="AL57" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="AM57" s="3"/>
-      <c r="AO57" t="s">
+      <c r="AL57" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AM57" s="13"/>
+      <c r="AN57" s="14"/>
+      <c r="AO57" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -11789,24 +12000,25 @@
       <c r="AE58" s="1">
         <v>0</v>
       </c>
-      <c r="AF58" s="1"/>
-      <c r="AG58" s="2">
-        <v>0.0</v>
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="1">
+        <v>0</v>
       </c>
       <c r="AH58" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI58" s="1"/>
+      <c r="AI58" s="2"/>
       <c r="AJ58" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK58" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL58" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AM58"/>
+      <c r="AL58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="2"/>
       <c r="AO58" t="s">
         <v>50</v>
       </c>
@@ -11879,24 +12091,25 @@
       <c r="AE59" s="1">
         <v>0</v>
       </c>
-      <c r="AF59" s="1"/>
-      <c r="AG59" s="2">
-        <v>0.0</v>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="1">
+        <v>0</v>
       </c>
       <c r="AH59" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI59" s="1"/>
+      <c r="AI59" s="2"/>
       <c r="AJ59" s="1">
         <v>240000.0</v>
       </c>
       <c r="AK59" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="AL59" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AM59"/>
+      <c r="AL59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="2"/>
       <c r="AO59" t="s">
         <v>50</v>
       </c>
@@ -11969,25 +12182,26 @@
       <c r="AE60" s="5">
         <v>0</v>
       </c>
-      <c r="AF60" s="5"/>
-      <c r="AG60" s="16">
-        <v>0.0</v>
+      <c r="AF60" s="16"/>
+      <c r="AG60" s="5">
+        <v>0</v>
       </c>
       <c r="AH60" s="5">
         <v>0.0</v>
       </c>
-      <c r="AI60" s="5"/>
+      <c r="AI60" s="16"/>
       <c r="AJ60" s="5">
         <v>240000.0</v>
       </c>
       <c r="AK60" s="5">
         <v>1200000.0</v>
       </c>
-      <c r="AL60" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AM60" s="15"/>
-      <c r="AO60" t="s">
+      <c r="AL60" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AM60" s="5"/>
+      <c r="AN60" s="16"/>
+      <c r="AO60" s="15" t="s">
         <v>50</v>
       </c>
     </row>
@@ -12022,13 +12236,15 @@
       <c r="AC61" s="1"/>
       <c r="AD61" s="2"/>
       <c r="AE61" s="1"/>
-      <c r="AF61" s="1"/>
-      <c r="AG61" s="2"/>
+      <c r="AF61" s="2"/>
+      <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
-      <c r="AI61" s="1"/>
+      <c r="AI61" s="2"/>
       <c r="AJ61" s="1"/>
       <c r="AK61" s="1"/>
-      <c r="AL61" s="2"/>
+      <c r="AL61" s="1"/>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="2"/>
     </row>
     <row r="62" spans="1:41">
       <c r="B62" s="1"/>
@@ -12061,13 +12277,15 @@
       <c r="AC62" s="1"/>
       <c r="AD62" s="2"/>
       <c r="AE62" s="1"/>
-      <c r="AF62" s="1"/>
-      <c r="AG62" s="2"/>
+      <c r="AF62" s="2"/>
+      <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
-      <c r="AI62" s="1"/>
+      <c r="AI62" s="2"/>
       <c r="AJ62" s="1"/>
       <c r="AK62" s="1"/>
-      <c r="AL62" s="2"/>
+      <c r="AL62" s="1"/>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="2"/>
     </row>
     <row r="63" spans="1:41">
       <c r="B63" s="1"/>
@@ -12100,13 +12318,15 @@
       <c r="AC63" s="1"/>
       <c r="AD63" s="2"/>
       <c r="AE63" s="1"/>
-      <c r="AF63" s="1"/>
-      <c r="AG63" s="2"/>
+      <c r="AF63" s="2"/>
+      <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
-      <c r="AI63" s="1"/>
+      <c r="AI63" s="2"/>
       <c r="AJ63" s="1"/>
       <c r="AK63" s="1"/>
-      <c r="AL63" s="2"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="2"/>
     </row>
     <row r="64" spans="1:41">
       <c r="B64" s="1"/>
@@ -12139,13 +12359,15 @@
       <c r="AC64" s="1"/>
       <c r="AD64" s="2"/>
       <c r="AE64" s="1"/>
-      <c r="AF64" s="1"/>
-      <c r="AG64" s="2"/>
+      <c r="AF64" s="2"/>
+      <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
-      <c r="AI64" s="1"/>
+      <c r="AI64" s="2"/>
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
-      <c r="AL64" s="2"/>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="2"/>
     </row>
     <row r="65" spans="1:41">
       <c r="B65" s="1"/>
@@ -12178,13 +12400,15 @@
       <c r="AC65" s="1"/>
       <c r="AD65" s="2"/>
       <c r="AE65" s="1"/>
-      <c r="AF65" s="1"/>
-      <c r="AG65" s="2"/>
+      <c r="AF65" s="2"/>
+      <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
-      <c r="AI65" s="1"/>
+      <c r="AI65" s="2"/>
       <c r="AJ65" s="1"/>
       <c r="AK65" s="1"/>
-      <c r="AL65" s="2"/>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="2"/>
     </row>
     <row r="66" spans="1:41">
       <c r="B66" s="1"/>
@@ -12217,13 +12441,15 @@
       <c r="AC66" s="1"/>
       <c r="AD66" s="2"/>
       <c r="AE66" s="1"/>
-      <c r="AF66" s="1"/>
-      <c r="AG66" s="2"/>
+      <c r="AF66" s="2"/>
+      <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
-      <c r="AI66" s="1"/>
+      <c r="AI66" s="2"/>
       <c r="AJ66" s="1"/>
       <c r="AK66" s="1"/>
-      <c r="AL66" s="2"/>
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="2"/>
     </row>
     <row r="67" spans="1:41">
       <c r="B67" s="1"/>
@@ -12256,13 +12482,15 @@
       <c r="AC67" s="1"/>
       <c r="AD67" s="2"/>
       <c r="AE67" s="1"/>
-      <c r="AF67" s="1"/>
-      <c r="AG67" s="2"/>
+      <c r="AF67" s="2"/>
+      <c r="AG67" s="1"/>
       <c r="AH67" s="1"/>
-      <c r="AI67" s="1"/>
+      <c r="AI67" s="2"/>
       <c r="AJ67" s="1"/>
       <c r="AK67" s="1"/>
-      <c r="AL67" s="2"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="2"/>
     </row>
     <row r="68" spans="1:41">
       <c r="B68" s="1"/>
@@ -12295,13 +12523,15 @@
       <c r="AC68" s="1"/>
       <c r="AD68" s="2"/>
       <c r="AE68" s="1"/>
-      <c r="AF68" s="1"/>
-      <c r="AG68" s="2"/>
+      <c r="AF68" s="2"/>
+      <c r="AG68" s="1"/>
       <c r="AH68" s="1"/>
-      <c r="AI68" s="1"/>
+      <c r="AI68" s="2"/>
       <c r="AJ68" s="1"/>
       <c r="AK68" s="1"/>
-      <c r="AL68" s="2"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="2"/>
     </row>
     <row r="69" spans="1:41">
       <c r="B69" s="1"/>
@@ -12334,13 +12564,15 @@
       <c r="AC69" s="1"/>
       <c r="AD69" s="2"/>
       <c r="AE69" s="1"/>
-      <c r="AF69" s="1"/>
-      <c r="AG69" s="2"/>
+      <c r="AF69" s="2"/>
+      <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
-      <c r="AI69" s="1"/>
+      <c r="AI69" s="2"/>
       <c r="AJ69" s="1"/>
       <c r="AK69" s="1"/>
-      <c r="AL69" s="2"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="2"/>
     </row>
     <row r="70" spans="1:41">
       <c r="B70" s="1"/>
@@ -12373,13 +12605,15 @@
       <c r="AC70" s="1"/>
       <c r="AD70" s="2"/>
       <c r="AE70" s="1"/>
-      <c r="AF70" s="1"/>
-      <c r="AG70" s="2"/>
+      <c r="AF70" s="2"/>
+      <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
-      <c r="AI70" s="1"/>
+      <c r="AI70" s="2"/>
       <c r="AJ70" s="1"/>
       <c r="AK70" s="1"/>
-      <c r="AL70" s="2"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="2"/>
     </row>
     <row r="71" spans="1:41">
       <c r="B71" s="1"/>
@@ -12412,13 +12646,15 @@
       <c r="AC71" s="1"/>
       <c r="AD71" s="2"/>
       <c r="AE71" s="1"/>
-      <c r="AF71" s="1"/>
-      <c r="AG71" s="2"/>
+      <c r="AF71" s="2"/>
+      <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
-      <c r="AI71" s="1"/>
+      <c r="AI71" s="2"/>
       <c r="AJ71" s="1"/>
       <c r="AK71" s="1"/>
-      <c r="AL71" s="2"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="2"/>
     </row>
     <row r="72" spans="1:41">
       <c r="B72" s="1"/>
@@ -12451,13 +12687,15 @@
       <c r="AC72" s="1"/>
       <c r="AD72" s="2"/>
       <c r="AE72" s="1"/>
-      <c r="AF72" s="1"/>
-      <c r="AG72" s="2"/>
+      <c r="AF72" s="2"/>
+      <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
-      <c r="AI72" s="1"/>
+      <c r="AI72" s="2"/>
       <c r="AJ72" s="1"/>
       <c r="AK72" s="1"/>
-      <c r="AL72" s="2"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="2"/>
     </row>
     <row r="73" spans="1:41">
       <c r="B73" s="1"/>
@@ -12490,13 +12728,15 @@
       <c r="AC73" s="1"/>
       <c r="AD73" s="2"/>
       <c r="AE73" s="1"/>
-      <c r="AF73" s="1"/>
-      <c r="AG73" s="2"/>
+      <c r="AF73" s="2"/>
+      <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
-      <c r="AI73" s="1"/>
+      <c r="AI73" s="2"/>
       <c r="AJ73" s="1"/>
       <c r="AK73" s="1"/>
-      <c r="AL73" s="2"/>
+      <c r="AL73" s="1"/>
+      <c r="AM73" s="1"/>
+      <c r="AN73" s="2"/>
     </row>
     <row r="74" spans="1:41">
       <c r="B74" s="1"/>
@@ -12529,13 +12769,15 @@
       <c r="AC74" s="1"/>
       <c r="AD74" s="2"/>
       <c r="AE74" s="1"/>
-      <c r="AF74" s="1"/>
-      <c r="AG74" s="2"/>
+      <c r="AF74" s="2"/>
+      <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
-      <c r="AI74" s="1"/>
+      <c r="AI74" s="2"/>
       <c r="AJ74" s="1"/>
       <c r="AK74" s="1"/>
-      <c r="AL74" s="2"/>
+      <c r="AL74" s="1"/>
+      <c r="AM74" s="1"/>
+      <c r="AN74" s="2"/>
     </row>
     <row r="75" spans="1:41">
       <c r="B75" s="1"/>
@@ -12568,13 +12810,15 @@
       <c r="AC75" s="1"/>
       <c r="AD75" s="2"/>
       <c r="AE75" s="1"/>
-      <c r="AF75" s="1"/>
-      <c r="AG75" s="2"/>
+      <c r="AF75" s="2"/>
+      <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
-      <c r="AI75" s="1"/>
+      <c r="AI75" s="2"/>
       <c r="AJ75" s="1"/>
       <c r="AK75" s="1"/>
-      <c r="AL75" s="2"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AN75" s="2"/>
     </row>
     <row r="76" spans="1:41">
       <c r="B76" s="1"/>
@@ -12607,13 +12851,15 @@
       <c r="AC76" s="1"/>
       <c r="AD76" s="2"/>
       <c r="AE76" s="1"/>
-      <c r="AF76" s="1"/>
-      <c r="AG76" s="2"/>
+      <c r="AF76" s="2"/>
+      <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
-      <c r="AI76" s="1"/>
+      <c r="AI76" s="2"/>
       <c r="AJ76" s="1"/>
       <c r="AK76" s="1"/>
-      <c r="AL76" s="2"/>
+      <c r="AL76" s="1"/>
+      <c r="AM76" s="1"/>
+      <c r="AN76" s="2"/>
     </row>
     <row r="77" spans="1:41">
       <c r="B77" s="1"/>
@@ -12646,13 +12892,15 @@
       <c r="AC77" s="1"/>
       <c r="AD77" s="2"/>
       <c r="AE77" s="1"/>
-      <c r="AF77" s="1"/>
-      <c r="AG77" s="2"/>
+      <c r="AF77" s="2"/>
+      <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
-      <c r="AI77" s="1"/>
+      <c r="AI77" s="2"/>
       <c r="AJ77" s="1"/>
       <c r="AK77" s="1"/>
-      <c r="AL77" s="2"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AN77" s="2"/>
     </row>
     <row r="78" spans="1:41">
       <c r="B78" s="1"/>
@@ -12685,13 +12933,15 @@
       <c r="AC78" s="1"/>
       <c r="AD78" s="2"/>
       <c r="AE78" s="1"/>
-      <c r="AF78" s="1"/>
-      <c r="AG78" s="2"/>
+      <c r="AF78" s="2"/>
+      <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
-      <c r="AI78" s="1"/>
+      <c r="AI78" s="2"/>
       <c r="AJ78" s="1"/>
       <c r="AK78" s="1"/>
-      <c r="AL78" s="2"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="2"/>
     </row>
     <row r="79" spans="1:41">
       <c r="B79" s="1"/>
@@ -12724,13 +12974,15 @@
       <c r="AC79" s="1"/>
       <c r="AD79" s="2"/>
       <c r="AE79" s="1"/>
-      <c r="AF79" s="1"/>
-      <c r="AG79" s="2"/>
+      <c r="AF79" s="2"/>
+      <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
-      <c r="AI79" s="1"/>
+      <c r="AI79" s="2"/>
       <c r="AJ79" s="1"/>
       <c r="AK79" s="1"/>
-      <c r="AL79" s="2"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="2"/>
     </row>
     <row r="80" spans="1:41">
       <c r="B80" s="1"/>
@@ -12763,13 +13015,15 @@
       <c r="AC80" s="1"/>
       <c r="AD80" s="2"/>
       <c r="AE80" s="1"/>
-      <c r="AF80" s="1"/>
-      <c r="AG80" s="2"/>
+      <c r="AF80" s="2"/>
+      <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
-      <c r="AI80" s="1"/>
+      <c r="AI80" s="2"/>
       <c r="AJ80" s="1"/>
       <c r="AK80" s="1"/>
-      <c r="AL80" s="2"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -12795,7 +13049,7 @@
   <dimension ref="A1:AO80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A60" sqref="A60:AM60"/>
+      <selection activeCell="A60" sqref="A60:AO60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12832,10 +13086,12 @@
     <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="31" max="31" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="32" max="32" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="33" max="33" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="35" max="35" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="36" max="36" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="37" max="37" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="38" max="38" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
@@ -13029,10 +13285,10 @@
       <c r="AM5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AN5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AO5" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -13074,24 +13330,25 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="2">
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="1">
         <v>0.0</v>
       </c>
       <c r="AH6" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI6" s="1"/>
+      <c r="AI6" s="2"/>
       <c r="AJ6" s="1">
         <v>0</v>
       </c>
       <c r="AK6" s="1">
         <v>0</v>
       </c>
-      <c r="AL6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM6"/>
+      <c r="AL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="2"/>
       <c r="AO6"/>
     </row>
     <row r="7" spans="1:41">
@@ -13132,24 +13389,25 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="2">
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="1">
         <v>0.0</v>
       </c>
       <c r="AH7" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI7" s="1"/>
+      <c r="AI7" s="2"/>
       <c r="AJ7" s="1">
         <v>0</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
       </c>
-      <c r="AL7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM7"/>
+      <c r="AL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="2"/>
       <c r="AO7"/>
     </row>
     <row r="8" spans="1:41">
@@ -13190,24 +13448,25 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="2">
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="1">
         <v>0.0</v>
       </c>
       <c r="AH8" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI8" s="1"/>
+      <c r="AI8" s="2"/>
       <c r="AJ8" s="1">
         <v>0</v>
       </c>
       <c r="AK8" s="1">
         <v>0</v>
       </c>
-      <c r="AL8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM8"/>
+      <c r="AL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="2"/>
       <c r="AO8"/>
     </row>
     <row r="9" spans="1:41">
@@ -13248,24 +13507,25 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="2">
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="1">
         <v>0.0</v>
       </c>
       <c r="AH9" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI9" s="1"/>
+      <c r="AI9" s="2"/>
       <c r="AJ9" s="1">
         <v>0</v>
       </c>
       <c r="AK9" s="1">
         <v>0</v>
       </c>
-      <c r="AL9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM9"/>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="2"/>
       <c r="AO9"/>
     </row>
     <row r="10" spans="1:41">
@@ -13306,24 +13566,25 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="2">
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="1">
         <v>0.0</v>
       </c>
       <c r="AH10" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI10" s="1"/>
+      <c r="AI10" s="2"/>
       <c r="AJ10" s="1">
         <v>0</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
       </c>
-      <c r="AL10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM10"/>
+      <c r="AL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="2"/>
       <c r="AO10"/>
     </row>
     <row r="11" spans="1:41">
@@ -13364,24 +13625,25 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="2">
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="1">
         <v>0.0</v>
       </c>
       <c r="AH11" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI11" s="1"/>
+      <c r="AI11" s="2"/>
       <c r="AJ11" s="1">
         <v>0</v>
       </c>
       <c r="AK11" s="1">
         <v>0</v>
       </c>
-      <c r="AL11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM11"/>
+      <c r="AL11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="2"/>
       <c r="AO11"/>
     </row>
     <row r="12" spans="1:41">
@@ -13422,24 +13684,25 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="2">
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="1">
         <v>0.0</v>
       </c>
       <c r="AH12" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI12" s="1"/>
+      <c r="AI12" s="2"/>
       <c r="AJ12" s="1">
         <v>0</v>
       </c>
       <c r="AK12" s="1">
         <v>0</v>
       </c>
-      <c r="AL12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM12"/>
+      <c r="AL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="2"/>
       <c r="AO12"/>
     </row>
     <row r="13" spans="1:41">
@@ -13480,24 +13743,25 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="2">
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="1">
         <v>0.0</v>
       </c>
       <c r="AH13" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI13" s="1"/>
+      <c r="AI13" s="2"/>
       <c r="AJ13" s="1">
         <v>0</v>
       </c>
       <c r="AK13" s="1">
         <v>0</v>
       </c>
-      <c r="AL13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM13"/>
+      <c r="AL13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="2"/>
       <c r="AO13"/>
     </row>
     <row r="14" spans="1:41">
@@ -13538,24 +13802,25 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="2">
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="1">
         <v>0.0</v>
       </c>
       <c r="AH14" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI14" s="1"/>
+      <c r="AI14" s="2"/>
       <c r="AJ14" s="1">
         <v>0</v>
       </c>
       <c r="AK14" s="1">
         <v>0</v>
       </c>
-      <c r="AL14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM14"/>
+      <c r="AL14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="2"/>
       <c r="AO14"/>
     </row>
     <row r="15" spans="1:41">
@@ -13596,24 +13861,25 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="2">
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="1">
         <v>0.0</v>
       </c>
       <c r="AH15" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI15" s="1"/>
+      <c r="AI15" s="2"/>
       <c r="AJ15" s="1">
         <v>0</v>
       </c>
       <c r="AK15" s="1">
         <v>0</v>
       </c>
-      <c r="AL15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM15"/>
+      <c r="AL15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="2"/>
       <c r="AO15"/>
     </row>
     <row r="16" spans="1:41">
@@ -13654,24 +13920,25 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="2">
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="1">
         <v>0.0</v>
       </c>
       <c r="AH16" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI16" s="1"/>
+      <c r="AI16" s="2"/>
       <c r="AJ16" s="1">
         <v>0</v>
       </c>
       <c r="AK16" s="1">
         <v>0</v>
       </c>
-      <c r="AL16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM16"/>
+      <c r="AL16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="2"/>
       <c r="AO16"/>
     </row>
     <row r="17" spans="1:41">
@@ -13712,24 +13979,25 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="2">
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="1">
         <v>0.0</v>
       </c>
       <c r="AH17" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI17" s="1"/>
+      <c r="AI17" s="2"/>
       <c r="AJ17" s="1">
         <v>0</v>
       </c>
       <c r="AK17" s="1">
         <v>0</v>
       </c>
-      <c r="AL17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM17"/>
+      <c r="AL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="2"/>
       <c r="AO17"/>
     </row>
     <row r="18" spans="1:41">
@@ -13770,24 +14038,25 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="2">
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="1">
         <v>0.0</v>
       </c>
       <c r="AH18" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI18" s="1"/>
+      <c r="AI18" s="2"/>
       <c r="AJ18" s="1">
         <v>0</v>
       </c>
       <c r="AK18" s="1">
         <v>0</v>
       </c>
-      <c r="AL18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM18"/>
+      <c r="AL18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="2"/>
       <c r="AO18"/>
     </row>
     <row r="19" spans="1:41">
@@ -13850,30 +14119,32 @@
       </c>
       <c r="AD19" s="9"/>
       <c r="AE19" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="9">
+        <v>7097.6</v>
+      </c>
+      <c r="AF19" s="9">
+        <v>0.032</v>
+      </c>
+      <c r="AG19" s="8">
         <v>0.0</v>
       </c>
       <c r="AH19" s="8">
         <v>0.0</v>
       </c>
-      <c r="AI19" s="8"/>
+      <c r="AI19" s="9"/>
       <c r="AJ19" s="8">
         <v>0</v>
       </c>
       <c r="AK19" s="8">
         <v>0</v>
       </c>
-      <c r="AL19" s="9">
+      <c r="AL19" s="8">
         <v>221800.0</v>
       </c>
-      <c r="AM19" s="7"/>
-      <c r="AN19">
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="9">
         <v>1</v>
       </c>
-      <c r="AO19" t="s">
+      <c r="AO19" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -13937,27 +14208,29 @@
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="2">
+        <v>16834.8</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG20" s="1">
         <v>0.0</v>
       </c>
       <c r="AH20" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI20" s="1"/>
+      <c r="AI20" s="2"/>
       <c r="AJ20" s="1">
         <v>0</v>
       </c>
       <c r="AK20" s="1">
         <v>0</v>
       </c>
-      <c r="AL20" s="2">
+      <c r="AL20" s="1">
         <v>220800.0</v>
       </c>
-      <c r="AM20"/>
-      <c r="AN20">
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="2">
         <v>1</v>
       </c>
       <c r="AO20" t="s">
@@ -14024,27 +14297,29 @@
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="2">
+        <v>31429.6</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG21" s="1">
         <v>0.0</v>
       </c>
       <c r="AH21" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI21" s="1"/>
+      <c r="AI21" s="2"/>
       <c r="AJ21" s="1">
         <v>0</v>
       </c>
       <c r="AK21" s="1">
         <v>0</v>
       </c>
-      <c r="AL21" s="2">
+      <c r="AL21" s="1">
         <v>220800.0</v>
       </c>
-      <c r="AM21"/>
-      <c r="AN21">
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="2">
         <v>1</v>
       </c>
       <c r="AO21" t="s">
@@ -14111,27 +14386,29 @@
       </c>
       <c r="AD22" s="2"/>
       <c r="AE22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="2">
+        <v>50882.0</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG22" s="1">
         <v>0.0</v>
       </c>
       <c r="AH22" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI22" s="1"/>
+      <c r="AI22" s="2"/>
       <c r="AJ22" s="1">
         <v>0</v>
       </c>
       <c r="AK22" s="1">
         <v>0</v>
       </c>
-      <c r="AL22" s="2">
+      <c r="AL22" s="1">
         <v>220800.0</v>
       </c>
-      <c r="AM22"/>
-      <c r="AN22">
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="2">
         <v>1</v>
       </c>
       <c r="AO22" t="s">
@@ -14198,27 +14475,29 @@
       </c>
       <c r="AD23" s="2"/>
       <c r="AE23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="2">
+        <v>75192.0</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG23" s="1">
         <v>0.0</v>
       </c>
       <c r="AH23" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI23" s="1"/>
+      <c r="AI23" s="2"/>
       <c r="AJ23" s="1">
         <v>0</v>
       </c>
       <c r="AK23" s="1">
         <v>0</v>
       </c>
-      <c r="AL23" s="2">
+      <c r="AL23" s="1">
         <v>220800.0</v>
       </c>
-      <c r="AM23"/>
-      <c r="AN23">
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="2">
         <v>1</v>
       </c>
       <c r="AO23" t="s">
@@ -14285,27 +14564,29 @@
       </c>
       <c r="AD24" s="2"/>
       <c r="AE24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="2">
+        <v>104359.6</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG24" s="1">
         <v>0.0</v>
       </c>
       <c r="AH24" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI24" s="1"/>
+      <c r="AI24" s="2"/>
       <c r="AJ24" s="1">
         <v>0</v>
       </c>
       <c r="AK24" s="1">
         <v>0</v>
       </c>
-      <c r="AL24" s="2">
+      <c r="AL24" s="1">
         <v>220800.0</v>
       </c>
-      <c r="AM24"/>
-      <c r="AN24">
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="2">
         <v>1</v>
       </c>
       <c r="AO24" t="s">
@@ -14372,27 +14653,29 @@
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="2">
+        <v>138384.8</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG25" s="1">
         <v>0.0</v>
       </c>
       <c r="AH25" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI25" s="1"/>
+      <c r="AI25" s="2"/>
       <c r="AJ25" s="1">
         <v>0</v>
       </c>
       <c r="AK25" s="1">
         <v>0</v>
       </c>
-      <c r="AL25" s="2">
+      <c r="AL25" s="1">
         <v>220800.0</v>
       </c>
-      <c r="AM25"/>
-      <c r="AN25">
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="2">
         <v>1</v>
       </c>
       <c r="AO25" t="s">
@@ -14459,27 +14742,29 @@
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="2">
+        <v>177267.6</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG26" s="1">
         <v>0.0</v>
       </c>
       <c r="AH26" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI26" s="1"/>
+      <c r="AI26" s="2"/>
       <c r="AJ26" s="1">
         <v>0</v>
       </c>
       <c r="AK26" s="1">
         <v>0</v>
       </c>
-      <c r="AL26" s="2">
+      <c r="AL26" s="1">
         <v>220800.0</v>
       </c>
-      <c r="AM26"/>
-      <c r="AN26">
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="2">
         <v>1</v>
       </c>
       <c r="AO26" t="s">
@@ -14546,27 +14831,29 @@
       </c>
       <c r="AD27" s="2"/>
       <c r="AE27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="2">
+        <v>221008.0</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG27" s="1">
         <v>0.0</v>
       </c>
       <c r="AH27" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI27" s="1"/>
+      <c r="AI27" s="2"/>
       <c r="AJ27" s="1">
         <v>0</v>
       </c>
       <c r="AK27" s="1">
         <v>0</v>
       </c>
-      <c r="AL27" s="2">
+      <c r="AL27" s="1">
         <v>220800.0</v>
       </c>
-      <c r="AM27"/>
-      <c r="AN27">
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="2">
         <v>1</v>
       </c>
       <c r="AO27" t="s">
@@ -14633,27 +14920,29 @@
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="2">
+        <v>269606.0</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG28" s="1">
         <v>0.0</v>
       </c>
       <c r="AH28" s="1">
         <v>0.0</v>
       </c>
-      <c r="AI28" s="1"/>
+      <c r="AI28" s="2"/>
       <c r="AJ28" s="1">
         <v>0</v>
       </c>
       <c r="AK28" s="1">
         <v>0</v>
       </c>
-      <c r="AL28" s="2">
+      <c r="AL28" s="1">
         <v>220800.0</v>
       </c>
-      <c r="AM28"/>
-      <c r="AN28">
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="2">
         <v>1</v>
       </c>
       <c r="AO28" t="s">
@@ -14720,27 +15009,29 @@
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="2">
+        <v>319907.394</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG29" s="1">
         <v>-672.0</v>
       </c>
       <c r="AH29" s="1">
         <v>-672.0</v>
       </c>
-      <c r="AI29" s="1"/>
+      <c r="AI29" s="2"/>
       <c r="AJ29" s="1">
         <v>0</v>
       </c>
       <c r="AK29" s="1">
         <v>0</v>
       </c>
-      <c r="AL29" s="2">
+      <c r="AL29" s="1">
         <v>77427.0</v>
       </c>
-      <c r="AM29"/>
-      <c r="AN29">
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="2">
         <v>1</v>
       </c>
       <c r="AO29" t="s">
@@ -14807,27 +15098,29 @@
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="2">
+        <v>371912.182</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG30" s="1">
         <v>-1291.416</v>
       </c>
       <c r="AH30" s="1">
         <v>-1963.416</v>
       </c>
-      <c r="AI30" s="1"/>
+      <c r="AI30" s="2"/>
       <c r="AJ30" s="1">
         <v>0</v>
       </c>
       <c r="AK30" s="1">
         <v>0</v>
       </c>
-      <c r="AL30" s="2">
+      <c r="AL30" s="1">
         <v>77427.0</v>
       </c>
-      <c r="AM30"/>
-      <c r="AN30">
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="2">
         <v>1</v>
       </c>
       <c r="AO30" t="s">
@@ -14894,27 +15187,29 @@
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="2">
+        <v>425620.364</v>
+      </c>
+      <c r="AF31" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG31" s="1">
         <v>-1910.832</v>
       </c>
       <c r="AH31" s="1">
         <v>-3874.248</v>
       </c>
-      <c r="AI31" s="1"/>
+      <c r="AI31" s="2"/>
       <c r="AJ31" s="1">
         <v>0</v>
       </c>
       <c r="AK31" s="1">
         <v>0</v>
       </c>
-      <c r="AL31" s="2">
+      <c r="AL31" s="1">
         <v>77427.0</v>
       </c>
-      <c r="AM31"/>
-      <c r="AN31">
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="2">
         <v>1</v>
       </c>
       <c r="AO31" t="s">
@@ -14981,27 +15276,29 @@
       </c>
       <c r="AD32" s="2"/>
       <c r="AE32" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="2">
+        <v>481031.94</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG32" s="1">
         <v>-2530.248</v>
       </c>
       <c r="AH32" s="1">
         <v>-6404.496</v>
       </c>
-      <c r="AI32" s="1"/>
+      <c r="AI32" s="2"/>
       <c r="AJ32" s="1">
         <v>0</v>
       </c>
       <c r="AK32" s="1">
         <v>0</v>
       </c>
-      <c r="AL32" s="2">
+      <c r="AL32" s="1">
         <v>77427.0</v>
       </c>
-      <c r="AM32"/>
-      <c r="AN32">
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="2">
         <v>1</v>
       </c>
       <c r="AO32" t="s">
@@ -15068,27 +15365,29 @@
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="2">
+        <v>538146.91</v>
+      </c>
+      <c r="AF33" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG33" s="1">
         <v>-3149.664</v>
       </c>
       <c r="AH33" s="1">
         <v>-9554.16</v>
       </c>
-      <c r="AI33" s="1"/>
+      <c r="AI33" s="2"/>
       <c r="AJ33" s="1">
         <v>0</v>
       </c>
       <c r="AK33" s="1">
         <v>0</v>
       </c>
-      <c r="AL33" s="2">
+      <c r="AL33" s="1">
         <v>77427.0</v>
       </c>
-      <c r="AM33"/>
-      <c r="AN33">
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="2">
         <v>1</v>
       </c>
       <c r="AO33" t="s">
@@ -15155,27 +15454,29 @@
       </c>
       <c r="AD34" s="2"/>
       <c r="AE34" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="2">
+        <v>596965.274</v>
+      </c>
+      <c r="AF34" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG34" s="1">
         <v>-3769.08</v>
       </c>
       <c r="AH34" s="1">
         <v>-13323.24</v>
       </c>
-      <c r="AI34" s="1"/>
+      <c r="AI34" s="2"/>
       <c r="AJ34" s="1">
         <v>0</v>
       </c>
       <c r="AK34" s="1">
         <v>0</v>
       </c>
-      <c r="AL34" s="2">
+      <c r="AL34" s="1">
         <v>77427.0</v>
       </c>
-      <c r="AM34"/>
-      <c r="AN34">
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="2">
         <v>1</v>
       </c>
       <c r="AO34" t="s">
@@ -15242,27 +15543,29 @@
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="2">
+        <v>657487.032</v>
+      </c>
+      <c r="AF35" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG35" s="1">
         <v>-4388.496</v>
       </c>
       <c r="AH35" s="1">
         <v>-17711.736</v>
       </c>
-      <c r="AI35" s="1"/>
+      <c r="AI35" s="2"/>
       <c r="AJ35" s="1">
         <v>0</v>
       </c>
       <c r="AK35" s="1">
         <v>0</v>
       </c>
-      <c r="AL35" s="2">
+      <c r="AL35" s="1">
         <v>77427.0</v>
       </c>
-      <c r="AM35"/>
-      <c r="AN35">
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="2">
         <v>1</v>
       </c>
       <c r="AO35" t="s">
@@ -15329,27 +15632,29 @@
       </c>
       <c r="AD36" s="2"/>
       <c r="AE36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="2">
+        <v>719712.184</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG36" s="1">
         <v>-5007.912</v>
       </c>
       <c r="AH36" s="1">
         <v>-22719.648</v>
       </c>
-      <c r="AI36" s="1"/>
+      <c r="AI36" s="2"/>
       <c r="AJ36" s="1">
         <v>0</v>
       </c>
       <c r="AK36" s="1">
         <v>0</v>
       </c>
-      <c r="AL36" s="2">
+      <c r="AL36" s="1">
         <v>77427.0</v>
       </c>
-      <c r="AM36"/>
-      <c r="AN36">
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="2">
         <v>1</v>
       </c>
       <c r="AO36" t="s">
@@ -15416,27 +15721,29 @@
       </c>
       <c r="AD37" s="2"/>
       <c r="AE37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF37" s="1"/>
-      <c r="AG37" s="2">
+        <v>783640.73</v>
+      </c>
+      <c r="AF37" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG37" s="1">
         <v>-5627.328</v>
       </c>
       <c r="AH37" s="1">
         <v>-28346.976</v>
       </c>
-      <c r="AI37" s="1"/>
+      <c r="AI37" s="2"/>
       <c r="AJ37" s="1">
         <v>0</v>
       </c>
       <c r="AK37" s="1">
         <v>0</v>
       </c>
-      <c r="AL37" s="2">
+      <c r="AL37" s="1">
         <v>77427.0</v>
       </c>
-      <c r="AM37"/>
-      <c r="AN37">
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="2">
         <v>1</v>
       </c>
       <c r="AO37" t="s">
@@ -15503,27 +15810,29 @@
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="2">
+        <v>849272.67</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG38" s="1">
         <v>-6246.744</v>
       </c>
       <c r="AH38" s="1">
         <v>-34593.72</v>
       </c>
-      <c r="AI38" s="1"/>
+      <c r="AI38" s="2"/>
       <c r="AJ38" s="1">
         <v>0</v>
       </c>
       <c r="AK38" s="1">
         <v>0</v>
       </c>
-      <c r="AL38" s="2">
+      <c r="AL38" s="1">
         <v>77427.0</v>
       </c>
-      <c r="AM38"/>
-      <c r="AN38">
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="2">
         <v>1</v>
       </c>
       <c r="AO38" t="s">
@@ -15590,27 +15899,29 @@
       </c>
       <c r="AD39" s="2"/>
       <c r="AE39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="2">
+        <v>920092.21</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG39" s="1">
         <v>-6866.16</v>
       </c>
       <c r="AH39" s="1">
         <v>-41459.88</v>
       </c>
-      <c r="AI39" s="1"/>
+      <c r="AI39" s="2"/>
       <c r="AJ39" s="1">
         <v>0</v>
       </c>
       <c r="AK39" s="1">
         <v>0</v>
       </c>
-      <c r="AL39" s="2">
+      <c r="AL39" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM39"/>
-      <c r="AN39">
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="2">
         <v>1</v>
       </c>
       <c r="AO39" t="s">
@@ -15677,30 +15988,32 @@
       </c>
       <c r="AD40" s="12"/>
       <c r="AE40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AF40" s="11"/>
-      <c r="AG40" s="12">
+        <v>996099.35</v>
+      </c>
+      <c r="AF40" s="12">
+        <v>0.022</v>
+      </c>
+      <c r="AG40" s="11">
         <v>-8752.56</v>
       </c>
       <c r="AH40" s="11">
         <v>-50212.44</v>
       </c>
-      <c r="AI40" s="11"/>
+      <c r="AI40" s="12"/>
       <c r="AJ40" s="11">
         <v>0</v>
       </c>
       <c r="AK40" s="11">
         <v>0</v>
       </c>
-      <c r="AL40" s="12">
+      <c r="AL40" s="11">
         <v>235800.0</v>
       </c>
-      <c r="AM40" s="10"/>
-      <c r="AN40">
+      <c r="AM40" s="11"/>
+      <c r="AN40" s="12">
         <v>1</v>
       </c>
-      <c r="AO40" t="s">
+      <c r="AO40" s="10" t="s">
         <v>74</v>
       </c>
     </row>
@@ -15764,27 +16077,29 @@
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="2">
+        <v>1077294.09</v>
+      </c>
+      <c r="AF41" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG41" s="1">
         <v>-10638.96</v>
       </c>
       <c r="AH41" s="1">
         <v>-60851.4</v>
       </c>
-      <c r="AI41" s="1"/>
+      <c r="AI41" s="2"/>
       <c r="AJ41" s="1">
         <v>0</v>
       </c>
       <c r="AK41" s="1">
         <v>0</v>
       </c>
-      <c r="AL41" s="2">
+      <c r="AL41" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM41"/>
-      <c r="AN41">
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="2">
         <v>1</v>
       </c>
       <c r="AO41" t="s">
@@ -15851,27 +16166,29 @@
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF42" s="1"/>
-      <c r="AG42" s="2">
+        <v>1163676.43</v>
+      </c>
+      <c r="AF42" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG42" s="1">
         <v>-12525.36</v>
       </c>
       <c r="AH42" s="1">
         <v>-73376.76</v>
       </c>
-      <c r="AI42" s="1"/>
+      <c r="AI42" s="2"/>
       <c r="AJ42" s="1">
         <v>0</v>
       </c>
       <c r="AK42" s="1">
         <v>0</v>
       </c>
-      <c r="AL42" s="2">
+      <c r="AL42" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM42"/>
-      <c r="AN42">
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="2">
         <v>1</v>
       </c>
       <c r="AO42" t="s">
@@ -15938,27 +16255,29 @@
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF43" s="1"/>
-      <c r="AG43" s="2">
+        <v>1255246.37</v>
+      </c>
+      <c r="AF43" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG43" s="1">
         <v>-14411.76</v>
       </c>
       <c r="AH43" s="1">
         <v>-87788.52</v>
       </c>
-      <c r="AI43" s="1"/>
+      <c r="AI43" s="2"/>
       <c r="AJ43" s="1">
         <v>0</v>
       </c>
       <c r="AK43" s="1">
         <v>0</v>
       </c>
-      <c r="AL43" s="2">
+      <c r="AL43" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM43"/>
-      <c r="AN43">
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="2">
         <v>1</v>
       </c>
       <c r="AO43" t="s">
@@ -16025,27 +16344,29 @@
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF44" s="1"/>
-      <c r="AG44" s="2">
+        <v>1352003.91</v>
+      </c>
+      <c r="AF44" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG44" s="1">
         <v>-16298.16</v>
       </c>
       <c r="AH44" s="1">
         <v>-104086.68</v>
       </c>
-      <c r="AI44" s="1"/>
+      <c r="AI44" s="2"/>
       <c r="AJ44" s="1">
         <v>0</v>
       </c>
       <c r="AK44" s="1">
         <v>0</v>
       </c>
-      <c r="AL44" s="2">
+      <c r="AL44" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM44"/>
-      <c r="AN44">
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="2">
         <v>1</v>
       </c>
       <c r="AO44" t="s">
@@ -16112,27 +16433,29 @@
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF45" s="1"/>
-      <c r="AG45" s="2">
+        <v>1453949.05</v>
+      </c>
+      <c r="AF45" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG45" s="1">
         <v>-18184.56</v>
       </c>
       <c r="AH45" s="1">
         <v>-122271.24</v>
       </c>
-      <c r="AI45" s="1"/>
+      <c r="AI45" s="2"/>
       <c r="AJ45" s="1">
         <v>0</v>
       </c>
       <c r="AK45" s="1">
         <v>0</v>
       </c>
-      <c r="AL45" s="2">
+      <c r="AL45" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM45"/>
-      <c r="AN45">
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="2">
         <v>1</v>
       </c>
       <c r="AO45" t="s">
@@ -16199,27 +16522,29 @@
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF46" s="1"/>
-      <c r="AG46" s="2">
+        <v>1561081.79</v>
+      </c>
+      <c r="AF46" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG46" s="1">
         <v>-20070.96</v>
       </c>
       <c r="AH46" s="1">
         <v>-142342.2</v>
       </c>
-      <c r="AI46" s="1"/>
+      <c r="AI46" s="2"/>
       <c r="AJ46" s="1">
         <v>0</v>
       </c>
       <c r="AK46" s="1">
         <v>0</v>
       </c>
-      <c r="AL46" s="2">
+      <c r="AL46" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM46"/>
-      <c r="AN46">
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="2">
         <v>1</v>
       </c>
       <c r="AO46" t="s">
@@ -16286,27 +16611,29 @@
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF47" s="1"/>
-      <c r="AG47" s="2">
+        <v>1673402.13</v>
+      </c>
+      <c r="AF47" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG47" s="1">
         <v>-21957.36</v>
       </c>
       <c r="AH47" s="1">
         <v>-164299.56</v>
       </c>
-      <c r="AI47" s="1"/>
+      <c r="AI47" s="2"/>
       <c r="AJ47" s="1">
         <v>0</v>
       </c>
       <c r="AK47" s="1">
         <v>0</v>
       </c>
-      <c r="AL47" s="2">
+      <c r="AL47" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM47"/>
-      <c r="AN47">
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="2">
         <v>1</v>
       </c>
       <c r="AO47" t="s">
@@ -16373,27 +16700,29 @@
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF48" s="1"/>
-      <c r="AG48" s="2">
+        <v>1790910.07</v>
+      </c>
+      <c r="AF48" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG48" s="1">
         <v>-23843.76</v>
       </c>
       <c r="AH48" s="1">
         <v>-188143.32</v>
       </c>
-      <c r="AI48" s="1"/>
+      <c r="AI48" s="2"/>
       <c r="AJ48" s="1">
         <v>0</v>
       </c>
       <c r="AK48" s="1">
         <v>0</v>
       </c>
-      <c r="AL48" s="2">
+      <c r="AL48" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM48"/>
-      <c r="AN48">
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="2">
         <v>1</v>
       </c>
       <c r="AO48" t="s">
@@ -16460,27 +16789,29 @@
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF49" s="1"/>
-      <c r="AG49" s="2">
+        <v>1913605.61</v>
+      </c>
+      <c r="AF49" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG49" s="1">
         <v>-25730.16</v>
       </c>
       <c r="AH49" s="1">
         <v>-213873.48</v>
       </c>
-      <c r="AI49" s="1"/>
+      <c r="AI49" s="2"/>
       <c r="AJ49" s="1">
         <v>0</v>
       </c>
       <c r="AK49" s="1">
         <v>0</v>
       </c>
-      <c r="AL49" s="2">
+      <c r="AL49" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM49"/>
-      <c r="AN49">
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="2">
         <v>1</v>
       </c>
       <c r="AO49" t="s">
@@ -16547,27 +16878,29 @@
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="2">
+        <v>2041488.75</v>
+      </c>
+      <c r="AF50" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG50" s="1">
         <v>-27616.56</v>
       </c>
       <c r="AH50" s="1">
         <v>-241490.04</v>
       </c>
-      <c r="AI50" s="1"/>
+      <c r="AI50" s="2"/>
       <c r="AJ50" s="1">
         <v>0</v>
       </c>
       <c r="AK50" s="1">
         <v>0</v>
       </c>
-      <c r="AL50" s="2">
+      <c r="AL50" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM50"/>
-      <c r="AN50">
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="2">
         <v>1</v>
       </c>
       <c r="AO50" t="s">
@@ -16634,27 +16967,29 @@
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF51" s="1"/>
-      <c r="AG51" s="2">
+        <v>2174559.49</v>
+      </c>
+      <c r="AF51" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG51" s="1">
         <v>-29502.96</v>
       </c>
       <c r="AH51" s="1">
         <v>-270993.0</v>
       </c>
-      <c r="AI51" s="1"/>
+      <c r="AI51" s="2"/>
       <c r="AJ51" s="1">
         <v>0</v>
       </c>
       <c r="AK51" s="1">
         <v>0</v>
       </c>
-      <c r="AL51" s="2">
+      <c r="AL51" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM51"/>
-      <c r="AN51">
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="2">
         <v>1</v>
       </c>
       <c r="AO51" t="s">
@@ -16721,27 +17056,29 @@
       </c>
       <c r="AD52" s="2"/>
       <c r="AE52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF52" s="1"/>
-      <c r="AG52" s="2">
+        <v>2312817.83</v>
+      </c>
+      <c r="AF52" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG52" s="1">
         <v>-31389.36</v>
       </c>
       <c r="AH52" s="1">
         <v>-302382.36</v>
       </c>
-      <c r="AI52" s="1"/>
+      <c r="AI52" s="2"/>
       <c r="AJ52" s="1">
         <v>0</v>
       </c>
       <c r="AK52" s="1">
         <v>0</v>
       </c>
-      <c r="AL52" s="2">
+      <c r="AL52" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM52"/>
-      <c r="AN52">
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="2">
         <v>1</v>
       </c>
       <c r="AO52" t="s">
@@ -16808,30 +17145,32 @@
       </c>
       <c r="AD53" s="14"/>
       <c r="AE53" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="AF53" s="13"/>
-      <c r="AG53" s="14">
+        <v>2456263.77</v>
+      </c>
+      <c r="AF53" s="14">
+        <v>0.022</v>
+      </c>
+      <c r="AG53" s="13">
         <v>-33275.76</v>
       </c>
       <c r="AH53" s="13">
         <v>-335658.12</v>
       </c>
-      <c r="AI53" s="13"/>
+      <c r="AI53" s="14"/>
       <c r="AJ53" s="13">
         <v>0</v>
       </c>
       <c r="AK53" s="13">
         <v>0</v>
       </c>
-      <c r="AL53" s="14">
+      <c r="AL53" s="13">
         <v>235800.0</v>
       </c>
-      <c r="AM53" s="3"/>
-      <c r="AN53">
+      <c r="AM53" s="13"/>
+      <c r="AN53" s="14">
         <v>1</v>
       </c>
-      <c r="AO53" t="s">
+      <c r="AO53" s="3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -16895,27 +17234,29 @@
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF54" s="1"/>
-      <c r="AG54" s="2">
+        <v>2604897.31</v>
+      </c>
+      <c r="AF54" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG54" s="1">
         <v>-35162.16</v>
       </c>
       <c r="AH54" s="1">
         <v>-370820.28</v>
       </c>
-      <c r="AI54" s="1"/>
+      <c r="AI54" s="2"/>
       <c r="AJ54" s="1">
         <v>0</v>
       </c>
       <c r="AK54" s="1">
         <v>0</v>
       </c>
-      <c r="AL54" s="2">
+      <c r="AL54" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM54"/>
-      <c r="AN54">
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="2">
         <v>1</v>
       </c>
       <c r="AO54" t="s">
@@ -16982,27 +17323,29 @@
       </c>
       <c r="AD55" s="2"/>
       <c r="AE55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF55" s="1"/>
-      <c r="AG55" s="2">
+        <v>2758718.45</v>
+      </c>
+      <c r="AF55" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG55" s="1">
         <v>-37048.56</v>
       </c>
       <c r="AH55" s="1">
         <v>-407868.84</v>
       </c>
-      <c r="AI55" s="1"/>
+      <c r="AI55" s="2"/>
       <c r="AJ55" s="1">
         <v>0</v>
       </c>
       <c r="AK55" s="1">
         <v>0</v>
       </c>
-      <c r="AL55" s="2">
+      <c r="AL55" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM55"/>
-      <c r="AN55">
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="2">
         <v>1</v>
       </c>
       <c r="AO55" t="s">
@@ -17069,27 +17412,29 @@
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF56" s="1"/>
-      <c r="AG56" s="2">
+        <v>2917727.19</v>
+      </c>
+      <c r="AF56" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG56" s="1">
         <v>-38934.96</v>
       </c>
       <c r="AH56" s="1">
         <v>-446803.8</v>
       </c>
-      <c r="AI56" s="1"/>
+      <c r="AI56" s="2"/>
       <c r="AJ56" s="1">
         <v>0</v>
       </c>
       <c r="AK56" s="1">
         <v>0</v>
       </c>
-      <c r="AL56" s="2">
+      <c r="AL56" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM56"/>
-      <c r="AN56">
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="2">
         <v>1</v>
       </c>
       <c r="AO56" t="s">
@@ -17156,30 +17501,32 @@
       </c>
       <c r="AD57" s="14"/>
       <c r="AE57" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="AF57" s="13"/>
-      <c r="AG57" s="14">
+        <v>3081923.53</v>
+      </c>
+      <c r="AF57" s="14">
+        <v>0.022</v>
+      </c>
+      <c r="AG57" s="13">
         <v>-40821.36</v>
       </c>
       <c r="AH57" s="13">
         <v>-487625.16</v>
       </c>
-      <c r="AI57" s="13"/>
+      <c r="AI57" s="14"/>
       <c r="AJ57" s="13">
         <v>0</v>
       </c>
       <c r="AK57" s="13">
         <v>0</v>
       </c>
-      <c r="AL57" s="14">
+      <c r="AL57" s="13">
         <v>235800.0</v>
       </c>
-      <c r="AM57" s="3"/>
-      <c r="AN57">
+      <c r="AM57" s="13"/>
+      <c r="AN57" s="14">
         <v>1</v>
       </c>
-      <c r="AO57" t="s">
+      <c r="AO57" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -17243,27 +17590,29 @@
       </c>
       <c r="AD58" s="2"/>
       <c r="AE58" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF58" s="1"/>
-      <c r="AG58" s="2">
+        <v>3251307.47</v>
+      </c>
+      <c r="AF58" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG58" s="1">
         <v>-42707.76</v>
       </c>
       <c r="AH58" s="1">
         <v>-530332.92</v>
       </c>
-      <c r="AI58" s="1"/>
+      <c r="AI58" s="2"/>
       <c r="AJ58" s="1">
         <v>0</v>
       </c>
       <c r="AK58" s="1">
         <v>0</v>
       </c>
-      <c r="AL58" s="2">
+      <c r="AL58" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM58"/>
-      <c r="AN58">
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="2">
         <v>1</v>
       </c>
       <c r="AO58" t="s">
@@ -17330,27 +17679,29 @@
       </c>
       <c r="AD59" s="2"/>
       <c r="AE59" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AF59" s="1"/>
-      <c r="AG59" s="2">
+        <v>3425879.01</v>
+      </c>
+      <c r="AF59" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="AG59" s="1">
         <v>-44594.16</v>
       </c>
       <c r="AH59" s="1">
         <v>-574927.08</v>
       </c>
-      <c r="AI59" s="1"/>
+      <c r="AI59" s="2"/>
       <c r="AJ59" s="1">
         <v>0</v>
       </c>
       <c r="AK59" s="1">
         <v>0</v>
       </c>
-      <c r="AL59" s="2">
+      <c r="AL59" s="1">
         <v>235800.0</v>
       </c>
-      <c r="AM59"/>
-      <c r="AN59">
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="2">
         <v>1</v>
       </c>
       <c r="AO59" t="s">
@@ -17417,30 +17768,32 @@
       </c>
       <c r="AD60" s="16"/>
       <c r="AE60" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AF60" s="5"/>
-      <c r="AG60" s="16">
+        <v>3605638.15</v>
+      </c>
+      <c r="AF60" s="16">
+        <v>0.022</v>
+      </c>
+      <c r="AG60" s="5">
         <v>-46480.56</v>
       </c>
       <c r="AH60" s="5">
         <v>-621407.64</v>
       </c>
-      <c r="AI60" s="5"/>
+      <c r="AI60" s="16"/>
       <c r="AJ60" s="5">
         <v>0</v>
       </c>
       <c r="AK60" s="5">
         <v>0</v>
       </c>
-      <c r="AL60" s="16">
+      <c r="AL60" s="5">
         <v>235800.0</v>
       </c>
-      <c r="AM60" s="15"/>
-      <c r="AN60">
+      <c r="AM60" s="5"/>
+      <c r="AN60" s="16">
         <v>1</v>
       </c>
-      <c r="AO60" t="s">
+      <c r="AO60" s="15" t="s">
         <v>94</v>
       </c>
     </row>
@@ -17475,13 +17828,15 @@
       <c r="AC61" s="1"/>
       <c r="AD61" s="2"/>
       <c r="AE61" s="1"/>
-      <c r="AF61" s="1"/>
-      <c r="AG61" s="2"/>
+      <c r="AF61" s="2"/>
+      <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
-      <c r="AI61" s="1"/>
+      <c r="AI61" s="2"/>
       <c r="AJ61" s="1"/>
       <c r="AK61" s="1"/>
-      <c r="AL61" s="2"/>
+      <c r="AL61" s="1"/>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="2"/>
     </row>
     <row r="62" spans="1:41">
       <c r="B62" s="1"/>
@@ -17514,13 +17869,15 @@
       <c r="AC62" s="1"/>
       <c r="AD62" s="2"/>
       <c r="AE62" s="1"/>
-      <c r="AF62" s="1"/>
-      <c r="AG62" s="2"/>
+      <c r="AF62" s="2"/>
+      <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
-      <c r="AI62" s="1"/>
+      <c r="AI62" s="2"/>
       <c r="AJ62" s="1"/>
       <c r="AK62" s="1"/>
-      <c r="AL62" s="2"/>
+      <c r="AL62" s="1"/>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="2"/>
     </row>
     <row r="63" spans="1:41">
       <c r="B63" s="1"/>
@@ -17553,13 +17910,15 @@
       <c r="AC63" s="1"/>
       <c r="AD63" s="2"/>
       <c r="AE63" s="1"/>
-      <c r="AF63" s="1"/>
-      <c r="AG63" s="2"/>
+      <c r="AF63" s="2"/>
+      <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
-      <c r="AI63" s="1"/>
+      <c r="AI63" s="2"/>
       <c r="AJ63" s="1"/>
       <c r="AK63" s="1"/>
-      <c r="AL63" s="2"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="2"/>
     </row>
     <row r="64" spans="1:41">
       <c r="B64" s="1"/>
@@ -17592,13 +17951,15 @@
       <c r="AC64" s="1"/>
       <c r="AD64" s="2"/>
       <c r="AE64" s="1"/>
-      <c r="AF64" s="1"/>
-      <c r="AG64" s="2"/>
+      <c r="AF64" s="2"/>
+      <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
-      <c r="AI64" s="1"/>
+      <c r="AI64" s="2"/>
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
-      <c r="AL64" s="2"/>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="2"/>
     </row>
     <row r="65" spans="1:41">
       <c r="B65" s="1"/>
@@ -17631,13 +17992,15 @@
       <c r="AC65" s="1"/>
       <c r="AD65" s="2"/>
       <c r="AE65" s="1"/>
-      <c r="AF65" s="1"/>
-      <c r="AG65" s="2"/>
+      <c r="AF65" s="2"/>
+      <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
-      <c r="AI65" s="1"/>
+      <c r="AI65" s="2"/>
       <c r="AJ65" s="1"/>
       <c r="AK65" s="1"/>
-      <c r="AL65" s="2"/>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="2"/>
     </row>
     <row r="66" spans="1:41">
       <c r="B66" s="1"/>
@@ -17670,13 +18033,15 @@
       <c r="AC66" s="1"/>
       <c r="AD66" s="2"/>
       <c r="AE66" s="1"/>
-      <c r="AF66" s="1"/>
-      <c r="AG66" s="2"/>
+      <c r="AF66" s="2"/>
+      <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
-      <c r="AI66" s="1"/>
+      <c r="AI66" s="2"/>
       <c r="AJ66" s="1"/>
       <c r="AK66" s="1"/>
-      <c r="AL66" s="2"/>
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="2"/>
     </row>
     <row r="67" spans="1:41">
       <c r="B67" s="1"/>
@@ -17709,13 +18074,15 @@
       <c r="AC67" s="1"/>
       <c r="AD67" s="2"/>
       <c r="AE67" s="1"/>
-      <c r="AF67" s="1"/>
-      <c r="AG67" s="2"/>
+      <c r="AF67" s="2"/>
+      <c r="AG67" s="1"/>
       <c r="AH67" s="1"/>
-      <c r="AI67" s="1"/>
+      <c r="AI67" s="2"/>
       <c r="AJ67" s="1"/>
       <c r="AK67" s="1"/>
-      <c r="AL67" s="2"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="2"/>
     </row>
     <row r="68" spans="1:41">
       <c r="B68" s="1"/>
@@ -17748,13 +18115,15 @@
       <c r="AC68" s="1"/>
       <c r="AD68" s="2"/>
       <c r="AE68" s="1"/>
-      <c r="AF68" s="1"/>
-      <c r="AG68" s="2"/>
+      <c r="AF68" s="2"/>
+      <c r="AG68" s="1"/>
       <c r="AH68" s="1"/>
-      <c r="AI68" s="1"/>
+      <c r="AI68" s="2"/>
       <c r="AJ68" s="1"/>
       <c r="AK68" s="1"/>
-      <c r="AL68" s="2"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="2"/>
     </row>
     <row r="69" spans="1:41">
       <c r="B69" s="1"/>
@@ -17787,13 +18156,15 @@
       <c r="AC69" s="1"/>
       <c r="AD69" s="2"/>
       <c r="AE69" s="1"/>
-      <c r="AF69" s="1"/>
-      <c r="AG69" s="2"/>
+      <c r="AF69" s="2"/>
+      <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
-      <c r="AI69" s="1"/>
+      <c r="AI69" s="2"/>
       <c r="AJ69" s="1"/>
       <c r="AK69" s="1"/>
-      <c r="AL69" s="2"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="2"/>
     </row>
     <row r="70" spans="1:41">
       <c r="B70" s="1"/>
@@ -17826,13 +18197,15 @@
       <c r="AC70" s="1"/>
       <c r="AD70" s="2"/>
       <c r="AE70" s="1"/>
-      <c r="AF70" s="1"/>
-      <c r="AG70" s="2"/>
+      <c r="AF70" s="2"/>
+      <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
-      <c r="AI70" s="1"/>
+      <c r="AI70" s="2"/>
       <c r="AJ70" s="1"/>
       <c r="AK70" s="1"/>
-      <c r="AL70" s="2"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="2"/>
     </row>
     <row r="71" spans="1:41">
       <c r="B71" s="1"/>
@@ -17865,13 +18238,15 @@
       <c r="AC71" s="1"/>
       <c r="AD71" s="2"/>
       <c r="AE71" s="1"/>
-      <c r="AF71" s="1"/>
-      <c r="AG71" s="2"/>
+      <c r="AF71" s="2"/>
+      <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
-      <c r="AI71" s="1"/>
+      <c r="AI71" s="2"/>
       <c r="AJ71" s="1"/>
       <c r="AK71" s="1"/>
-      <c r="AL71" s="2"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="2"/>
     </row>
     <row r="72" spans="1:41">
       <c r="B72" s="1"/>
@@ -17904,13 +18279,15 @@
       <c r="AC72" s="1"/>
       <c r="AD72" s="2"/>
       <c r="AE72" s="1"/>
-      <c r="AF72" s="1"/>
-      <c r="AG72" s="2"/>
+      <c r="AF72" s="2"/>
+      <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
-      <c r="AI72" s="1"/>
+      <c r="AI72" s="2"/>
       <c r="AJ72" s="1"/>
       <c r="AK72" s="1"/>
-      <c r="AL72" s="2"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="2"/>
     </row>
     <row r="73" spans="1:41">
       <c r="B73" s="1"/>
@@ -17943,13 +18320,15 @@
       <c r="AC73" s="1"/>
       <c r="AD73" s="2"/>
       <c r="AE73" s="1"/>
-      <c r="AF73" s="1"/>
-      <c r="AG73" s="2"/>
+      <c r="AF73" s="2"/>
+      <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
-      <c r="AI73" s="1"/>
+      <c r="AI73" s="2"/>
       <c r="AJ73" s="1"/>
       <c r="AK73" s="1"/>
-      <c r="AL73" s="2"/>
+      <c r="AL73" s="1"/>
+      <c r="AM73" s="1"/>
+      <c r="AN73" s="2"/>
     </row>
     <row r="74" spans="1:41">
       <c r="B74" s="1"/>
@@ -17982,13 +18361,15 @@
       <c r="AC74" s="1"/>
       <c r="AD74" s="2"/>
       <c r="AE74" s="1"/>
-      <c r="AF74" s="1"/>
-      <c r="AG74" s="2"/>
+      <c r="AF74" s="2"/>
+      <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
-      <c r="AI74" s="1"/>
+      <c r="AI74" s="2"/>
       <c r="AJ74" s="1"/>
       <c r="AK74" s="1"/>
-      <c r="AL74" s="2"/>
+      <c r="AL74" s="1"/>
+      <c r="AM74" s="1"/>
+      <c r="AN74" s="2"/>
     </row>
     <row r="75" spans="1:41">
       <c r="B75" s="1"/>
@@ -18021,13 +18402,15 @@
       <c r="AC75" s="1"/>
       <c r="AD75" s="2"/>
       <c r="AE75" s="1"/>
-      <c r="AF75" s="1"/>
-      <c r="AG75" s="2"/>
+      <c r="AF75" s="2"/>
+      <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
-      <c r="AI75" s="1"/>
+      <c r="AI75" s="2"/>
       <c r="AJ75" s="1"/>
       <c r="AK75" s="1"/>
-      <c r="AL75" s="2"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AN75" s="2"/>
     </row>
     <row r="76" spans="1:41">
       <c r="B76" s="1"/>
@@ -18060,13 +18443,15 @@
       <c r="AC76" s="1"/>
       <c r="AD76" s="2"/>
       <c r="AE76" s="1"/>
-      <c r="AF76" s="1"/>
-      <c r="AG76" s="2"/>
+      <c r="AF76" s="2"/>
+      <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
-      <c r="AI76" s="1"/>
+      <c r="AI76" s="2"/>
       <c r="AJ76" s="1"/>
       <c r="AK76" s="1"/>
-      <c r="AL76" s="2"/>
+      <c r="AL76" s="1"/>
+      <c r="AM76" s="1"/>
+      <c r="AN76" s="2"/>
     </row>
     <row r="77" spans="1:41">
       <c r="B77" s="1"/>
@@ -18099,13 +18484,15 @@
       <c r="AC77" s="1"/>
       <c r="AD77" s="2"/>
       <c r="AE77" s="1"/>
-      <c r="AF77" s="1"/>
-      <c r="AG77" s="2"/>
+      <c r="AF77" s="2"/>
+      <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
-      <c r="AI77" s="1"/>
+      <c r="AI77" s="2"/>
       <c r="AJ77" s="1"/>
       <c r="AK77" s="1"/>
-      <c r="AL77" s="2"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AN77" s="2"/>
     </row>
     <row r="78" spans="1:41">
       <c r="B78" s="1"/>
@@ -18138,13 +18525,15 @@
       <c r="AC78" s="1"/>
       <c r="AD78" s="2"/>
       <c r="AE78" s="1"/>
-      <c r="AF78" s="1"/>
-      <c r="AG78" s="2"/>
+      <c r="AF78" s="2"/>
+      <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
-      <c r="AI78" s="1"/>
+      <c r="AI78" s="2"/>
       <c r="AJ78" s="1"/>
       <c r="AK78" s="1"/>
-      <c r="AL78" s="2"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="2"/>
     </row>
     <row r="79" spans="1:41">
       <c r="B79" s="1"/>
@@ -18177,13 +18566,15 @@
       <c r="AC79" s="1"/>
       <c r="AD79" s="2"/>
       <c r="AE79" s="1"/>
-      <c r="AF79" s="1"/>
-      <c r="AG79" s="2"/>
+      <c r="AF79" s="2"/>
+      <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
-      <c r="AI79" s="1"/>
+      <c r="AI79" s="2"/>
       <c r="AJ79" s="1"/>
       <c r="AK79" s="1"/>
-      <c r="AL79" s="2"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="2"/>
     </row>
     <row r="80" spans="1:41">
       <c r="B80" s="1"/>
@@ -18216,13 +18607,15 @@
       <c r="AC80" s="1"/>
       <c r="AD80" s="2"/>
       <c r="AE80" s="1"/>
-      <c r="AF80" s="1"/>
-      <c r="AG80" s="2"/>
+      <c r="AF80" s="2"/>
+      <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
-      <c r="AI80" s="1"/>
+      <c r="AI80" s="2"/>
       <c r="AJ80" s="1"/>
       <c r="AK80" s="1"/>
-      <c r="AL80" s="2"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
